--- a/RedTotalsV2.xlsx
+++ b/RedTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="643">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -668,6 +668,15 @@
     <t>Sheffield Weds</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0.0833</t>
+  </si>
+  <si>
+    <t>0.1667</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -773,6 +782,15 @@
     <t>Port Vale</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0.5455</t>
+  </si>
+  <si>
+    <t>0.4545</t>
+  </si>
+  <si>
     <t>Aldershot</t>
   </si>
   <si>
@@ -872,513 +890,504 @@
     <t>Notts County</t>
   </si>
   <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hrtotals</t>
+  </si>
+  <si>
+    <t>f1_artotals</t>
+  </si>
+  <si>
+    <t>f1_totalreds</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>6</t>
+    <t>0.25</t>
   </si>
   <si>
     <t>0.125</t>
   </si>
   <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hrtotals</t>
+  </si>
+  <si>
+    <t>f2_artotals</t>
+  </si>
+  <si>
+    <t>f2_totalreds</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>0.6364</t>
+  </si>
+  <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hrtotals</t>
+  </si>
+  <si>
+    <t>g1_artotals</t>
+  </si>
+  <si>
+    <t>g1_totalreds</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hrtotals</t>
+  </si>
+  <si>
+    <t>i1_artotals</t>
+  </si>
+  <si>
+    <t>i1_totalreds</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>0.5714</t>
+  </si>
+  <si>
+    <t>0.4286</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hrtotals</t>
+  </si>
+  <si>
+    <t>i2_artotals</t>
+  </si>
+  <si>
+    <t>i2_totalreds</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>0.8571</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hrtotals</t>
+  </si>
+  <si>
+    <t>n1_artotals</t>
+  </si>
+  <si>
+    <t>n1_totalreds</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
     <t>0.375</t>
   </si>
   <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hrtotals</t>
-  </si>
-  <si>
-    <t>f1_artotals</t>
-  </si>
-  <si>
-    <t>f1_totalreds</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hrtotals</t>
-  </si>
-  <si>
-    <t>f2_artotals</t>
-  </si>
-  <si>
-    <t>f2_totalreds</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>0.4545</t>
-  </si>
-  <si>
-    <t>0.6364</t>
-  </si>
-  <si>
-    <t>0.5455</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hrtotals</t>
-  </si>
-  <si>
-    <t>g1_artotals</t>
-  </si>
-  <si>
-    <t>g1_totalreds</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hrtotals</t>
-  </si>
-  <si>
-    <t>i1_artotals</t>
-  </si>
-  <si>
-    <t>i1_totalreds</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>0.5714</t>
-  </si>
-  <si>
-    <t>0.4286</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hrtotals</t>
-  </si>
-  <si>
-    <t>i2_artotals</t>
-  </si>
-  <si>
-    <t>i2_totalreds</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>0.8571</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hrtotals</t>
-  </si>
-  <si>
-    <t>n1_artotals</t>
-  </si>
-  <si>
-    <t>n1_totalreds</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
     <t>0.625</t>
   </si>
   <si>
@@ -1869,6 +1878,9 @@
   </si>
   <si>
     <t>Sp Gijon</t>
+  </si>
+  <si>
+    <t>0.6667</t>
   </si>
   <si>
     <t>Ad..Demirspor</t>
@@ -3420,84 +3432,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="J1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="R1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="S1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="T1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="U1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="V1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="W1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="X1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Y1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Z1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -3572,12 +3584,12 @@
         <v>173</v>
       </c>
       <c r="Z2" t="s">
-        <v>340</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -3652,12 +3664,12 @@
         <v>173</v>
       </c>
       <c r="Z3" t="s">
-        <v>340</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -3737,7 +3749,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -3817,7 +3829,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -3897,7 +3909,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -3977,7 +3989,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4057,7 +4069,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4137,7 +4149,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -4217,7 +4229,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4297,7 +4309,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4372,12 +4384,12 @@
         <v>173</v>
       </c>
       <c r="Z12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -4457,7 +4469,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4537,7 +4549,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -4617,7 +4629,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -4686,18 +4698,18 @@
         <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="Y16" t="s">
         <v>173</v>
       </c>
       <c r="Z16" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -4777,7 +4789,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -4857,7 +4869,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -4937,7 +4949,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -5017,7 +5029,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5111,66 +5123,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="I1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="O1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="R1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="S1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="T1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5232,7 +5244,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -5294,7 +5306,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5356,7 +5368,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -5418,7 +5430,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -5480,7 +5492,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -5542,7 +5554,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -5599,12 +5611,12 @@
         <v>34</v>
       </c>
       <c r="T8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -5666,7 +5678,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -5728,7 +5740,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -5790,7 +5802,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -5852,7 +5864,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -5914,7 +5926,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -5976,7 +5988,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -6052,84 +6064,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="J1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="P1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="S1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="T1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="U1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="V1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="W1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="X1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Y1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6209,7 +6221,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6284,12 +6296,12 @@
         <v>36</v>
       </c>
       <c r="Z3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -6369,7 +6381,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -6449,7 +6461,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6524,12 +6536,12 @@
         <v>36</v>
       </c>
       <c r="Z6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -6609,7 +6621,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -6689,7 +6701,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6769,7 +6781,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -6844,12 +6856,12 @@
         <v>36</v>
       </c>
       <c r="Z10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6929,7 +6941,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -7009,7 +7021,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7084,12 +7096,12 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -7164,12 +7176,12 @@
         <v>36</v>
       </c>
       <c r="Z14" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -7249,7 +7261,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7329,7 +7341,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -7409,7 +7421,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -7489,7 +7501,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -7569,7 +7581,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -7649,7 +7661,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -7743,84 +7755,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="I1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Q1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="R1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="S1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="T1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="U1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="V1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="W1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="X1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Y1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -7900,7 +7912,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -7980,7 +7992,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -8060,7 +8072,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8140,7 +8152,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8220,7 +8232,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -8300,7 +8312,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8380,7 +8392,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -8455,12 +8467,12 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -8540,7 +8552,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -8620,7 +8632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -8700,7 +8712,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -8780,7 +8792,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -8860,7 +8872,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -8935,12 +8947,12 @@
         <v>36</v>
       </c>
       <c r="Z15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -9020,7 +9032,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -9095,12 +9107,12 @@
         <v>36</v>
       </c>
       <c r="Z17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -9169,18 +9181,18 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="Y18" t="s">
         <v>36</v>
       </c>
       <c r="Z18" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -9260,7 +9272,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9335,12 +9347,12 @@
         <v>36</v>
       </c>
       <c r="Z20" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -9434,78 +9446,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="I1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="J1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="Q1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="R1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="S1" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="T1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="U1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="V1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="W1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="X1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9571,7 +9583,7 @@
         <v>30</v>
       </c>
       <c r="W2" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X2" t="s">
         <v>30</v>
@@ -9579,7 +9591,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -9653,7 +9665,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -9719,15 +9731,15 @@
         <v>33</v>
       </c>
       <c r="W4" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X4" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -9796,12 +9808,12 @@
         <v>36</v>
       </c>
       <c r="X5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -9875,7 +9887,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -9941,15 +9953,15 @@
         <v>31</v>
       </c>
       <c r="W7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10015,15 +10027,15 @@
         <v>33</v>
       </c>
       <c r="W8" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X8" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -10089,15 +10101,15 @@
         <v>31</v>
       </c>
       <c r="W9" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X9" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -10171,7 +10183,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10237,15 +10249,15 @@
         <v>33</v>
       </c>
       <c r="W11" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X11" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10311,7 +10323,7 @@
         <v>30</v>
       </c>
       <c r="W12" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X12" t="s">
         <v>30</v>
@@ -10319,7 +10331,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -10385,15 +10397,15 @@
         <v>32</v>
       </c>
       <c r="W13" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X13" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -10459,15 +10471,15 @@
         <v>32</v>
       </c>
       <c r="W14" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X14" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -10533,7 +10545,7 @@
         <v>30</v>
       </c>
       <c r="W15" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X15" t="s">
         <v>30</v>
@@ -10541,7 +10553,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -10607,15 +10619,15 @@
         <v>34</v>
       </c>
       <c r="W16" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X16" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -10681,7 +10693,7 @@
         <v>30</v>
       </c>
       <c r="W17" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X17" t="s">
         <v>30</v>
@@ -10689,7 +10701,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -10755,15 +10767,15 @@
         <v>32</v>
       </c>
       <c r="W18" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X18" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -10829,10 +10841,10 @@
         <v>31</v>
       </c>
       <c r="W19" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X19" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -10851,78 +10863,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="G1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="H1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="I1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="L1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="N1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="O1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="P1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="Q1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="R1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="S1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="T1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="U1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="V1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="W1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="X1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -10988,15 +11000,15 @@
         <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X2" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11062,15 +11074,15 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X3" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -11136,15 +11148,15 @@
         <v>32</v>
       </c>
       <c r="W4" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X4" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -11210,7 +11222,7 @@
         <v>30</v>
       </c>
       <c r="W5" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X5" t="s">
         <v>30</v>
@@ -11218,7 +11230,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11284,15 +11296,15 @@
         <v>31</v>
       </c>
       <c r="W6" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X6" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11358,15 +11370,15 @@
         <v>31</v>
       </c>
       <c r="W7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -11432,15 +11444,15 @@
         <v>32</v>
       </c>
       <c r="W8" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X8" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -11506,15 +11518,15 @@
         <v>31</v>
       </c>
       <c r="W9" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X9" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -11580,15 +11592,15 @@
         <v>32</v>
       </c>
       <c r="W10" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X10" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -11654,15 +11666,15 @@
         <v>33</v>
       </c>
       <c r="W11" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X11" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -11728,15 +11740,15 @@
         <v>32</v>
       </c>
       <c r="W12" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X12" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -11802,7 +11814,7 @@
         <v>30</v>
       </c>
       <c r="W13" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X13" t="s">
         <v>30</v>
@@ -11810,7 +11822,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -11876,15 +11888,15 @@
         <v>32</v>
       </c>
       <c r="W14" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X14" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -11950,15 +11962,15 @@
         <v>33</v>
       </c>
       <c r="W15" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X15" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12024,15 +12036,15 @@
         <v>31</v>
       </c>
       <c r="W16" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X16" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12098,7 +12110,7 @@
         <v>35</v>
       </c>
       <c r="W17" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X17" t="s">
         <v>43</v>
@@ -12106,7 +12118,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12172,15 +12184,15 @@
         <v>31</v>
       </c>
       <c r="W18" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X18" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12246,10 +12258,10 @@
         <v>31</v>
       </c>
       <c r="W19" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="X19" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -12268,60 +12280,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="E1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="I1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="J1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="K1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="N1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="O1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="P1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="Q1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="R1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12369,15 +12381,15 @@
         <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R2" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -12425,15 +12437,15 @@
         <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R3" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -12481,15 +12493,15 @@
         <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R4" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12537,15 +12549,15 @@
         <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R5" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -12593,15 +12605,15 @@
         <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R6" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -12649,15 +12661,15 @@
         <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R7" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -12705,7 +12717,7 @@
         <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
@@ -12713,7 +12725,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -12761,15 +12773,15 @@
         <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R9" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -12817,15 +12829,15 @@
         <v>31</v>
       </c>
       <c r="Q10" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R10" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -12873,7 +12885,7 @@
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
@@ -12881,7 +12893,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -12929,15 +12941,15 @@
         <v>33</v>
       </c>
       <c r="Q12" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R12" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -12985,10 +12997,10 @@
         <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="R13" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -13007,54 +13019,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="H1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="I1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="N1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="O1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13096,15 +13108,15 @@
         <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="P2" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13146,15 +13158,15 @@
         <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="P3" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13196,7 +13208,7 @@
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
@@ -13204,7 +13216,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -13246,15 +13258,15 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="P5" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -13296,15 +13308,15 @@
         <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="P6" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13346,7 +13358,7 @@
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="P7" t="s">
         <v>30</v>
@@ -13354,7 +13366,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -13396,15 +13408,15 @@
         <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="P8" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -13446,7 +13458,7 @@
         <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="P9" t="s">
         <v>30</v>
@@ -13454,7 +13466,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -13496,15 +13508,15 @@
         <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="P10" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13546,10 +13558,10 @@
         <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="P11" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -13568,54 +13580,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="E1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="I1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="J1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="M1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="N1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="O1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="P1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13665,7 +13677,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -13715,7 +13727,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -13765,7 +13777,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13815,7 +13827,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -13865,7 +13877,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13915,7 +13927,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -13965,7 +13977,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14015,7 +14027,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14065,7 +14077,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -14129,54 +14141,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="D1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="J1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="K1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="N1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="O1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="P1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14226,7 +14238,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14276,7 +14288,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14326,7 +14338,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -14376,7 +14388,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14426,7 +14438,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -14476,7 +14488,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14526,7 +14538,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14576,7 +14588,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14626,7 +14638,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -16107,84 +16119,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="G1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="I1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="J1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="K1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="L1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="M1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="N1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="O1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="P1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="Q1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="R1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="S1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="T1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="U1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="V1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="W1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="X1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="Y1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="Z1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16264,7 +16276,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -16336,15 +16348,15 @@
         <v>33</v>
       </c>
       <c r="Y3" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z3" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16416,7 +16428,7 @@
         <v>35</v>
       </c>
       <c r="Y4" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z4" t="s">
         <v>43</v>
@@ -16424,7 +16436,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -16504,7 +16516,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -16576,15 +16588,15 @@
         <v>31</v>
       </c>
       <c r="Y6" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z6" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -16656,15 +16668,15 @@
         <v>32</v>
       </c>
       <c r="Y7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z7" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -16736,15 +16748,15 @@
         <v>32</v>
       </c>
       <c r="Y8" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z8" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -16816,7 +16828,7 @@
         <v>30</v>
       </c>
       <c r="Y9" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z9" t="s">
         <v>30</v>
@@ -16824,7 +16836,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -16896,15 +16908,15 @@
         <v>33</v>
       </c>
       <c r="Y10" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z10" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -16976,15 +16988,15 @@
         <v>33</v>
       </c>
       <c r="Y11" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z11" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -17056,15 +17068,15 @@
         <v>32</v>
       </c>
       <c r="Y12" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z12" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17136,15 +17148,15 @@
         <v>31</v>
       </c>
       <c r="Y13" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z13" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17216,15 +17228,15 @@
         <v>32</v>
       </c>
       <c r="Y14" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z14" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17296,7 +17308,7 @@
         <v>30</v>
       </c>
       <c r="Y15" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z15" t="s">
         <v>30</v>
@@ -17304,7 +17316,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17376,15 +17388,15 @@
         <v>31</v>
       </c>
       <c r="Y16" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z16" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -17459,12 +17471,12 @@
         <v>36</v>
       </c>
       <c r="Z17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -17536,15 +17548,15 @@
         <v>31</v>
       </c>
       <c r="Y18" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z18" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -17616,15 +17628,15 @@
         <v>33</v>
       </c>
       <c r="Y19" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z19" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -17696,15 +17708,15 @@
         <v>31</v>
       </c>
       <c r="Y20" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z20" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -17798,90 +17810,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="D1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="F1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="G1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="H1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="I1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="J1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="K1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="L1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="M1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="N1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="O1" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="P1" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="Q1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="R1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="S1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="T1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="U1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="V1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="W1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="X1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Y1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="Z1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AA1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AB1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -17893,7 +17905,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -17959,15 +17971,15 @@
         <v>33</v>
       </c>
       <c r="AA2" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB2" t="s">
-        <v>282</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18000,7 +18012,7 @@
         <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
         <v>29</v>
@@ -18045,15 +18057,15 @@
         <v>32</v>
       </c>
       <c r="AA3" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB3" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18125,21 +18137,21 @@
         <v>33</v>
       </c>
       <c r="Y4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AA4" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB4" t="s">
-        <v>282</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18217,15 +18229,15 @@
         <v>32</v>
       </c>
       <c r="AA5" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB5" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18255,7 +18267,7 @@
         <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
         <v>29</v>
@@ -18294,24 +18306,24 @@
         <v>29</v>
       </c>
       <c r="X6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y6" t="s">
         <v>31</v>
       </c>
       <c r="Z6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB6" t="s">
-        <v>281</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -18389,15 +18401,15 @@
         <v>32</v>
       </c>
       <c r="AA7" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB7" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -18433,7 +18445,7 @@
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s">
         <v>30</v>
@@ -18475,15 +18487,15 @@
         <v>32</v>
       </c>
       <c r="AA8" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB8" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -18561,15 +18573,15 @@
         <v>31</v>
       </c>
       <c r="AA9" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB9" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -18647,15 +18659,15 @@
         <v>32</v>
       </c>
       <c r="AA10" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB10" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -18727,21 +18739,21 @@
         <v>30</v>
       </c>
       <c r="Y11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA11" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB11" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -18819,15 +18831,15 @@
         <v>32</v>
       </c>
       <c r="AA12" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB12" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -18905,15 +18917,15 @@
         <v>31</v>
       </c>
       <c r="AA13" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB13" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -18937,7 +18949,7 @@
         <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
         <v>30</v>
@@ -18991,15 +19003,15 @@
         <v>31</v>
       </c>
       <c r="AA14" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB14" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -19077,15 +19089,15 @@
         <v>35</v>
       </c>
       <c r="AA15" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB15" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -19103,7 +19115,7 @@
         <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -19163,15 +19175,15 @@
         <v>31</v>
       </c>
       <c r="AA16" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB16" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -19228,7 +19240,7 @@
         <v>29</v>
       </c>
       <c r="T17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U17" t="s">
         <v>30</v>
@@ -19249,15 +19261,15 @@
         <v>32</v>
       </c>
       <c r="AA17" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB17" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -19329,21 +19341,21 @@
         <v>33</v>
       </c>
       <c r="Y18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Z18" t="s">
-        <v>35</v>
+        <v>249</v>
       </c>
       <c r="AA18" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB18" t="s">
-        <v>43</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -19394,7 +19406,7 @@
         <v>29</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="S19" t="s">
         <v>29</v>
@@ -19412,24 +19424,24 @@
         <v>29</v>
       </c>
       <c r="X19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y19" t="s">
         <v>31</v>
       </c>
       <c r="Z19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AA19" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB19" t="s">
-        <v>281</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -19507,15 +19519,15 @@
         <v>31</v>
       </c>
       <c r="AA20" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB20" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -19524,7 +19536,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -19584,24 +19596,24 @@
         <v>29</v>
       </c>
       <c r="X21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y21" t="s">
         <v>30</v>
       </c>
       <c r="Z21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA21" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB21" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -19643,7 +19655,7 @@
         <v>29</v>
       </c>
       <c r="O22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P22" t="s">
         <v>29</v>
@@ -19679,15 +19691,15 @@
         <v>33</v>
       </c>
       <c r="AA22" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB22" t="s">
-        <v>282</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -19714,7 +19726,7 @@
         <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
         <v>30</v>
@@ -19765,10 +19777,10 @@
         <v>32</v>
       </c>
       <c r="AA23" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AB23" t="s">
-        <v>283</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -19787,84 +19799,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="F1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="G1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="H1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="I1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="J1" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="K1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="L1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="M1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="N1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="O1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="P1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="Q1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="R1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="S1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="T1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="U1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="V1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="W1" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="X1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="Y1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="Z1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -19936,15 +19948,15 @@
         <v>31</v>
       </c>
       <c r="Y2" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z2" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20016,15 +20028,15 @@
         <v>33</v>
       </c>
       <c r="Y3" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z3" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20096,15 +20108,15 @@
         <v>33</v>
       </c>
       <c r="Y4" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z4" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -20176,7 +20188,7 @@
         <v>30</v>
       </c>
       <c r="Y5" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z5" t="s">
         <v>30</v>
@@ -20184,7 +20196,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -20256,15 +20268,15 @@
         <v>32</v>
       </c>
       <c r="Y6" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z6" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -20336,7 +20348,7 @@
         <v>30</v>
       </c>
       <c r="Y7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z7" t="s">
         <v>30</v>
@@ -20344,7 +20356,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20416,7 +20428,7 @@
         <v>30</v>
       </c>
       <c r="Y8" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z8" t="s">
         <v>30</v>
@@ -20424,7 +20436,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20496,15 +20508,15 @@
         <v>33</v>
       </c>
       <c r="Y9" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z9" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20576,15 +20588,15 @@
         <v>31</v>
       </c>
       <c r="Y10" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z10" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -20656,15 +20668,15 @@
         <v>32</v>
       </c>
       <c r="Y11" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z11" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -20736,15 +20748,15 @@
         <v>32</v>
       </c>
       <c r="Y12" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z12" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -20816,15 +20828,15 @@
         <v>31</v>
       </c>
       <c r="Y13" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z13" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -20896,15 +20908,15 @@
         <v>33</v>
       </c>
       <c r="Y14" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z14" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -20976,7 +20988,7 @@
         <v>30</v>
       </c>
       <c r="Y15" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z15" t="s">
         <v>30</v>
@@ -20984,7 +20996,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21056,7 +21068,7 @@
         <v>30</v>
       </c>
       <c r="Y16" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z16" t="s">
         <v>30</v>
@@ -21064,7 +21076,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21136,15 +21148,15 @@
         <v>31</v>
       </c>
       <c r="Y17" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z17" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21216,15 +21228,15 @@
         <v>32</v>
       </c>
       <c r="Y18" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z18" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -21296,15 +21308,15 @@
         <v>31</v>
       </c>
       <c r="Y19" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z19" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21376,15 +21388,15 @@
         <v>32</v>
       </c>
       <c r="Y20" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z20" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -21456,10 +21468,10 @@
         <v>31</v>
       </c>
       <c r="Y21" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z21" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -27254,10 +27266,10 @@
         <v>31</v>
       </c>
       <c r="AC4" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="AD4" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5">
@@ -27346,10 +27358,10 @@
         <v>32</v>
       </c>
       <c r="AC5" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="AD5" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
@@ -27990,10 +28002,10 @@
         <v>35</v>
       </c>
       <c r="AC12" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="AD12" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
@@ -28061,7 +28073,7 @@
         <v>30</v>
       </c>
       <c r="V13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W13" t="s">
         <v>29</v>
@@ -28082,7 +28094,7 @@
         <v>30</v>
       </c>
       <c r="AC13" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD13" t="s">
         <v>30</v>
@@ -28470,7 +28482,7 @@
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
         <v>30</v>
@@ -28542,7 +28554,7 @@
         <v>30</v>
       </c>
       <c r="AC18" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="AD18" t="s">
         <v>30</v>
@@ -28743,7 +28755,7 @@
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -28818,7 +28830,7 @@
         <v>30</v>
       </c>
       <c r="AC21" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD21" t="s">
         <v>30</v>
@@ -28910,10 +28922,10 @@
         <v>32</v>
       </c>
       <c r="AC22" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="AD22" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
@@ -29135,7 +29147,7 @@
         <v>29</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M25" t="s">
         <v>29</v>
@@ -29186,10 +29198,10 @@
         <v>31</v>
       </c>
       <c r="AC25" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD25" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -29208,96 +29220,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="R1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="S1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="T1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="U1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="V1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="W1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="X1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Y1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Z1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AA1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AB1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AC1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AD1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -29330,7 +29342,7 @@
         <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>29</v>
@@ -29381,15 +29393,15 @@
         <v>35</v>
       </c>
       <c r="AC2" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD2" t="s">
-        <v>38</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -29473,15 +29485,15 @@
         <v>31</v>
       </c>
       <c r="AC3" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD3" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -29493,7 +29505,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -29565,15 +29577,15 @@
         <v>33</v>
       </c>
       <c r="AC4" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD4" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -29657,15 +29669,15 @@
         <v>32</v>
       </c>
       <c r="AC5" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD5" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -29749,15 +29761,15 @@
         <v>35</v>
       </c>
       <c r="AC6" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -29841,15 +29853,15 @@
         <v>31</v>
       </c>
       <c r="AC7" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD7" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -29933,15 +29945,15 @@
         <v>32</v>
       </c>
       <c r="AC8" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD8" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -30007,7 +30019,7 @@
         <v>30</v>
       </c>
       <c r="W9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X9" t="s">
         <v>31</v>
@@ -30025,15 +30037,15 @@
         <v>31</v>
       </c>
       <c r="AC9" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD9" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -30090,7 +30102,7 @@
         <v>29</v>
       </c>
       <c r="T10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U10" t="s">
         <v>30</v>
@@ -30108,24 +30120,24 @@
         <v>29</v>
       </c>
       <c r="Z10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="s">
         <v>35</v>
       </c>
       <c r="AB10" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="AC10" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD10" t="s">
-        <v>43</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -30167,7 +30179,7 @@
         <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P11" t="s">
         <v>29</v>
@@ -30209,7 +30221,7 @@
         <v>30</v>
       </c>
       <c r="AC11" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD11" t="s">
         <v>30</v>
@@ -30217,7 +30229,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -30301,15 +30313,15 @@
         <v>32</v>
       </c>
       <c r="AC12" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -30354,7 +30366,7 @@
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q13" t="s">
         <v>29</v>
@@ -30393,21 +30405,21 @@
         <v>34</v>
       </c>
       <c r="AC13" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD13" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>29</v>
@@ -30485,7 +30497,7 @@
         <v>30</v>
       </c>
       <c r="AC14" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD14" t="s">
         <v>30</v>
@@ -30493,7 +30505,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -30577,15 +30589,15 @@
         <v>33</v>
       </c>
       <c r="AC15" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD15" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -30669,7 +30681,7 @@
         <v>30</v>
       </c>
       <c r="AC16" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD16" t="s">
         <v>30</v>
@@ -30677,7 +30689,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -30761,15 +30773,15 @@
         <v>32</v>
       </c>
       <c r="AC17" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -30787,7 +30799,7 @@
         <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -30853,7 +30865,7 @@
         <v>30</v>
       </c>
       <c r="AC18" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD18" t="s">
         <v>30</v>
@@ -30861,7 +30873,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -30945,15 +30957,15 @@
         <v>33</v>
       </c>
       <c r="AC19" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD19" t="s">
-        <v>39</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -31031,21 +31043,21 @@
         <v>30</v>
       </c>
       <c r="AA20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC20" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD20" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -31066,7 +31078,7 @@
         <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s">
         <v>30</v>
@@ -31129,15 +31141,15 @@
         <v>31</v>
       </c>
       <c r="AC21" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD21" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -31185,7 +31197,7 @@
         <v>30</v>
       </c>
       <c r="Q22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R22" t="s">
         <v>29</v>
@@ -31221,15 +31233,15 @@
         <v>32</v>
       </c>
       <c r="AC22" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="AD22" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -31313,15 +31325,15 @@
         <v>32</v>
       </c>
       <c r="AC23" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD23" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -31336,7 +31348,7 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
@@ -31405,15 +31417,15 @@
         <v>35</v>
       </c>
       <c r="AC24" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD24" t="s">
-        <v>38</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -31467,7 +31479,7 @@
         <v>29</v>
       </c>
       <c r="S25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T25" t="s">
         <v>30</v>
@@ -31497,10 +31509,10 @@
         <v>32</v>
       </c>
       <c r="AC25" t="s">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="AD25" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -31519,93 +31531,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="G1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="H1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="I1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="K1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="M1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="O1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="R1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="S1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="T1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="U1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="V1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="W1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="X1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Y1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Z1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AA1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AB1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AC1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -31686,7 +31698,7 @@
         <v>30</v>
       </c>
       <c r="AB2" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s">
         <v>30</v>
@@ -31694,7 +31706,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -31724,7 +31736,7 @@
         <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L3" t="s">
         <v>29</v>
@@ -31733,7 +31745,7 @@
         <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
@@ -31766,24 +31778,24 @@
         <v>29</v>
       </c>
       <c r="Y3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z3" t="s">
         <v>31</v>
       </c>
       <c r="AA3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC3" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -31864,15 +31876,15 @@
         <v>32</v>
       </c>
       <c r="AB4" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC4" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -31893,7 +31905,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -31926,7 +31938,7 @@
         <v>30</v>
       </c>
       <c r="S5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T5" t="s">
         <v>29</v>
@@ -31953,15 +31965,15 @@
         <v>31</v>
       </c>
       <c r="AB5" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC5" t="s">
-        <v>108</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32015,13 +32027,13 @@
         <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T6" t="s">
         <v>29</v>
       </c>
       <c r="U6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V6" t="s">
         <v>29</v>
@@ -32042,15 +32054,15 @@
         <v>32</v>
       </c>
       <c r="AB6" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="AC6" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32131,7 +32143,7 @@
         <v>30</v>
       </c>
       <c r="AB7" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC7" t="s">
         <v>30</v>
@@ -32139,7 +32151,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -32220,7 +32232,7 @@
         <v>30</v>
       </c>
       <c r="AB8" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC8" t="s">
         <v>30</v>
@@ -32228,16 +32240,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -32309,7 +32321,7 @@
         <v>30</v>
       </c>
       <c r="AB9" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC9" t="s">
         <v>30</v>
@@ -32317,7 +32329,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -32398,15 +32410,15 @@
         <v>31</v>
       </c>
       <c r="AB10" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -32481,21 +32493,21 @@
         <v>31</v>
       </c>
       <c r="Z11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB11" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC11" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -32537,7 +32549,7 @@
         <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P12" t="s">
         <v>29</v>
@@ -32555,7 +32567,7 @@
         <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V12" t="s">
         <v>29</v>
@@ -32567,24 +32579,24 @@
         <v>29</v>
       </c>
       <c r="Y12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z12" t="s">
         <v>30</v>
       </c>
       <c r="AA12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB12" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC12" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -32593,7 +32605,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -32629,7 +32641,7 @@
         <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q13" t="s">
         <v>31</v>
@@ -32665,15 +32677,15 @@
         <v>33</v>
       </c>
       <c r="AB13" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="s">
-        <v>282</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -32748,21 +32760,21 @@
         <v>32</v>
       </c>
       <c r="Z14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB14" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="AC14" t="s">
-        <v>283</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -32837,21 +32849,21 @@
         <v>31</v>
       </c>
       <c r="Z15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB15" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC15" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -32932,7 +32944,7 @@
         <v>30</v>
       </c>
       <c r="AB16" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC16" t="s">
         <v>30</v>
@@ -32940,7 +32952,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -32958,7 +32970,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -32967,7 +32979,7 @@
         <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
         <v>29</v>
@@ -33021,18 +33033,18 @@
         <v>31</v>
       </c>
       <c r="AB17" t="s">
-        <v>279</v>
+        <v>37</v>
       </c>
       <c r="AC17" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
@@ -33110,15 +33122,15 @@
         <v>33</v>
       </c>
       <c r="AB18" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="AC18" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -33199,15 +33211,15 @@
         <v>32</v>
       </c>
       <c r="AB19" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC19" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -33234,7 +33246,7 @@
         <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20" t="s">
         <v>29</v>
@@ -33252,7 +33264,7 @@
         <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q20" t="s">
         <v>30</v>
@@ -33288,15 +33300,15 @@
         <v>32</v>
       </c>
       <c r="AB20" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC20" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -33377,7 +33389,7 @@
         <v>30</v>
       </c>
       <c r="AB21" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="AC21" t="s">
         <v>30</v>
@@ -33385,7 +33397,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -33406,7 +33418,7 @@
         <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
         <v>29</v>
@@ -33415,7 +33427,7 @@
         <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
         <v>30</v>
@@ -33466,15 +33478,15 @@
         <v>32</v>
       </c>
       <c r="AB22" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="AC22" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -33492,7 +33504,7 @@
         <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -33555,21 +33567,21 @@
         <v>31</v>
       </c>
       <c r="AB23" t="s">
-        <v>279</v>
+        <v>105</v>
       </c>
       <c r="AC23" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -33602,10 +33614,10 @@
         <v>31</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P24" t="s">
         <v>29</v>
@@ -33635,19 +33647,19 @@
         <v>29</v>
       </c>
       <c r="Y24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z24" t="s">
         <v>32</v>
       </c>
       <c r="AA24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AB24" t="s">
-        <v>280</v>
+        <v>105</v>
       </c>
       <c r="AC24" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -33666,84 +33678,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="J1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="R1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="S1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="T1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="U1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="X1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Y1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -33823,7 +33835,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -33903,7 +33915,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -33983,7 +33995,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34063,7 +34075,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -34143,7 +34155,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -34223,7 +34235,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34303,7 +34315,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34383,7 +34395,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -34455,15 +34467,15 @@
         <v>32</v>
       </c>
       <c r="Y10" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z10" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -34543,7 +34555,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -34623,7 +34635,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -34703,7 +34715,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -34783,7 +34795,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -34855,15 +34867,15 @@
         <v>31</v>
       </c>
       <c r="Y15" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Z15" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -34943,7 +34955,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -35023,7 +35035,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35103,7 +35115,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -35183,7 +35195,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -35263,7 +35275,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>

--- a/RedTotalsV2.xlsx
+++ b/RedTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="651">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -458,624 +458,645 @@
     <t>West Ham</t>
   </si>
   <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Bristol.City</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Nottm.Forest</t>
+  </si>
+  <si>
+    <t>Peterboro</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Sheffield.United</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>West.Brom</t>
+  </si>
+  <si>
+    <t>e1_hrtotals</t>
+  </si>
+  <si>
+    <t>e1_artotals</t>
+  </si>
+  <si>
+    <t>e1_totalreds</t>
+  </si>
+  <si>
+    <t>e1_games_played</t>
+  </si>
+  <si>
+    <t>e1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>0.0769</t>
+  </si>
+  <si>
+    <t>0.2308</t>
+  </si>
+  <si>
+    <t>0.1538</t>
+  </si>
+  <si>
+    <t>0.3077</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>AFC.Wimbledon</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Fleetwood.Town</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Milton.Keynes.Dons</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Sheffield.Weds</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>e2_hrtotals</t>
+  </si>
+  <si>
+    <t>e2_artotals</t>
+  </si>
+  <si>
+    <t>e2_totalreds</t>
+  </si>
+  <si>
+    <t>e2_games_played</t>
+  </si>
+  <si>
+    <t>e2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0.0714</t>
+  </si>
+  <si>
     <t>0.1429</t>
   </si>
   <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Bristol.City</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Derby</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Nottm.Forest</t>
-  </si>
-  <si>
-    <t>Peterboro</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>QPR</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Sheffield.United</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
-    <t>West.Brom</t>
-  </si>
-  <si>
-    <t>e1_hrtotals</t>
-  </si>
-  <si>
-    <t>e1_artotals</t>
-  </si>
-  <si>
-    <t>e1_totalreds</t>
-  </si>
-  <si>
-    <t>e1_games_played</t>
-  </si>
-  <si>
-    <t>e1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>West Brom</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>0.0833</t>
   </si>
   <si>
+    <t>0.3571</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol.Rvs</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley.Town</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Forest.Green</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Leyton.Orient</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Newport.County</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Port.Vale</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>e3_hrtotals</t>
+  </si>
+  <si>
+    <t>e3_artotals</t>
+  </si>
+  <si>
+    <t>e3_totalreds</t>
+  </si>
+  <si>
+    <t>e3_games_played</t>
+  </si>
+  <si>
+    <t>e3_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0.4615</t>
+  </si>
+  <si>
+    <t>0.5833</t>
+  </si>
+  <si>
+    <t>0.3846</t>
+  </si>
+  <si>
     <t>0.1667</t>
   </si>
   <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham.Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag.and.Red</t>
+  </si>
+  <si>
+    <t>Dover.Athletic</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Kings.Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Notts.County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>ec_hrtotals</t>
+  </si>
+  <si>
+    <t>ec_artotals</t>
+  </si>
+  <si>
+    <t>ec_totalreds</t>
+  </si>
+  <si>
+    <t>ec_games_played</t>
+  </si>
+  <si>
+    <t>ec_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0.2222</t>
+  </si>
+  <si>
+    <t>0.1111</t>
+  </si>
+  <si>
+    <t>0.4444</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hrtotals</t>
+  </si>
+  <si>
+    <t>f1_artotals</t>
+  </si>
+  <si>
+    <t>f1_totalreds</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hrtotals</t>
+  </si>
+  <si>
+    <t>f2_artotals</t>
+  </si>
+  <si>
+    <t>f2_totalreds</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>0.4167</t>
+  </si>
+  <si>
     <t>0.3333</t>
   </si>
   <si>
-    <t>Accrington</t>
-  </si>
-  <si>
-    <t>AFC.Wimbledon</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Crewe</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>Fleetwood.Town</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Milton.Keynes.Dons</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Sheffield.Weds</t>
-  </si>
-  <si>
-    <t>Shrewsbury</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
-    <t>e2_hrtotals</t>
-  </si>
-  <si>
-    <t>e2_artotals</t>
-  </si>
-  <si>
-    <t>e2_totalreds</t>
-  </si>
-  <si>
-    <t>e2_games_played</t>
-  </si>
-  <si>
-    <t>e2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>0.0769</t>
-  </si>
-  <si>
-    <t>0.1538</t>
-  </si>
-  <si>
-    <t>0.3846</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol.Rvs</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Crawley.Town</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Forest.Green</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Leyton.Orient</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Newport.County</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Port.Vale</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>e3_hrtotals</t>
-  </si>
-  <si>
-    <t>e3_artotals</t>
-  </si>
-  <si>
-    <t>e3_totalreds</t>
-  </si>
-  <si>
-    <t>e3_games_played</t>
-  </si>
-  <si>
-    <t>e3_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>0.4167</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham.Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag.and.Red</t>
-  </si>
-  <si>
-    <t>Dover.Athletic</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Kings.Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Notts.County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>ec_hrtotals</t>
-  </si>
-  <si>
-    <t>ec_artotals</t>
-  </si>
-  <si>
-    <t>ec_totalreds</t>
-  </si>
-  <si>
-    <t>ec_games_played</t>
-  </si>
-  <si>
-    <t>ec_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>0.2222</t>
-  </si>
-  <si>
-    <t>0.1111</t>
-  </si>
-  <si>
-    <t>0.4444</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hrtotals</t>
-  </si>
-  <si>
-    <t>f1_artotals</t>
-  </si>
-  <si>
-    <t>f1_totalreds</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hrtotals</t>
-  </si>
-  <si>
-    <t>f2_artotals</t>
-  </si>
-  <si>
-    <t>f2_totalreds</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
     <t>0.6667</t>
   </si>
   <si>
@@ -1223,13 +1244,7 @@
     <t>0.625</t>
   </si>
   <si>
-    <t>0.4286</t>
-  </si>
-  <si>
     <t>0.375</t>
-  </si>
-  <si>
-    <t>0.2857</t>
   </si>
   <si>
     <t>Alessandria</t>
@@ -3441,84 +3456,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="H1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="I1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="J1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="N1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="R1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="S1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="T1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="U1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="V1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="W1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="X1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Y1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Z1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -3590,15 +3605,15 @@
         <v>34</v>
       </c>
       <c r="Y2" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="Z2" t="s">
-        <v>43</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -3667,10 +3682,10 @@
         <v>33</v>
       </c>
       <c r="X3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y3" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z3" t="s">
         <v>109</v>
@@ -3678,7 +3693,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -3750,15 +3765,15 @@
         <v>32</v>
       </c>
       <c r="Y4" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z4" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -3830,15 +3845,15 @@
         <v>31</v>
       </c>
       <c r="Y5" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z5" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -3910,15 +3925,15 @@
         <v>35</v>
       </c>
       <c r="Y6" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z6" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -3990,7 +4005,7 @@
         <v>33</v>
       </c>
       <c r="Y7" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z7" t="s">
         <v>75</v>
@@ -3998,7 +4013,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4070,7 +4085,7 @@
         <v>33</v>
       </c>
       <c r="Y8" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z8" t="s">
         <v>75</v>
@@ -4078,7 +4093,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4150,7 +4165,7 @@
         <v>33</v>
       </c>
       <c r="Y9" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z9" t="s">
         <v>75</v>
@@ -4158,7 +4173,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -4230,15 +4245,15 @@
         <v>32</v>
       </c>
       <c r="Y10" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z10" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4310,7 +4325,7 @@
         <v>33</v>
       </c>
       <c r="Y11" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z11" t="s">
         <v>75</v>
@@ -4318,7 +4333,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4390,18 +4405,18 @@
         <v>73</v>
       </c>
       <c r="Y12" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z12" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -4470,15 +4485,15 @@
         <v>31</v>
       </c>
       <c r="Y13" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="Z13" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4550,15 +4565,15 @@
         <v>32</v>
       </c>
       <c r="Y14" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z14" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -4630,7 +4645,7 @@
         <v>33</v>
       </c>
       <c r="Y15" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z15" t="s">
         <v>75</v>
@@ -4638,7 +4653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -4707,10 +4722,10 @@
         <v>32</v>
       </c>
       <c r="X16" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z16" t="s">
         <v>109</v>
@@ -4718,7 +4733,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -4790,15 +4805,15 @@
         <v>35</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z17" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -4870,7 +4885,7 @@
         <v>33</v>
       </c>
       <c r="Y18" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z18" t="s">
         <v>75</v>
@@ -4878,7 +4893,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -4950,7 +4965,7 @@
         <v>33</v>
       </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z19" t="s">
         <v>75</v>
@@ -4958,7 +4973,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -5030,15 +5045,15 @@
         <v>35</v>
       </c>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5110,10 +5125,10 @@
         <v>32</v>
       </c>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="Z21" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5132,66 +5147,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="E1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="F1" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="G1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="I1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="J1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="L1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="M1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="N1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="O1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="P1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="Q1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="R1" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="S1" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="T1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5245,15 +5260,15 @@
         <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T2" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -5307,15 +5322,15 @@
         <v>32</v>
       </c>
       <c r="S3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T3" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5363,21 +5378,21 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -5431,7 +5446,7 @@
         <v>30</v>
       </c>
       <c r="S5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T5" t="s">
         <v>30</v>
@@ -5439,7 +5454,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -5493,15 +5508,15 @@
         <v>31</v>
       </c>
       <c r="S6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T6" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -5555,7 +5570,7 @@
         <v>30</v>
       </c>
       <c r="S7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T7" t="s">
         <v>30</v>
@@ -5563,7 +5578,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -5617,15 +5632,15 @@
         <v>35</v>
       </c>
       <c r="S8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T8" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -5634,7 +5649,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
@@ -5670,24 +5685,24 @@
         <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="s">
         <v>31</v>
       </c>
       <c r="R9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="T9" t="s">
-        <v>107</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -5741,15 +5756,15 @@
         <v>31</v>
       </c>
       <c r="S10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T10" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -5803,7 +5818,7 @@
         <v>30</v>
       </c>
       <c r="S11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T11" t="s">
         <v>30</v>
@@ -5811,7 +5826,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -5865,15 +5880,15 @@
         <v>32</v>
       </c>
       <c r="S12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T12" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -5927,15 +5942,15 @@
         <v>31</v>
       </c>
       <c r="S13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T13" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -5989,7 +6004,7 @@
         <v>30</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T14" t="s">
         <v>30</v>
@@ -5997,7 +6012,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -6051,7 +6066,7 @@
         <v>30</v>
       </c>
       <c r="S15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="T15" t="s">
         <v>30</v>
@@ -6073,84 +6088,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="G1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="H1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="I1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="J1" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="K1" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="L1" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="M1" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="N1" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="O1" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="P1" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Q1" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="R1" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="S1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="T1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="U1" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="V1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="W1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="X1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Y1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="Z1" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6230,7 +6245,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6305,12 +6320,12 @@
         <v>73</v>
       </c>
       <c r="Z3" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -6390,7 +6405,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -6470,7 +6485,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6536,21 +6551,21 @@
         <v>31</v>
       </c>
       <c r="W6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s">
-        <v>396</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -6630,7 +6645,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -6710,7 +6725,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6790,7 +6805,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -6870,7 +6885,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6950,7 +6965,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -7030,7 +7045,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7105,12 +7120,12 @@
         <v>73</v>
       </c>
       <c r="Z13" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -7185,12 +7200,12 @@
         <v>73</v>
       </c>
       <c r="Z14" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -7270,7 +7285,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7350,7 +7365,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -7430,7 +7445,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -7510,7 +7525,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -7590,7 +7605,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -7605,7 +7620,7 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
         <v>29</v>
@@ -7653,24 +7668,24 @@
         <v>29</v>
       </c>
       <c r="V20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W20" t="s">
         <v>31</v>
       </c>
       <c r="X20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y20" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="Z20" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -7764,84 +7779,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="C1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="E1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="I1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="J1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="M1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="N1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="O1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="R1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="S1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="T1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="U1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="V1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="W1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="X1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Y1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="Z1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -7921,7 +7936,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8001,7 +8016,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -8081,7 +8096,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8161,7 +8176,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8241,7 +8256,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -8321,7 +8336,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8401,7 +8416,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -8481,7 +8496,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -8561,7 +8576,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -8641,7 +8656,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -8721,7 +8736,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -8796,12 +8811,12 @@
         <v>73</v>
       </c>
       <c r="Z13" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -8876,12 +8891,12 @@
         <v>73</v>
       </c>
       <c r="Z14" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -8956,12 +8971,12 @@
         <v>73</v>
       </c>
       <c r="Z15" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -9041,7 +9056,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -9116,12 +9131,12 @@
         <v>73</v>
       </c>
       <c r="Z17" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -9190,18 +9205,18 @@
         <v>32</v>
       </c>
       <c r="X18" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Y18" t="s">
         <v>73</v>
       </c>
       <c r="Z18" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -9281,7 +9296,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9356,12 +9371,12 @@
         <v>73</v>
       </c>
       <c r="Z20" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -9455,78 +9470,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E1" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="F1" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="G1" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="H1" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I1" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="J1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="L1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N1" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="O1" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="P1" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="Q1" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="R1" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="S1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="T1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="U1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="V1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="W1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="X1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9592,7 +9607,7 @@
         <v>30</v>
       </c>
       <c r="W2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X2" t="s">
         <v>30</v>
@@ -9600,7 +9615,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -9674,7 +9689,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -9740,15 +9755,15 @@
         <v>33</v>
       </c>
       <c r="W4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X4" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -9817,12 +9832,12 @@
         <v>73</v>
       </c>
       <c r="X5" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -9896,7 +9911,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -9962,15 +9977,15 @@
         <v>33</v>
       </c>
       <c r="W7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X7" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10036,15 +10051,15 @@
         <v>33</v>
       </c>
       <c r="W8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X8" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10110,15 +10125,15 @@
         <v>31</v>
       </c>
       <c r="W9" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -10192,7 +10207,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10258,15 +10273,15 @@
         <v>33</v>
       </c>
       <c r="W11" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X11" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10332,7 +10347,7 @@
         <v>30</v>
       </c>
       <c r="W12" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X12" t="s">
         <v>30</v>
@@ -10340,7 +10355,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -10406,15 +10421,15 @@
         <v>32</v>
       </c>
       <c r="W13" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X13" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -10480,15 +10495,15 @@
         <v>35</v>
       </c>
       <c r="W14" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X14" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -10554,7 +10569,7 @@
         <v>30</v>
       </c>
       <c r="W15" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X15" t="s">
         <v>30</v>
@@ -10562,7 +10577,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -10628,15 +10643,15 @@
         <v>34</v>
       </c>
       <c r="W16" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X16" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -10702,7 +10717,7 @@
         <v>30</v>
       </c>
       <c r="W17" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X17" t="s">
         <v>30</v>
@@ -10710,7 +10725,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -10776,15 +10791,15 @@
         <v>35</v>
       </c>
       <c r="W18" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X18" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -10850,10 +10865,10 @@
         <v>31</v>
       </c>
       <c r="W19" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="X19" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -10872,78 +10887,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="C1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="E1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="F1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="H1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="I1" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="J1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="K1" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="L1" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="M1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="N1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="O1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="P1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="Q1" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="R1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="S1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="T1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="U1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="V1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="W1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="X1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11017,7 +11032,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11091,7 +11106,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -11165,7 +11180,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -11239,7 +11254,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11313,7 +11328,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11387,7 +11402,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -11461,7 +11476,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -11535,7 +11550,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -11609,7 +11624,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -11678,12 +11693,12 @@
         <v>73</v>
       </c>
       <c r="X11" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -11757,7 +11772,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -11831,7 +11846,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -11905,7 +11920,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -11974,12 +11989,12 @@
         <v>73</v>
       </c>
       <c r="X15" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12053,7 +12068,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12127,7 +12142,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12201,7 +12216,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12289,60 +12304,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="D1" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="E1" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G1" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H1" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="I1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="J1" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="K1" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="L1" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="N1" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="O1" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="P1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="Q1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="R1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12390,15 +12405,15 @@
         <v>31</v>
       </c>
       <c r="Q2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -12446,15 +12461,15 @@
         <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -12502,15 +12517,15 @@
         <v>33</v>
       </c>
       <c r="Q4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R4" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12558,15 +12573,15 @@
         <v>31</v>
       </c>
       <c r="Q5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R5" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -12614,15 +12629,15 @@
         <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -12670,15 +12685,15 @@
         <v>32</v>
       </c>
       <c r="Q7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -12726,7 +12741,7 @@
         <v>30</v>
       </c>
       <c r="Q8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R8" t="s">
         <v>30</v>
@@ -12734,7 +12749,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -12782,15 +12797,15 @@
         <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R9" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -12838,15 +12853,15 @@
         <v>31</v>
       </c>
       <c r="Q10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R10" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -12894,7 +12909,7 @@
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
@@ -12902,7 +12917,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -12950,15 +12965,15 @@
         <v>33</v>
       </c>
       <c r="Q12" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R12" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -13006,10 +13021,10 @@
         <v>34</v>
       </c>
       <c r="Q13" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="R13" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -13028,54 +13043,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="C1" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D1" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="F1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="G1" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="I1" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="J1" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K1" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="L1" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="M1" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="N1" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="O1" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="P1" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13117,15 +13132,15 @@
         <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13167,15 +13182,15 @@
         <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13217,7 +13232,7 @@
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
@@ -13225,7 +13240,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -13267,15 +13282,15 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P5" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -13317,15 +13332,15 @@
         <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13367,7 +13382,7 @@
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P7" t="s">
         <v>30</v>
@@ -13375,7 +13390,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -13417,15 +13432,15 @@
         <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P8" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -13467,7 +13482,7 @@
         <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P9" t="s">
         <v>30</v>
@@ -13475,7 +13490,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -13517,15 +13532,15 @@
         <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P10" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -13567,10 +13582,10 @@
         <v>32</v>
       </c>
       <c r="O11" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P11" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -13589,54 +13604,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="D1" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="E1" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F1" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G1" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="H1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="I1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="J1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="K1" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="M1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="N1" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="O1" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="P1" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13686,7 +13701,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -13736,7 +13751,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -13786,7 +13801,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13831,12 +13846,12 @@
         <v>106</v>
       </c>
       <c r="P5" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -13886,7 +13901,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13936,7 +13951,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -13986,7 +14001,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14036,7 +14051,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14086,7 +14101,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -14150,54 +14165,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C1" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D1" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E1" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="F1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="H1" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="I1" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="J1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="K1" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="L1" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="M1" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="N1" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="O1" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="P1" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14247,7 +14262,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14297,7 +14312,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14347,7 +14362,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -14397,7 +14412,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14447,7 +14462,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -14497,7 +14512,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14547,7 +14562,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14597,7 +14612,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14647,7 +14662,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -16128,84 +16143,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C1" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="D1" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="E1" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="F1" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="G1" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="H1" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="I1" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="J1" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="K1" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="L1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="M1" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="N1" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="O1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="P1" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="Q1" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="R1" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="S1" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="T1" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="U1" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="V1" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="W1" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="X1" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="Y1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="Z1" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16220,7 +16235,7 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -16277,15 +16292,15 @@
         <v>31</v>
       </c>
       <c r="Y2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -16360,12 +16375,12 @@
         <v>73</v>
       </c>
       <c r="Z3" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16445,7 +16460,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -16525,7 +16540,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -16597,15 +16612,15 @@
         <v>31</v>
       </c>
       <c r="Y6" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="Z6" t="s">
-        <v>74</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -16677,15 +16692,15 @@
         <v>32</v>
       </c>
       <c r="Y7" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="Z7" t="s">
-        <v>75</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -16757,15 +16772,15 @@
         <v>32</v>
       </c>
       <c r="Y8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z8" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -16837,7 +16852,7 @@
         <v>30</v>
       </c>
       <c r="Y9" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z9" t="s">
         <v>30</v>
@@ -16845,7 +16860,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -16863,7 +16878,7 @@
         <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
@@ -16917,15 +16932,15 @@
         <v>33</v>
       </c>
       <c r="Y10" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="Z10" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -16997,15 +17012,15 @@
         <v>33</v>
       </c>
       <c r="Y11" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z11" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -17085,7 +17100,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17157,15 +17172,15 @@
         <v>31</v>
       </c>
       <c r="Y13" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z13" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17237,15 +17252,15 @@
         <v>33</v>
       </c>
       <c r="Y14" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z14" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17317,7 +17332,7 @@
         <v>30</v>
       </c>
       <c r="Y15" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z15" t="s">
         <v>30</v>
@@ -17325,7 +17340,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17405,7 +17420,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -17480,12 +17495,12 @@
         <v>73</v>
       </c>
       <c r="Z17" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -17557,15 +17572,15 @@
         <v>32</v>
       </c>
       <c r="Y18" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z18" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -17637,15 +17652,15 @@
         <v>33</v>
       </c>
       <c r="Y19" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z19" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -17717,15 +17732,15 @@
         <v>31</v>
       </c>
       <c r="Y20" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z20" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -17819,90 +17834,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="C1" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="D1" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E1" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="F1" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="G1" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H1" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="I1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="J1" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="K1" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="L1" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="M1" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="N1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="O1" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="P1" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="Q1" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="R1" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="S1" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="T1" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="U1" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="V1" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="W1" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="X1" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="Y1" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="Z1" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="AA1" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="AB1" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -17938,7 +17953,7 @@
         <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
         <v>29</v>
@@ -17980,15 +17995,15 @@
         <v>35</v>
       </c>
       <c r="AA2" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="s">
-        <v>317</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18074,7 +18089,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18152,15 +18167,15 @@
         <v>35</v>
       </c>
       <c r="AA4" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="s">
-        <v>317</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18246,7 +18261,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18303,7 +18318,7 @@
         <v>30</v>
       </c>
       <c r="T6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U6" t="s">
         <v>29</v>
@@ -18315,24 +18330,24 @@
         <v>29</v>
       </c>
       <c r="X6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="s">
         <v>31</v>
       </c>
       <c r="Z6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA6" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB6" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -18404,21 +18419,21 @@
         <v>31</v>
       </c>
       <c r="Y7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA7" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB7" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -18427,7 +18442,7 @@
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
@@ -18496,15 +18511,15 @@
         <v>33</v>
       </c>
       <c r="AA8" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -18590,7 +18605,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -18632,7 +18647,7 @@
         <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s">
         <v>29</v>
@@ -18668,15 +18683,15 @@
         <v>33</v>
       </c>
       <c r="AA10" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB10" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -18754,15 +18769,15 @@
         <v>31</v>
       </c>
       <c r="AA11" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB11" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -18840,15 +18855,15 @@
         <v>32</v>
       </c>
       <c r="AA12" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -18926,15 +18941,15 @@
         <v>31</v>
       </c>
       <c r="AA13" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB13" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -18967,7 +18982,7 @@
         <v>29</v>
       </c>
       <c r="L14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M14" t="s">
         <v>29</v>
@@ -19012,15 +19027,15 @@
         <v>31</v>
       </c>
       <c r="AA14" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB14" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -19098,15 +19113,15 @@
         <v>35</v>
       </c>
       <c r="AA15" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB15" t="s">
-        <v>317</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -19192,7 +19207,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -19278,7 +19293,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -19359,12 +19374,12 @@
         <v>106</v>
       </c>
       <c r="AB18" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -19450,7 +19465,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -19522,21 +19537,21 @@
         <v>32</v>
       </c>
       <c r="Y20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA20" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB20" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -19554,7 +19569,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
         <v>29</v>
@@ -19605,24 +19620,24 @@
         <v>29</v>
       </c>
       <c r="X21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y21" t="s">
         <v>30</v>
       </c>
       <c r="Z21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB21" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -19652,7 +19667,7 @@
         <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
         <v>29</v>
@@ -19700,15 +19715,15 @@
         <v>33</v>
       </c>
       <c r="AA22" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="AB22" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -19808,84 +19823,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C1" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D1" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="E1" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="F1" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="G1" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="H1" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="I1" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="J1" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="K1" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="L1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="M1" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="N1" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="O1" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="P1" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="Q1" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="R1" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="S1" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="T1" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="U1" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="V1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="W1" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="X1" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="Y1" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="Z1" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -19957,15 +19972,15 @@
         <v>31</v>
       </c>
       <c r="Y2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20010,7 +20025,7 @@
         <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
         <v>29</v>
@@ -20037,15 +20052,15 @@
         <v>33</v>
       </c>
       <c r="Y3" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="Z3" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20117,15 +20132,15 @@
         <v>33</v>
       </c>
       <c r="Y4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z4" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -20197,7 +20212,7 @@
         <v>30</v>
       </c>
       <c r="Y5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z5" t="s">
         <v>30</v>
@@ -20205,7 +20220,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -20277,15 +20292,15 @@
         <v>32</v>
       </c>
       <c r="Y6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -20357,7 +20372,7 @@
         <v>30</v>
       </c>
       <c r="Y7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z7" t="s">
         <v>30</v>
@@ -20365,7 +20380,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20437,15 +20452,15 @@
         <v>31</v>
       </c>
       <c r="Y8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z8" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20517,15 +20532,15 @@
         <v>33</v>
       </c>
       <c r="Y9" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z9" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20597,15 +20612,15 @@
         <v>31</v>
       </c>
       <c r="Y10" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="Z10" t="s">
-        <v>74</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -20677,15 +20692,15 @@
         <v>33</v>
       </c>
       <c r="Y11" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z11" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -20757,15 +20772,15 @@
         <v>32</v>
       </c>
       <c r="Y12" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z12" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -20792,7 +20807,7 @@
         <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
         <v>29</v>
@@ -20837,15 +20852,15 @@
         <v>31</v>
       </c>
       <c r="Y13" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="Z13" t="s">
-        <v>74</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -20917,15 +20932,15 @@
         <v>33</v>
       </c>
       <c r="Y14" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z14" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -20997,7 +21012,7 @@
         <v>30</v>
       </c>
       <c r="Y15" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z15" t="s">
         <v>30</v>
@@ -21005,7 +21020,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21077,7 +21092,7 @@
         <v>30</v>
       </c>
       <c r="Y16" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="Z16" t="s">
         <v>30</v>
@@ -21085,7 +21100,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21157,15 +21172,15 @@
         <v>31</v>
       </c>
       <c r="Y17" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z17" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21237,15 +21252,15 @@
         <v>33</v>
       </c>
       <c r="Y18" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z18" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -21317,15 +21332,15 @@
         <v>31</v>
       </c>
       <c r="Y19" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z19" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21397,15 +21412,15 @@
         <v>33</v>
       </c>
       <c r="Y20" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z20" t="s">
-        <v>178</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -21477,10 +21492,10 @@
         <v>31</v>
       </c>
       <c r="Y21" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z21" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -23014,7 +23029,7 @@
         <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
@@ -23065,10 +23080,10 @@
         <v>31</v>
       </c>
       <c r="Y2" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -23545,10 +23560,10 @@
         <v>31</v>
       </c>
       <c r="Y8" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="Z8" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -24607,96 +24622,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>145</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>147</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>148</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>149</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>150</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>151</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>152</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>153</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>154</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>155</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>157</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>158</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>159</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>160</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>161</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>162</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>163</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>164</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>165</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>166</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>167</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>168</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>169</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -24780,15 +24795,15 @@
         <v>31</v>
       </c>
       <c r="AC2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD2" t="s">
         <v>175</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -24872,15 +24887,15 @@
         <v>31</v>
       </c>
       <c r="AC3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD3" t="s">
         <v>175</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -24964,15 +24979,15 @@
         <v>33</v>
       </c>
       <c r="AC4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -25056,7 +25071,7 @@
         <v>32</v>
       </c>
       <c r="AC5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD5" t="s">
         <v>177</v>
@@ -25064,7 +25079,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -25148,15 +25163,15 @@
         <v>31</v>
       </c>
       <c r="AC6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD6" t="s">
         <v>175</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -25204,7 +25219,7 @@
         <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
         <v>29</v>
@@ -25240,7 +25255,7 @@
         <v>30</v>
       </c>
       <c r="AC7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD7" t="s">
         <v>30</v>
@@ -25248,7 +25263,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -25332,15 +25347,15 @@
         <v>31</v>
       </c>
       <c r="AC8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD8" t="s">
         <v>175</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -25424,15 +25439,15 @@
         <v>31</v>
       </c>
       <c r="AC9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD9" t="s">
         <v>175</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -25471,7 +25486,7 @@
         <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O10" t="s">
         <v>30</v>
@@ -25516,15 +25531,15 @@
         <v>31</v>
       </c>
       <c r="AC10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD10" t="s">
         <v>175</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -25545,7 +25560,7 @@
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
         <v>29</v>
@@ -25608,21 +25623,21 @@
         <v>31</v>
       </c>
       <c r="AC11" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD11" t="s">
         <v>175</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -25700,15 +25715,15 @@
         <v>31</v>
       </c>
       <c r="AC12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD12" t="s">
         <v>175</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -25759,7 +25774,7 @@
         <v>29</v>
       </c>
       <c r="R13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S13" t="s">
         <v>29</v>
@@ -25792,7 +25807,7 @@
         <v>32</v>
       </c>
       <c r="AC13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD13" t="s">
         <v>177</v>
@@ -25800,7 +25815,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -25884,7 +25899,7 @@
         <v>30</v>
       </c>
       <c r="AC14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD14" t="s">
         <v>30</v>
@@ -25892,10 +25907,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -25976,7 +25991,7 @@
         <v>35</v>
       </c>
       <c r="AC15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD15" t="s">
         <v>178</v>
@@ -25984,7 +25999,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -26062,21 +26077,21 @@
         <v>31</v>
       </c>
       <c r="AA16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -26160,7 +26175,7 @@
         <v>32</v>
       </c>
       <c r="AC17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD17" t="s">
         <v>177</v>
@@ -26168,7 +26183,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -26252,15 +26267,15 @@
         <v>31</v>
       </c>
       <c r="AC18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD18" t="s">
         <v>175</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -26284,7 +26299,7 @@
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
         <v>30</v>
@@ -26344,7 +26359,7 @@
         <v>30</v>
       </c>
       <c r="AC19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD19" t="s">
         <v>30</v>
@@ -26352,7 +26367,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -26361,7 +26376,7 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -26436,7 +26451,7 @@
         <v>32</v>
       </c>
       <c r="AC20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD20" t="s">
         <v>177</v>
@@ -26444,7 +26459,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -26456,7 +26471,7 @@
         <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
         <v>29</v>
@@ -26528,15 +26543,15 @@
         <v>31</v>
       </c>
       <c r="AC21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD21" t="s">
         <v>175</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -26581,7 +26596,7 @@
         <v>29</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q22" t="s">
         <v>29</v>
@@ -26611,24 +26626,24 @@
         <v>29</v>
       </c>
       <c r="Z22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="s">
         <v>30</v>
       </c>
       <c r="AB22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -26643,7 +26658,7 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
@@ -26712,15 +26727,15 @@
         <v>31</v>
       </c>
       <c r="AC23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD23" t="s">
         <v>175</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -26792,7 +26807,7 @@
         <v>29</v>
       </c>
       <c r="Y24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z24" t="s">
         <v>30</v>
@@ -26804,7 +26819,7 @@
         <v>30</v>
       </c>
       <c r="AC24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD24" t="s">
         <v>30</v>
@@ -26812,91 +26827,91 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s">
+        <v>29</v>
+      </c>
+      <c r="N25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" t="s">
+        <v>29</v>
+      </c>
+      <c r="V25" t="s">
+        <v>30</v>
+      </c>
+      <c r="W25" t="s">
+        <v>29</v>
+      </c>
+      <c r="X25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC25" t="s">
         <v>174</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" t="s">
-        <v>30</v>
-      </c>
-      <c r="O25" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>29</v>
-      </c>
-      <c r="R25" t="s">
-        <v>29</v>
-      </c>
-      <c r="S25" t="s">
-        <v>29</v>
-      </c>
-      <c r="T25" t="s">
-        <v>30</v>
-      </c>
-      <c r="U25" t="s">
-        <v>29</v>
-      </c>
-      <c r="V25" t="s">
-        <v>30</v>
-      </c>
-      <c r="W25" t="s">
-        <v>29</v>
-      </c>
-      <c r="X25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>175</v>
       </c>
       <c r="AD25" t="s">
         <v>30</v>
@@ -27091,7 +27106,7 @@
         <v>32</v>
       </c>
       <c r="AC2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
         <v>177</v>
@@ -27183,10 +27198,10 @@
         <v>31</v>
       </c>
       <c r="AC3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD3" t="s">
         <v>175</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -27278,7 +27293,7 @@
         <v>212</v>
       </c>
       <c r="AD4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5">
@@ -27370,7 +27385,7 @@
         <v>212</v>
       </c>
       <c r="AD5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
@@ -27435,7 +27450,7 @@
         <v>29</v>
       </c>
       <c r="U6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V6" t="s">
         <v>29</v>
@@ -27459,7 +27474,7 @@
         <v>30</v>
       </c>
       <c r="AC6" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="AD6" t="s">
         <v>30</v>
@@ -27470,7 +27485,7 @@
         <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -27551,7 +27566,7 @@
         <v>30</v>
       </c>
       <c r="AC7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD7" t="s">
         <v>30</v>
@@ -27604,7 +27619,7 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
@@ -27643,7 +27658,7 @@
         <v>30</v>
       </c>
       <c r="AC8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD8" t="s">
         <v>30</v>
@@ -27717,7 +27732,7 @@
         <v>29</v>
       </c>
       <c r="W9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X9" t="s">
         <v>29</v>
@@ -27735,10 +27750,10 @@
         <v>33</v>
       </c>
       <c r="AC9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD9" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -27827,10 +27842,10 @@
         <v>31</v>
       </c>
       <c r="AC10" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="AD10" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11">
@@ -27847,7 +27862,7 @@
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>29</v>
@@ -27919,7 +27934,7 @@
         <v>30</v>
       </c>
       <c r="AC11" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="AD11" t="s">
         <v>30</v>
@@ -27954,7 +27969,7 @@
         <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" t="s">
         <v>29</v>
@@ -28014,7 +28029,7 @@
         <v>212</v>
       </c>
       <c r="AD12" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13">
@@ -28103,7 +28118,7 @@
         <v>30</v>
       </c>
       <c r="AC13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD13" t="s">
         <v>30</v>
@@ -28117,7 +28132,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -28195,7 +28210,7 @@
         <v>30</v>
       </c>
       <c r="AC14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD14" t="s">
         <v>30</v>
@@ -28287,7 +28302,7 @@
         <v>32</v>
       </c>
       <c r="AC15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD15" t="s">
         <v>177</v>
@@ -28379,10 +28394,10 @@
         <v>31</v>
       </c>
       <c r="AC16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD16" t="s">
         <v>175</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -28450,7 +28465,7 @@
         <v>29</v>
       </c>
       <c r="V17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W17" t="s">
         <v>29</v>
@@ -28471,7 +28486,7 @@
         <v>30</v>
       </c>
       <c r="AC17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD17" t="s">
         <v>30</v>
@@ -28488,7 +28503,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -28607,7 +28622,7 @@
         <v>29</v>
       </c>
       <c r="M19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N19" t="s">
         <v>29</v>
@@ -28655,7 +28670,7 @@
         <v>30</v>
       </c>
       <c r="AC19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD19" t="s">
         <v>30</v>
@@ -28735,7 +28750,7 @@
         <v>29</v>
       </c>
       <c r="Y20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z20" t="s">
         <v>32</v>
@@ -28747,7 +28762,7 @@
         <v>32</v>
       </c>
       <c r="AC20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD20" t="s">
         <v>177</v>
@@ -28839,7 +28854,7 @@
         <v>30</v>
       </c>
       <c r="AC21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD21" t="s">
         <v>30</v>
@@ -28934,7 +28949,7 @@
         <v>212</v>
       </c>
       <c r="AD22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
@@ -29023,10 +29038,10 @@
         <v>31</v>
       </c>
       <c r="AC23" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="AD23" t="s">
-        <v>42</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
@@ -29073,7 +29088,7 @@
         <v>29</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P24" t="s">
         <v>29</v>
@@ -29115,7 +29130,7 @@
         <v>30</v>
       </c>
       <c r="AC24" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="AD24" t="s">
         <v>30</v>
@@ -29207,10 +29222,10 @@
         <v>31</v>
       </c>
       <c r="AC25" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD25" t="s">
         <v>175</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -29229,96 +29244,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="R1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="S1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="T1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="V1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="W1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="X1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Y1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Z1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AA1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AB1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AC1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AD1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -29375,7 +29390,7 @@
         <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
         <v>29</v>
@@ -29402,7 +29417,7 @@
         <v>35</v>
       </c>
       <c r="AC2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD2" t="s">
         <v>178</v>
@@ -29410,7 +29425,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -29440,7 +29455,7 @@
         <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
         <v>29</v>
@@ -29494,15 +29509,15 @@
         <v>31</v>
       </c>
       <c r="AC3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD3" t="s">
         <v>175</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -29580,21 +29595,21 @@
         <v>31</v>
       </c>
       <c r="AA4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="s">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="AC4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD4" t="s">
-        <v>75</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -29672,21 +29687,21 @@
         <v>30</v>
       </c>
       <c r="AA5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -29695,7 +29710,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -29761,24 +29776,24 @@
         <v>29</v>
       </c>
       <c r="Z6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA6" t="s">
         <v>32</v>
       </c>
       <c r="AB6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="AD6" t="s">
-        <v>38</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -29799,7 +29814,7 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
         <v>29</v>
@@ -29853,24 +29868,24 @@
         <v>29</v>
       </c>
       <c r="Z7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="s">
         <v>30</v>
       </c>
       <c r="AB7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -29948,21 +29963,21 @@
         <v>30</v>
       </c>
       <c r="AA8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -30046,15 +30061,15 @@
         <v>31</v>
       </c>
       <c r="AC9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD9" t="s">
         <v>175</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -30123,7 +30138,7 @@
         <v>29</v>
       </c>
       <c r="X10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="s">
         <v>29</v>
@@ -30135,18 +30150,18 @@
         <v>35</v>
       </c>
       <c r="AB10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AC10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD10" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -30230,7 +30245,7 @@
         <v>30</v>
       </c>
       <c r="AC11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD11" t="s">
         <v>30</v>
@@ -30238,7 +30253,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -30262,7 +30277,7 @@
         <v>31</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
         <v>30</v>
@@ -30322,7 +30337,7 @@
         <v>32</v>
       </c>
       <c r="AC12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD12" t="s">
         <v>177</v>
@@ -30330,7 +30345,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -30378,7 +30393,7 @@
         <v>30</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R13" t="s">
         <v>30</v>
@@ -30414,15 +30429,15 @@
         <v>34</v>
       </c>
       <c r="AC13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -30434,7 +30449,7 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F14" t="s">
         <v>29</v>
@@ -30497,24 +30512,24 @@
         <v>30</v>
       </c>
       <c r="Z14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="s">
         <v>30</v>
       </c>
       <c r="AB14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD14" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -30574,7 +30589,7 @@
         <v>31</v>
       </c>
       <c r="U15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V15" t="s">
         <v>30</v>
@@ -30598,15 +30613,15 @@
         <v>33</v>
       </c>
       <c r="AC15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD15" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -30678,7 +30693,7 @@
         <v>29</v>
       </c>
       <c r="Y16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z16" t="s">
         <v>30</v>
@@ -30690,7 +30705,7 @@
         <v>30</v>
       </c>
       <c r="AC16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD16" t="s">
         <v>30</v>
@@ -30698,7 +30713,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -30782,7 +30797,7 @@
         <v>32</v>
       </c>
       <c r="AC17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD17" t="s">
         <v>177</v>
@@ -30790,7 +30805,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -30874,7 +30889,7 @@
         <v>30</v>
       </c>
       <c r="AC18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD18" t="s">
         <v>30</v>
@@ -30882,7 +30897,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -30933,7 +30948,7 @@
         <v>29</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S19" t="s">
         <v>29</v>
@@ -30966,15 +30981,15 @@
         <v>33</v>
       </c>
       <c r="AC19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD19" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -31058,7 +31073,7 @@
         <v>32</v>
       </c>
       <c r="AC20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD20" t="s">
         <v>177</v>
@@ -31066,7 +31081,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -31150,15 +31165,15 @@
         <v>31</v>
       </c>
       <c r="AC21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD21" t="s">
         <v>175</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -31224,7 +31239,7 @@
         <v>29</v>
       </c>
       <c r="W22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X22" t="s">
         <v>29</v>
@@ -31242,15 +31257,15 @@
         <v>32</v>
       </c>
       <c r="AC22" t="s">
-        <v>37</v>
+        <v>213</v>
       </c>
       <c r="AD22" t="s">
-        <v>41</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -31334,7 +31349,7 @@
         <v>32</v>
       </c>
       <c r="AC23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD23" t="s">
         <v>177</v>
@@ -31342,7 +31357,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -31426,7 +31441,7 @@
         <v>35</v>
       </c>
       <c r="AC24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD24" t="s">
         <v>178</v>
@@ -31434,7 +31449,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -31518,7 +31533,7 @@
         <v>32</v>
       </c>
       <c r="AC25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AD25" t="s">
         <v>177</v>
@@ -31540,93 +31555,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="J1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="R1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="S1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="T1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="U1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="V1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="W1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="X1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Y1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Z1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AA1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AB1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AC1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -31715,7 +31730,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -31804,7 +31819,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -31893,7 +31908,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -31982,7 +31997,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32063,15 +32078,15 @@
         <v>32</v>
       </c>
       <c r="AB6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AC6" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32160,7 +32175,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -32249,7 +32264,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -32338,7 +32353,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -32427,7 +32442,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -32516,7 +32531,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -32605,7 +32620,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -32694,7 +32709,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -32783,7 +32798,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -32872,7 +32887,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -32961,7 +32976,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -33050,7 +33065,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -33139,7 +33154,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -33228,7 +33243,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -33317,7 +33332,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -33406,7 +33421,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -33487,15 +33502,15 @@
         <v>32</v>
       </c>
       <c r="AB22" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AC22" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -33576,15 +33591,15 @@
         <v>31</v>
       </c>
       <c r="AB23" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AC23" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -33665,10 +33680,10 @@
         <v>35</v>
       </c>
       <c r="AB24" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AC24" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -33687,84 +33702,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="I1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="J1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="O1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="P1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="R1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="S1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="T1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="U1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="V1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="W1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="X1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Y1" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Z1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -33839,12 +33854,12 @@
         <v>106</v>
       </c>
       <c r="Z2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -33924,7 +33939,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -34004,7 +34019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34084,7 +34099,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -34164,7 +34179,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -34239,12 +34254,12 @@
         <v>106</v>
       </c>
       <c r="Z7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34319,12 +34334,12 @@
         <v>106</v>
       </c>
       <c r="Z8" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34399,12 +34414,12 @@
         <v>106</v>
       </c>
       <c r="Z9" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -34476,15 +34491,15 @@
         <v>32</v>
       </c>
       <c r="Y10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -34559,12 +34574,12 @@
         <v>106</v>
       </c>
       <c r="Z11" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -34644,7 +34659,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -34724,7 +34739,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -34804,7 +34819,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -34876,15 +34891,15 @@
         <v>31</v>
       </c>
       <c r="Y15" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Z15" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -34964,7 +34979,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -35044,7 +35059,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35124,7 +35139,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -35204,7 +35219,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -35279,12 +35294,12 @@
         <v>106</v>
       </c>
       <c r="Z20" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>

--- a/RedTotalsV2.xlsx
+++ b/RedTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="654">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -689,12 +689,12 @@
     <t>0.1333</t>
   </si>
   <si>
+    <t>0.2</t>
+  </si>
+  <si>
     <t>0.0769</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -800,543 +800,540 @@
     <t>Port Vale</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>0.4286</t>
   </si>
   <si>
-    <t>0.5385</t>
+    <t>0.5714</t>
   </si>
   <si>
     <t>0.3571</t>
   </si>
   <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham.Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag.and.Red</t>
+  </si>
+  <si>
+    <t>Dover.Athletic</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Kings.Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Notts.County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>ec_hrtotals</t>
+  </si>
+  <si>
+    <t>ec_artotals</t>
+  </si>
+  <si>
+    <t>ec_totalreds</t>
+  </si>
+  <si>
+    <t>ec_games_played</t>
+  </si>
+  <si>
+    <t>ec_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>0.3077</t>
+  </si>
+  <si>
+    <t>0.1538</t>
+  </si>
+  <si>
     <t>0.2308</t>
   </si>
   <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham.Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag.and.Red</t>
-  </si>
-  <si>
-    <t>Dover.Athletic</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Kings.Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Notts.County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>ec_hrtotals</t>
-  </si>
-  <si>
-    <t>ec_artotals</t>
-  </si>
-  <si>
-    <t>ec_totalreds</t>
-  </si>
-  <si>
-    <t>ec_games_played</t>
-  </si>
-  <si>
-    <t>ec_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Notts County</t>
+    <t>0.3636</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hrtotals</t>
+  </si>
+  <si>
+    <t>f1_artotals</t>
+  </si>
+  <si>
+    <t>f1_totalreds</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hrtotals</t>
+  </si>
+  <si>
+    <t>f2_artotals</t>
+  </si>
+  <si>
+    <t>f2_totalreds</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>0.3846</t>
+  </si>
+  <si>
+    <t>0.4615</t>
+  </si>
+  <si>
+    <t>0.6154</t>
+  </si>
+  <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hrtotals</t>
+  </si>
+  <si>
+    <t>g1_artotals</t>
+  </si>
+  <si>
+    <t>g1_totalreds</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hrtotals</t>
+  </si>
+  <si>
+    <t>i1_artotals</t>
+  </si>
+  <si>
+    <t>i1_totalreds</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalreds</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>0.3636</t>
+    <t>0.7778</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.4</t>
   </si>
   <si>
     <t>0.3</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hrtotals</t>
-  </si>
-  <si>
-    <t>f1_artotals</t>
-  </si>
-  <si>
-    <t>f1_totalreds</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hrtotals</t>
-  </si>
-  <si>
-    <t>f2_artotals</t>
-  </si>
-  <si>
-    <t>f2_totalreds</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>0.3846</t>
-  </si>
-  <si>
-    <t>0.4615</t>
-  </si>
-  <si>
-    <t>0.3077</t>
-  </si>
-  <si>
-    <t>0.1538</t>
-  </si>
-  <si>
-    <t>0.6154</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hrtotals</t>
-  </si>
-  <si>
-    <t>g1_artotals</t>
-  </si>
-  <si>
-    <t>g1_totalreds</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>0.5714</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hrtotals</t>
-  </si>
-  <si>
-    <t>i1_artotals</t>
-  </si>
-  <si>
-    <t>i1_totalreds</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>0.7778</t>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hrtotals</t>
+  </si>
+  <si>
+    <t>i2_artotals</t>
+  </si>
+  <si>
+    <t>i2_totalreds</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalreds</t>
   </si>
   <si>
     <t>0.4444</t>
   </si>
   <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hrtotals</t>
-  </si>
-  <si>
-    <t>i2_artotals</t>
-  </si>
-  <si>
-    <t>i2_totalreds</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalreds</t>
-  </si>
-  <si>
     <t>0.6667</t>
   </si>
   <si>
@@ -1509,9 +1506,6 @@
   </si>
   <si>
     <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>0.125</t>
   </si>
   <si>
     <t>Aberdeen</t>
@@ -3471,84 +3465,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C1" t="s">
         <v>324</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>325</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>326</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>327</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>328</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>329</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>330</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>331</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>332</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>333</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>334</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>335</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>336</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>337</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>338</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>339</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>340</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>341</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>342</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>343</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>344</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>345</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>346</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>347</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -3623,12 +3617,12 @@
         <v>215</v>
       </c>
       <c r="Z2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -3703,12 +3697,12 @@
         <v>215</v>
       </c>
       <c r="Z3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -3720,7 +3714,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3780,15 +3774,15 @@
         <v>32</v>
       </c>
       <c r="Y4" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="Z4" t="s">
-        <v>42</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -3860,15 +3854,15 @@
         <v>31</v>
       </c>
       <c r="Y5" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="Z5" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -3943,12 +3937,12 @@
         <v>215</v>
       </c>
       <c r="Z6" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -4023,12 +4017,12 @@
         <v>215</v>
       </c>
       <c r="Z7" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4103,12 +4097,12 @@
         <v>215</v>
       </c>
       <c r="Z8" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4183,12 +4177,12 @@
         <v>215</v>
       </c>
       <c r="Z9" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -4263,12 +4257,12 @@
         <v>215</v>
       </c>
       <c r="Z10" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4343,12 +4337,12 @@
         <v>215</v>
       </c>
       <c r="Z11" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4417,18 +4411,18 @@
         <v>34</v>
       </c>
       <c r="X12" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="Y12" t="s">
         <v>215</v>
       </c>
       <c r="Z12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -4503,12 +4497,12 @@
         <v>215</v>
       </c>
       <c r="Z13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4583,12 +4577,12 @@
         <v>215</v>
       </c>
       <c r="Z14" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -4663,12 +4657,12 @@
         <v>215</v>
       </c>
       <c r="Z15" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -4743,12 +4737,12 @@
         <v>215</v>
       </c>
       <c r="Z16" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -4823,12 +4817,12 @@
         <v>215</v>
       </c>
       <c r="Z17" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -4903,12 +4897,12 @@
         <v>215</v>
       </c>
       <c r="Z18" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -4983,12 +4977,12 @@
         <v>215</v>
       </c>
       <c r="Z19" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -5063,12 +5057,12 @@
         <v>215</v>
       </c>
       <c r="Z20" t="s">
-        <v>356</v>
+        <v>292</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5143,7 +5137,7 @@
         <v>215</v>
       </c>
       <c r="Z21" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5162,66 +5156,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F1" t="s">
         <v>359</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>360</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>361</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>362</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>363</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>364</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>365</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>366</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>367</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>368</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>369</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>370</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>371</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>372</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>373</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>374</v>
-      </c>
-      <c r="R1" t="s">
-        <v>375</v>
-      </c>
-      <c r="S1" t="s">
-        <v>376</v>
-      </c>
-      <c r="T1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5283,7 +5277,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -5345,7 +5339,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5407,7 +5401,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -5469,7 +5463,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -5531,7 +5525,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -5593,7 +5587,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -5650,12 +5644,12 @@
         <v>36</v>
       </c>
       <c r="T8" t="s">
-        <v>381</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -5717,7 +5711,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -5779,7 +5773,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -5841,7 +5835,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -5903,7 +5897,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -5965,7 +5959,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -6027,7 +6021,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -6103,84 +6097,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G1" t="s">
         <v>382</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>383</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>384</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>385</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>386</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>387</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>388</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>389</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>390</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>391</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>392</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>393</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>394</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>396</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>397</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>398</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>399</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
         <v>400</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Z1" t="s">
         <v>401</v>
-      </c>
-      <c r="V1" t="s">
-        <v>402</v>
-      </c>
-      <c r="W1" t="s">
-        <v>403</v>
-      </c>
-      <c r="X1" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>405</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6252,7 +6246,7 @@
         <v>30</v>
       </c>
       <c r="Y2" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z2" t="s">
         <v>30</v>
@@ -6260,7 +6254,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6335,12 +6329,12 @@
         <v>75</v>
       </c>
       <c r="Z3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -6376,7 +6370,7 @@
         <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
         <v>29</v>
@@ -6412,15 +6406,15 @@
         <v>31</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z4" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -6441,7 +6435,7 @@
         <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
         <v>29</v>
@@ -6483,24 +6477,24 @@
         <v>29</v>
       </c>
       <c r="V5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W5" t="s">
         <v>30</v>
       </c>
       <c r="X5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z5" t="s">
-        <v>30</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6572,15 +6566,15 @@
         <v>35</v>
       </c>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -6652,7 +6646,7 @@
         <v>30</v>
       </c>
       <c r="Y7" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z7" t="s">
         <v>30</v>
@@ -6660,7 +6654,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -6726,21 +6720,21 @@
         <v>30</v>
       </c>
       <c r="W8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y8" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z8" t="s">
-        <v>77</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6785,7 +6779,7 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -6812,7 +6806,7 @@
         <v>30</v>
       </c>
       <c r="Y9" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z9" t="s">
         <v>30</v>
@@ -6820,7 +6814,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -6835,7 +6829,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -6892,15 +6886,15 @@
         <v>35</v>
       </c>
       <c r="Y10" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6951,7 +6945,7 @@
         <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S11" t="s">
         <v>29</v>
@@ -6972,15 +6966,15 @@
         <v>32</v>
       </c>
       <c r="Y11" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z11" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -7060,7 +7054,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7132,15 +7126,15 @@
         <v>34</v>
       </c>
       <c r="Y13" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z13" t="s">
-        <v>39</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -7206,24 +7200,24 @@
         <v>30</v>
       </c>
       <c r="W14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y14" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z14" t="s">
-        <v>39</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -7292,7 +7286,7 @@
         <v>30</v>
       </c>
       <c r="Y15" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z15" t="s">
         <v>30</v>
@@ -7300,7 +7294,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7372,15 +7366,15 @@
         <v>31</v>
       </c>
       <c r="Y16" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z16" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -7398,7 +7392,7 @@
         <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -7452,15 +7446,15 @@
         <v>32</v>
       </c>
       <c r="Y17" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z17" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -7532,15 +7526,15 @@
         <v>31</v>
       </c>
       <c r="Y18" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z18" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -7600,7 +7594,7 @@
         <v>30</v>
       </c>
       <c r="U19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V19" t="s">
         <v>31</v>
@@ -7612,15 +7606,15 @@
         <v>32</v>
       </c>
       <c r="Y19" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z19" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -7659,7 +7653,7 @@
         <v>29</v>
       </c>
       <c r="N20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O20" t="s">
         <v>29</v>
@@ -7683,24 +7677,24 @@
         <v>29</v>
       </c>
       <c r="V20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="W20" t="s">
         <v>31</v>
       </c>
       <c r="X20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y20" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z20" t="s">
-        <v>39</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -7772,10 +7766,10 @@
         <v>32</v>
       </c>
       <c r="Y21" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z21" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -7794,84 +7788,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D1" t="s">
         <v>409</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>410</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>411</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>412</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>413</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>414</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>415</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>416</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>417</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>418</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>419</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>420</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>421</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>422</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>423</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>424</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>425</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>426</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>427</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>428</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>429</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>430</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>431</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>432</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -7951,7 +7945,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8031,7 +8025,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -8111,7 +8105,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8191,7 +8185,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8271,7 +8265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -8351,7 +8345,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8408,7 +8402,7 @@
         <v>29</v>
       </c>
       <c r="T8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U8" t="s">
         <v>30</v>
@@ -8423,15 +8417,15 @@
         <v>31</v>
       </c>
       <c r="Y8" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z8" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -8506,12 +8500,12 @@
         <v>75</v>
       </c>
       <c r="Z9" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -8591,7 +8585,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -8671,7 +8665,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -8751,7 +8745,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -8823,15 +8817,15 @@
         <v>34</v>
       </c>
       <c r="Y13" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z13" t="s">
-        <v>39</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -8911,7 +8905,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -8991,7 +8985,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -9071,7 +9065,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -9151,7 +9145,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -9226,12 +9220,12 @@
         <v>75</v>
       </c>
       <c r="Z18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -9311,7 +9305,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9383,15 +9377,15 @@
         <v>35</v>
       </c>
       <c r="Y20" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -9427,7 +9421,7 @@
         <v>29</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N21" t="s">
         <v>29</v>
@@ -9463,10 +9457,10 @@
         <v>32</v>
       </c>
       <c r="Y21" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z21" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -9485,78 +9479,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" t="s">
         <v>435</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>436</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>437</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>438</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>439</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>440</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>441</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>442</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>443</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>444</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>445</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>446</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>447</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>448</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>449</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>450</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>451</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>452</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>453</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>454</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>455</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>456</v>
-      </c>
-      <c r="X1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9622,7 +9616,7 @@
         <v>30</v>
       </c>
       <c r="W2" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X2" t="s">
         <v>30</v>
@@ -9630,7 +9624,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -9704,7 +9698,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -9770,15 +9764,15 @@
         <v>34</v>
       </c>
       <c r="W4" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X4" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -9852,7 +9846,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -9926,7 +9920,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -9992,15 +9986,15 @@
         <v>34</v>
       </c>
       <c r="W7" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X7" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10066,15 +10060,15 @@
         <v>34</v>
       </c>
       <c r="W8" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X8" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10140,15 +10134,15 @@
         <v>31</v>
       </c>
       <c r="W9" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X9" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -10217,12 +10211,12 @@
         <v>75</v>
       </c>
       <c r="X10" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10288,15 +10282,15 @@
         <v>34</v>
       </c>
       <c r="W11" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X11" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10362,7 +10356,7 @@
         <v>30</v>
       </c>
       <c r="W12" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X12" t="s">
         <v>30</v>
@@ -10370,7 +10364,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -10436,15 +10430,15 @@
         <v>32</v>
       </c>
       <c r="W13" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -10510,15 +10504,15 @@
         <v>35</v>
       </c>
       <c r="W14" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X14" t="s">
-        <v>296</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -10584,7 +10578,7 @@
         <v>30</v>
       </c>
       <c r="W15" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X15" t="s">
         <v>30</v>
@@ -10592,7 +10586,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -10658,7 +10652,7 @@
         <v>33</v>
       </c>
       <c r="W16" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X16" t="s">
         <v>44</v>
@@ -10666,7 +10660,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -10732,7 +10726,7 @@
         <v>30</v>
       </c>
       <c r="W17" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X17" t="s">
         <v>30</v>
@@ -10740,7 +10734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -10806,15 +10800,15 @@
         <v>35</v>
       </c>
       <c r="W18" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X18" t="s">
-        <v>296</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -10880,10 +10874,10 @@
         <v>31</v>
       </c>
       <c r="W19" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="X19" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -10902,78 +10896,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1" t="s">
         <v>464</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>465</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>466</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>467</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>468</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>469</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>470</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>471</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>472</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>473</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>474</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>475</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>476</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>477</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>478</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>479</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>480</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>481</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>482</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>483</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>484</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>485</v>
-      </c>
-      <c r="X1" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11047,7 +11041,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11113,15 +11107,15 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -11195,13 +11189,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -11261,7 +11255,7 @@
         <v>30</v>
       </c>
       <c r="W5" t="s">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
         <v>30</v>
@@ -11269,7 +11263,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11343,7 +11337,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11412,12 +11406,12 @@
         <v>75</v>
       </c>
       <c r="X7" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -11462,7 +11456,7 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s">
         <v>29</v>
@@ -11483,15 +11477,15 @@
         <v>32</v>
       </c>
       <c r="W8" t="s">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -11565,7 +11559,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -11639,7 +11633,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -11713,7 +11707,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -11787,7 +11781,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -11861,7 +11855,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -11935,7 +11929,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -12004,12 +11998,12 @@
         <v>75</v>
       </c>
       <c r="X15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12075,15 +12069,15 @@
         <v>31</v>
       </c>
       <c r="W16" t="s">
-        <v>353</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s">
-        <v>492</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12152,12 +12146,12 @@
         <v>75</v>
       </c>
       <c r="X17" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12231,7 +12225,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12319,60 +12313,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1" t="s">
         <v>493</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>494</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>495</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>496</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>497</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>498</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>499</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>500</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>501</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>502</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>503</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>504</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>505</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>506</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>507</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>508</v>
-      </c>
-      <c r="R1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12420,15 +12414,15 @@
         <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R2" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -12476,15 +12470,15 @@
         <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R3" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -12514,7 +12508,7 @@
         <v>30</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
         <v>29</v>
@@ -12532,15 +12526,15 @@
         <v>34</v>
       </c>
       <c r="Q4" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R4" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12582,21 +12576,21 @@
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R5" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -12644,21 +12638,21 @@
         <v>31</v>
       </c>
       <c r="Q6" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R6" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -12700,15 +12694,15 @@
         <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R7" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -12720,7 +12714,7 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -12747,24 +12741,24 @@
         <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R8" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -12800,7 +12794,7 @@
         <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
         <v>31</v>
@@ -12812,18 +12806,18 @@
         <v>31</v>
       </c>
       <c r="Q9" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R9" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -12868,15 +12862,15 @@
         <v>31</v>
       </c>
       <c r="Q10" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R10" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -12924,7 +12918,7 @@
         <v>30</v>
       </c>
       <c r="Q11" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R11" t="s">
         <v>30</v>
@@ -12932,7 +12926,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -12947,7 +12941,7 @@
         <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -12980,15 +12974,15 @@
         <v>34</v>
       </c>
       <c r="Q12" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R12" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -13036,10 +13030,10 @@
         <v>33</v>
       </c>
       <c r="Q13" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="R13" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -13058,54 +13052,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" t="s">
         <v>514</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>515</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>516</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>517</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>518</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>519</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>520</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>521</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>522</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>523</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>524</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>525</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>526</v>
-      </c>
-      <c r="O1" t="s">
-        <v>527</v>
-      </c>
-      <c r="P1" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13147,15 +13141,15 @@
         <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="P2" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13173,7 +13167,7 @@
         <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
         <v>30</v>
@@ -13197,15 +13191,15 @@
         <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13235,7 +13229,7 @@
         <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
@@ -13247,7 +13241,7 @@
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
@@ -13255,7 +13249,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -13282,7 +13276,7 @@
         <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
         <v>29</v>
@@ -13297,18 +13291,18 @@
         <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="P5" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -13347,15 +13341,15 @@
         <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13397,7 +13391,7 @@
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="P7" t="s">
         <v>30</v>
@@ -13405,7 +13399,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -13429,7 +13423,7 @@
         <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" t="s">
         <v>30</v>
@@ -13447,15 +13441,15 @@
         <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -13497,7 +13491,7 @@
         <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s">
         <v>30</v>
@@ -13505,7 +13499,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -13547,15 +13541,15 @@
         <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -13597,10 +13591,10 @@
         <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -13619,54 +13613,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1" t="s">
         <v>532</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>533</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>534</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>535</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>536</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>537</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>538</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>539</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>540</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>541</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>542</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>543</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>544</v>
-      </c>
-      <c r="O1" t="s">
-        <v>545</v>
-      </c>
-      <c r="P1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13711,12 +13705,12 @@
         <v>108</v>
       </c>
       <c r="P2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -13766,7 +13760,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -13816,7 +13810,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13861,12 +13855,12 @@
         <v>108</v>
       </c>
       <c r="P5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -13911,12 +13905,12 @@
         <v>108</v>
       </c>
       <c r="P6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13966,7 +13960,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14016,7 +14010,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14066,7 +14060,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14116,7 +14110,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -14180,54 +14174,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D1" t="s">
         <v>552</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>553</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>554</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>555</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>556</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>557</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>558</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>559</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>560</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>561</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>562</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>563</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>564</v>
-      </c>
-      <c r="O1" t="s">
-        <v>565</v>
-      </c>
-      <c r="P1" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14269,7 +14263,7 @@
         <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
@@ -14277,7 +14271,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14319,15 +14313,15 @@
         <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="P3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14369,15 +14363,15 @@
         <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="P4" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -14419,15 +14413,15 @@
         <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="P5" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14469,15 +14463,15 @@
         <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="P6" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -14519,7 +14513,7 @@
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="P7" t="s">
         <v>30</v>
@@ -14527,7 +14521,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14569,7 +14563,7 @@
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="P8" t="s">
         <v>30</v>
@@ -14577,7 +14571,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14619,15 +14613,15 @@
         <v>32</v>
       </c>
       <c r="O9" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="P9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14669,15 +14663,15 @@
         <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="P10" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -14719,7 +14713,7 @@
         <v>30</v>
       </c>
       <c r="O11" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="P11" t="s">
         <v>30</v>
@@ -16158,84 +16152,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1" t="s">
         <v>571</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>572</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>573</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>574</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>575</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>576</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>577</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>578</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>579</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>580</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>581</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>582</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>583</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>584</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>585</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>586</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>587</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>588</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>589</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>590</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>591</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>592</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>593</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>594</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16259,7 +16253,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>29</v>
@@ -16307,15 +16301,15 @@
         <v>31</v>
       </c>
       <c r="Y2" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z2" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -16381,21 +16375,21 @@
         <v>31</v>
       </c>
       <c r="W3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="X3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y3" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z3" t="s">
-        <v>39</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16470,12 +16464,12 @@
         <v>75</v>
       </c>
       <c r="Z4" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -16547,15 +16541,15 @@
         <v>32</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z5" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -16609,7 +16603,7 @@
         <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T6" t="s">
         <v>30</v>
@@ -16627,15 +16621,15 @@
         <v>31</v>
       </c>
       <c r="Y6" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="Z6" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -16707,15 +16701,15 @@
         <v>32</v>
       </c>
       <c r="Y7" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="Z7" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -16781,21 +16775,21 @@
         <v>32</v>
       </c>
       <c r="W8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Y8" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z8" t="s">
-        <v>77</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -16867,7 +16861,7 @@
         <v>30</v>
       </c>
       <c r="Y9" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="Z9" t="s">
         <v>30</v>
@@ -16875,13 +16869,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -16938,24 +16932,24 @@
         <v>30</v>
       </c>
       <c r="V10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W10" t="s">
         <v>34</v>
       </c>
       <c r="X10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y10" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="Z10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -16976,7 +16970,7 @@
         <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
         <v>30</v>
@@ -17018,24 +17012,24 @@
         <v>29</v>
       </c>
       <c r="V11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="W11" t="s">
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y11" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -17115,7 +17109,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17187,15 +17181,15 @@
         <v>31</v>
       </c>
       <c r="Y13" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z13" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17243,7 +17237,7 @@
         <v>29</v>
       </c>
       <c r="Q14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R14" t="s">
         <v>29</v>
@@ -17258,24 +17252,24 @@
         <v>30</v>
       </c>
       <c r="V14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W14" t="s">
         <v>35</v>
       </c>
       <c r="X14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="Z14" t="s">
-        <v>44</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17347,15 +17341,15 @@
         <v>31</v>
       </c>
       <c r="Y15" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="Z15" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17397,7 +17391,7 @@
         <v>30</v>
       </c>
       <c r="O16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P16" t="s">
         <v>29</v>
@@ -17427,15 +17421,15 @@
         <v>31</v>
       </c>
       <c r="Y16" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z16" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -17501,21 +17495,21 @@
         <v>32</v>
       </c>
       <c r="W17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y17" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z17" t="s">
-        <v>39</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -17587,15 +17581,15 @@
         <v>32</v>
       </c>
       <c r="Y18" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -17667,15 +17661,15 @@
         <v>33</v>
       </c>
       <c r="Y19" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="Z19" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -17687,7 +17681,7 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
         <v>29</v>
@@ -17747,15 +17741,15 @@
         <v>31</v>
       </c>
       <c r="Y20" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="Z20" t="s">
-        <v>295</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -17773,7 +17767,7 @@
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
         <v>29</v>
@@ -17827,10 +17821,10 @@
         <v>31</v>
       </c>
       <c r="Y21" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z21" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -17849,90 +17843,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1" t="s">
         <v>599</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>600</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>601</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>602</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>603</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>604</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>605</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>606</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>607</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>608</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>609</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>610</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>611</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>612</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>613</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>614</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>615</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>616</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>617</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>618</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>619</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>620</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>621</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>622</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>623</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>624</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18018,7 +18012,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18104,7 +18098,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18190,7 +18184,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18276,7 +18270,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18362,7 +18356,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -18448,7 +18442,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -18534,7 +18528,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -18600,7 +18594,7 @@
         <v>30</v>
       </c>
       <c r="W9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X9" t="s">
         <v>31</v>
@@ -18612,15 +18606,15 @@
         <v>32</v>
       </c>
       <c r="AA9" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -18706,7 +18700,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -18792,7 +18786,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -18878,7 +18872,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -18964,7 +18958,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19050,7 +19044,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -19136,7 +19130,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -19222,7 +19216,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -19308,7 +19302,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -19394,7 +19388,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -19480,7 +19474,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -19566,7 +19560,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -19652,7 +19646,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -19738,7 +19732,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -19816,10 +19810,10 @@
         <v>32</v>
       </c>
       <c r="AA23" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -19838,84 +19832,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D1" t="s">
         <v>629</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>630</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>631</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>632</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>633</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>634</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>635</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>636</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>637</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>638</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>639</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>640</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>641</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>642</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>643</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>644</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>645</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>646</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>647</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>648</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>649</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>650</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>651</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>652</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -19987,15 +19981,15 @@
         <v>34</v>
       </c>
       <c r="Y2" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z2" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20067,15 +20061,15 @@
         <v>34</v>
       </c>
       <c r="Y3" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z3" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20147,15 +20141,15 @@
         <v>34</v>
       </c>
       <c r="Y4" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z4" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -20227,7 +20221,7 @@
         <v>30</v>
       </c>
       <c r="Y5" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z5" t="s">
         <v>30</v>
@@ -20235,7 +20229,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -20259,7 +20253,7 @@
         <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
         <v>29</v>
@@ -20307,15 +20301,15 @@
         <v>32</v>
       </c>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z6" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -20387,7 +20381,7 @@
         <v>30</v>
       </c>
       <c r="Y7" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z7" t="s">
         <v>30</v>
@@ -20395,7 +20389,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20467,15 +20461,15 @@
         <v>31</v>
       </c>
       <c r="Y8" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z8" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20547,15 +20541,15 @@
         <v>34</v>
       </c>
       <c r="Y9" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z9" t="s">
-        <v>39</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20627,15 +20621,15 @@
         <v>31</v>
       </c>
       <c r="Y10" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z10" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -20707,15 +20701,15 @@
         <v>34</v>
       </c>
       <c r="Y11" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z11" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -20787,15 +20781,15 @@
         <v>32</v>
       </c>
       <c r="Y12" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -20867,15 +20861,15 @@
         <v>32</v>
       </c>
       <c r="Y13" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -20947,15 +20941,15 @@
         <v>35</v>
       </c>
       <c r="Y14" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z14" t="s">
-        <v>296</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21027,7 +21021,7 @@
         <v>30</v>
       </c>
       <c r="Y15" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z15" t="s">
         <v>30</v>
@@ -21035,7 +21029,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21107,7 +21101,7 @@
         <v>30</v>
       </c>
       <c r="Y16" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z16" t="s">
         <v>30</v>
@@ -21115,7 +21109,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21187,15 +21181,15 @@
         <v>31</v>
       </c>
       <c r="Y17" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z17" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21267,15 +21261,15 @@
         <v>34</v>
       </c>
       <c r="Y18" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z18" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -21347,15 +21341,15 @@
         <v>34</v>
       </c>
       <c r="Y19" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z19" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21427,15 +21421,15 @@
         <v>34</v>
       </c>
       <c r="Y20" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z20" t="s">
-        <v>294</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -21507,10 +21501,10 @@
         <v>31</v>
       </c>
       <c r="Y21" t="s">
-        <v>292</v>
+        <v>402</v>
       </c>
       <c r="Z21" t="s">
-        <v>295</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -27489,10 +27483,10 @@
         <v>31</v>
       </c>
       <c r="AC6" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="AD6" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27782,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -27857,10 +27851,10 @@
         <v>31</v>
       </c>
       <c r="AC10" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="AD10" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
@@ -28225,7 +28219,7 @@
         <v>30</v>
       </c>
       <c r="AC14" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="AD14" t="s">
         <v>30</v>
@@ -28964,7 +28958,7 @@
         <v>214</v>
       </c>
       <c r="AD22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29050,7 @@
         <v>215</v>
       </c>
       <c r="AD23" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
@@ -29100,7 +29094,7 @@
         <v>29</v>
       </c>
       <c r="N24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O24" t="s">
         <v>30</v>
@@ -29145,7 +29139,7 @@
         <v>30</v>
       </c>
       <c r="AC24" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="AD24" t="s">
         <v>30</v>
@@ -29619,7 +29613,7 @@
         <v>176</v>
       </c>
       <c r="AD4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5">
@@ -29779,7 +29773,7 @@
         <v>29</v>
       </c>
       <c r="V6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W6" t="s">
         <v>29</v>
@@ -29791,19 +29785,19 @@
         <v>29</v>
       </c>
       <c r="Z6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AA6" t="s">
         <v>32</v>
       </c>
       <c r="AB6" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="AC6" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="AD6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
@@ -30171,7 +30165,7 @@
         <v>176</v>
       </c>
       <c r="AD10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11">
@@ -30447,7 +30441,7 @@
         <v>176</v>
       </c>
       <c r="AD13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14">
@@ -31266,16 +31260,16 @@
         <v>32</v>
       </c>
       <c r="AA22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AC22" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="AD22" t="s">
-        <v>258</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
@@ -31716,7 +31710,7 @@
         <v>29</v>
       </c>
       <c r="U2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
         <v>29</v>
@@ -31737,7 +31731,7 @@
         <v>30</v>
       </c>
       <c r="AB2" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s">
         <v>30</v>
@@ -31790,7 +31784,7 @@
         <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
         <v>29</v>
@@ -31826,10 +31820,10 @@
         <v>32</v>
       </c>
       <c r="AB3" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="AC3" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -31909,16 +31903,16 @@
         <v>31</v>
       </c>
       <c r="Z4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB4" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AC4" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
@@ -32004,10 +31998,10 @@
         <v>32</v>
       </c>
       <c r="AB5" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AC5" t="s">
-        <v>42</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
@@ -32093,10 +32087,10 @@
         <v>32</v>
       </c>
       <c r="AB6" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="AC6" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7">
@@ -32128,7 +32122,7 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
         <v>29</v>
@@ -32182,10 +32176,10 @@
         <v>31</v>
       </c>
       <c r="AB7" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AC7" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
@@ -32271,7 +32265,7 @@
         <v>30</v>
       </c>
       <c r="AB8" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AC8" t="s">
         <v>30</v>
@@ -32449,10 +32443,10 @@
         <v>31</v>
       </c>
       <c r="AB10" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -32538,10 +32532,10 @@
         <v>34</v>
       </c>
       <c r="AB11" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AC11" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12">
@@ -32567,7 +32561,7 @@
         <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
         <v>29</v>
@@ -32627,10 +32621,10 @@
         <v>31</v>
       </c>
       <c r="AB12" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AC12" t="s">
-        <v>45</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13">
@@ -32647,7 +32641,7 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -32716,10 +32710,10 @@
         <v>34</v>
       </c>
       <c r="AB13" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
@@ -32790,25 +32784,25 @@
         <v>31</v>
       </c>
       <c r="W14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="X14" t="s">
         <v>29</v>
       </c>
       <c r="Y14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z14" t="s">
         <v>31</v>
       </c>
       <c r="AA14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB14" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s">
-        <v>293</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -32828,7 +32822,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -32894,10 +32888,10 @@
         <v>34</v>
       </c>
       <c r="AB15" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AC15" t="s">
-        <v>43</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16">
@@ -32983,7 +32977,7 @@
         <v>30</v>
       </c>
       <c r="AB16" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AC16" t="s">
         <v>30</v>
@@ -33089,7 +33083,7 @@
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -33152,19 +33146,19 @@
         <v>31</v>
       </c>
       <c r="Y18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="s">
         <v>32</v>
       </c>
       <c r="AA18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB18" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
@@ -33288,7 +33282,7 @@
         <v>30</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L20" t="s">
         <v>29</v>
@@ -33339,10 +33333,10 @@
         <v>32</v>
       </c>
       <c r="AB20" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AC20" t="s">
-        <v>42</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21">
@@ -33428,7 +33422,7 @@
         <v>30</v>
       </c>
       <c r="AB21" t="s">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="AC21" t="s">
         <v>30</v>
@@ -33517,10 +33511,10 @@
         <v>34</v>
       </c>
       <c r="AB22" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="AC22" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -33600,16 +33594,16 @@
         <v>31</v>
       </c>
       <c r="Z23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB23" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="AC23" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24">
@@ -33677,7 +33671,7 @@
         <v>29</v>
       </c>
       <c r="V24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W24" t="s">
         <v>29</v>
@@ -33695,10 +33689,10 @@
         <v>35</v>
       </c>
       <c r="AB24" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="AC24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -33717,84 +33711,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>300</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>301</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>302</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>303</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>304</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>305</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>306</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>307</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>308</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>309</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>310</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>311</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>312</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>313</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>314</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>315</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>316</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>317</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>318</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>319</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>320</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -33869,12 +33863,12 @@
         <v>108</v>
       </c>
       <c r="Z2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -33954,7 +33948,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -34034,7 +34028,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34109,12 +34103,12 @@
         <v>108</v>
       </c>
       <c r="Z5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -34194,7 +34188,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -34269,12 +34263,12 @@
         <v>108</v>
       </c>
       <c r="Z7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34354,7 +34348,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34434,7 +34428,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -34506,15 +34500,15 @@
         <v>34</v>
       </c>
       <c r="Y10" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="Z10" t="s">
-        <v>294</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -34589,12 +34583,12 @@
         <v>108</v>
       </c>
       <c r="Z11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -34674,7 +34668,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -34754,7 +34748,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -34834,7 +34828,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -34861,7 +34855,7 @@
         <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15" t="s">
         <v>29</v>
@@ -34906,15 +34900,15 @@
         <v>32</v>
       </c>
       <c r="Y15" t="s">
-        <v>292</v>
+        <v>108</v>
       </c>
       <c r="Z15" t="s">
-        <v>219</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -34994,7 +34988,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -35069,12 +35063,12 @@
         <v>108</v>
       </c>
       <c r="Z17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35154,7 +35148,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -35234,7 +35228,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -35309,12 +35303,12 @@
         <v>108</v>
       </c>
       <c r="Z20" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -35389,7 +35383,7 @@
         <v>108</v>
       </c>
       <c r="Z21" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/RedTotalsV2.xlsx
+++ b/RedTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="655">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -1244,7 +1244,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>0.7778</t>
+    <t>0.7</t>
   </si>
   <si>
     <t>0.1</t>
@@ -1331,181 +1331,184 @@
     <t>i2_avg_totalreds</t>
   </si>
   <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hrtotals</t>
+  </si>
+  <si>
+    <t>n1_artotals</t>
+  </si>
+  <si>
+    <t>n1_totalreds</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
     <t>0.4444</t>
   </si>
   <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hrtotals</t>
+  </si>
+  <si>
+    <t>p1_artotals</t>
+  </si>
+  <si>
+    <t>p1_totalreds</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
     <t>0.6667</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hrtotals</t>
-  </si>
-  <si>
-    <t>n1_artotals</t>
-  </si>
-  <si>
-    <t>n1_totalreds</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hrtotals</t>
-  </si>
-  <si>
-    <t>p1_artotals</t>
-  </si>
-  <si>
-    <t>p1_totalreds</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
   </si>
   <si>
     <t>Aberdeen</t>
@@ -6326,7 +6329,7 @@
         <v>36</v>
       </c>
       <c r="Y3" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z3" t="s">
         <v>403</v>
@@ -6980,7 +6983,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -7046,10 +7049,10 @@
         <v>31</v>
       </c>
       <c r="Y12" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z12" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13">
@@ -7895,7 +7898,7 @@
         <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
         <v>29</v>
@@ -7937,10 +7940,10 @@
         <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z2" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3">
@@ -7999,7 +8002,7 @@
         <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T3" t="s">
         <v>29</v>
@@ -8017,10 +8020,10 @@
         <v>31</v>
       </c>
       <c r="Y3" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z3" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
@@ -8091,16 +8094,16 @@
         <v>30</v>
       </c>
       <c r="W4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z4" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5">
@@ -8138,7 +8141,7 @@
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s">
         <v>29</v>
@@ -8177,10 +8180,10 @@
         <v>31</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z5" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6">
@@ -8224,7 +8227,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
@@ -8257,10 +8260,10 @@
         <v>31</v>
       </c>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z6" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7">
@@ -8313,7 +8316,7 @@
         <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R7" t="s">
         <v>29</v>
@@ -8337,10 +8340,10 @@
         <v>32</v>
       </c>
       <c r="Y7" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z7" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8">
@@ -8470,7 +8473,7 @@
         <v>31</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
         <v>29</v>
@@ -8497,10 +8500,10 @@
         <v>35</v>
       </c>
       <c r="Y9" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z9" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10">
@@ -8514,7 +8517,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -8568,19 +8571,19 @@
         <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W10" t="s">
         <v>31</v>
       </c>
       <c r="X10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z10" t="s">
-        <v>77</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11">
@@ -8657,7 +8660,7 @@
         <v>30</v>
       </c>
       <c r="Y11" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z11" t="s">
         <v>30</v>
@@ -8737,10 +8740,10 @@
         <v>31</v>
       </c>
       <c r="Y12" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z12" t="s">
-        <v>76</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13">
@@ -8897,10 +8900,10 @@
         <v>34</v>
       </c>
       <c r="Y14" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z14" t="s">
-        <v>39</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15">
@@ -8956,7 +8959,7 @@
         <v>29</v>
       </c>
       <c r="R15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S15" t="s">
         <v>29</v>
@@ -8977,10 +8980,10 @@
         <v>34</v>
       </c>
       <c r="Y15" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z15" t="s">
-        <v>39</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16">
@@ -9057,10 +9060,10 @@
         <v>32</v>
       </c>
       <c r="Y16" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z16" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17">
@@ -9137,10 +9140,10 @@
         <v>34</v>
       </c>
       <c r="Y17" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z17" t="s">
-        <v>39</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18">
@@ -9217,10 +9220,10 @@
         <v>37</v>
       </c>
       <c r="Y18" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19">
@@ -9297,10 +9300,10 @@
         <v>32</v>
       </c>
       <c r="Y19" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z19" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
@@ -9479,78 +9482,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" t="s">
         <v>434</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>435</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>436</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>437</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>438</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>439</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>440</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>441</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>442</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>443</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>444</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>445</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>446</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>447</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>448</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>449</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>450</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>451</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>452</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>453</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>454</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>455</v>
-      </c>
-      <c r="X1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9624,7 +9627,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -9772,7 +9775,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -9846,7 +9849,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -9920,7 +9923,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -9994,7 +9997,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10068,7 +10071,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10142,7 +10145,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -10211,12 +10214,12 @@
         <v>75</v>
       </c>
       <c r="X10" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10290,7 +10293,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10364,7 +10367,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -10438,7 +10441,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -10586,7 +10589,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -10660,7 +10663,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -10734,7 +10737,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -10808,7 +10811,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -11406,7 +11409,7 @@
         <v>75</v>
       </c>
       <c r="X7" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8">
@@ -11998,7 +12001,7 @@
         <v>75</v>
       </c>
       <c r="X15" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16">
@@ -12146,7 +12149,7 @@
         <v>75</v>
       </c>
       <c r="X17" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18">
@@ -12313,60 +12316,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="J1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="R1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12422,7 +12425,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -12478,7 +12481,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -12534,7 +12537,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12590,7 +12593,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -12646,7 +12649,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -12702,7 +12705,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -12758,7 +12761,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -12814,7 +12817,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -12870,7 +12873,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -12926,7 +12929,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -12982,7 +12985,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -13052,54 +13055,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="J1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13149,7 +13152,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13199,7 +13202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13249,7 +13252,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -13299,7 +13302,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -13349,7 +13352,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13399,7 +13402,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -13449,7 +13452,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -13499,7 +13502,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -13549,7 +13552,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -13613,54 +13616,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="J1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13705,12 +13708,12 @@
         <v>108</v>
       </c>
       <c r="P2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -13760,7 +13763,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -13810,7 +13813,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13860,7 +13863,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -13910,7 +13913,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13960,7 +13963,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14010,7 +14013,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14060,7 +14063,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14110,7 +14113,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -14174,54 +14177,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14271,7 +14274,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14321,7 +14324,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14371,7 +14374,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -14421,7 +14424,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14471,7 +14474,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -14521,7 +14524,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14571,7 +14574,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14621,7 +14624,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14671,7 +14674,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -16152,84 +16155,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="O1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Q1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="R1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="S1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="T1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="U1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="V1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="X1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16309,7 +16312,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -16389,7 +16392,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16455,21 +16458,21 @@
         <v>31</v>
       </c>
       <c r="W4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="X4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z4" t="s">
-        <v>432</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -16549,7 +16552,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -16629,7 +16632,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -16709,7 +16712,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -16760,7 +16763,7 @@
         <v>30</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S8" t="s">
         <v>29</v>
@@ -16781,15 +16784,15 @@
         <v>35</v>
       </c>
       <c r="Y8" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="Z8" t="s">
-        <v>405</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -16869,7 +16872,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -16949,7 +16952,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17021,15 +17024,15 @@
         <v>33</v>
       </c>
       <c r="Y11" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="Z11" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -17059,7 +17062,7 @@
         <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s">
         <v>29</v>
@@ -17101,15 +17104,15 @@
         <v>34</v>
       </c>
       <c r="Y12" t="s">
-        <v>75</v>
+        <v>402</v>
       </c>
       <c r="Z12" t="s">
-        <v>39</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17118,7 +17121,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -17172,24 +17175,24 @@
         <v>29</v>
       </c>
       <c r="V13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W13" t="s">
         <v>30</v>
       </c>
       <c r="X13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="Z13" t="s">
-        <v>404</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17264,12 +17267,12 @@
         <v>108</v>
       </c>
       <c r="Z14" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17349,7 +17352,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17429,7 +17432,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -17509,7 +17512,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -17581,15 +17584,15 @@
         <v>32</v>
       </c>
       <c r="Y18" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="Z18" t="s">
-        <v>218</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -17669,7 +17672,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -17749,7 +17752,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -17843,90 +17846,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="I1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="J1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="K1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="O1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="P1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="Q1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="R1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="S1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="T1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="U1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="V1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="W1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="X1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Y1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Z1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AA1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AB1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18012,7 +18015,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18098,7 +18101,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18184,7 +18187,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18270,7 +18273,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18356,7 +18359,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -18442,7 +18445,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -18528,7 +18531,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -18614,7 +18617,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -18700,7 +18703,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -18786,7 +18789,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -18872,7 +18875,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -18958,7 +18961,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19044,7 +19047,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -19130,7 +19133,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -19216,7 +19219,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -19302,7 +19305,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -19388,7 +19391,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -19474,7 +19477,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -19560,7 +19563,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -19646,7 +19649,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -19732,7 +19735,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -19832,84 +19835,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="I1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="K1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="P1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Q1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="R1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="S1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="T1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="U1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="V1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="W1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="X1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -19989,7 +19992,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20069,7 +20072,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20149,7 +20152,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -20229,7 +20232,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -20309,7 +20312,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -20389,7 +20392,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20469,7 +20472,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20549,7 +20552,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20629,7 +20632,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -20709,7 +20712,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -20789,7 +20792,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -20869,7 +20872,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -20949,7 +20952,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21029,7 +21032,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21109,7 +21112,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21189,7 +21192,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21269,7 +21272,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -21349,7 +21352,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21429,7 +21432,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>

--- a/RedTotalsV2.xlsx
+++ b/RedTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="668">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -692,426 +692,441 @@
     <t>Sheffield Weds</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>16</t>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.0667</t>
+  </si>
+  <si>
+    <t>0.2941</t>
+  </si>
+  <si>
+    <t>0.0625</t>
+  </si>
+  <si>
+    <t>0.1875</t>
   </si>
   <si>
     <t>0.1333</t>
   </si>
   <si>
-    <t>0.0667</t>
-  </si>
-  <si>
-    <t>0.0625</t>
-  </si>
-  <si>
-    <t>0.1875</t>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol.Rvs</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley.Town</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Forest.Green</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Leyton.Orient</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Newport.County</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Port.Vale</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>e3_hrtotals</t>
+  </si>
+  <si>
+    <t>e3_artotals</t>
+  </si>
+  <si>
+    <t>e3_totalreds</t>
+  </si>
+  <si>
+    <t>e3_games_played</t>
+  </si>
+  <si>
+    <t>e3_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.4375</t>
+  </si>
+  <si>
+    <t>0.5333</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.375</t>
   </si>
   <si>
     <t>0.3125</t>
   </si>
   <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol.Rvs</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Crawley.Town</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Forest.Green</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Leyton.Orient</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Newport.County</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Port.Vale</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>e3_hrtotals</t>
-  </si>
-  <si>
-    <t>e3_artotals</t>
-  </si>
-  <si>
-    <t>e3_totalreds</t>
-  </si>
-  <si>
-    <t>e3_games_played</t>
-  </si>
-  <si>
-    <t>e3_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham.Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag.and.Red</t>
+  </si>
+  <si>
+    <t>Dover.Athletic</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Kings.Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Notts.County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>ec_hrtotals</t>
+  </si>
+  <si>
+    <t>ec_artotals</t>
+  </si>
+  <si>
+    <t>ec_totalreds</t>
+  </si>
+  <si>
+    <t>ec_games_played</t>
+  </si>
+  <si>
+    <t>ec_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Notts County</t>
   </si>
   <si>
     <t>0.2667</t>
   </si>
   <si>
+    <t>0.0714</t>
+  </si>
+  <si>
+    <t>0.4615</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hrtotals</t>
+  </si>
+  <si>
+    <t>f1_artotals</t>
+  </si>
+  <si>
+    <t>f1_totalreds</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>0.3077</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hrtotals</t>
+  </si>
+  <si>
+    <t>f2_artotals</t>
+  </si>
+  <si>
+    <t>f2_totalreds</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>0.3333</t>
+  </si>
+  <si>
     <t>0.4</t>
   </si>
   <si>
-    <t>0.5333</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.3333</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham.Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag.and.Red</t>
-  </si>
-  <si>
-    <t>Dover.Athletic</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Kings.Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Notts.County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>ec_hrtotals</t>
-  </si>
-  <si>
-    <t>ec_artotals</t>
-  </si>
-  <si>
-    <t>ec_totalreds</t>
-  </si>
-  <si>
-    <t>ec_games_played</t>
-  </si>
-  <si>
-    <t>ec_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>0.0714</t>
-  </si>
-  <si>
-    <t>0.3077</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hrtotals</t>
-  </si>
-  <si>
-    <t>f1_artotals</t>
-  </si>
-  <si>
-    <t>f1_totalreds</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>0.4615</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hrtotals</t>
-  </si>
-  <si>
-    <t>f2_artotals</t>
-  </si>
-  <si>
-    <t>f2_totalreds</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
     <t>0.4667</t>
   </si>
   <si>
@@ -1272,9 +1287,6 @@
   </si>
   <si>
     <t>0.4167</t>
-  </si>
-  <si>
-    <t>0.25</t>
   </si>
   <si>
     <t>Alessandria</t>
@@ -3495,84 +3507,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="H1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="I1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="J1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="L1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="R1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="S1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="T1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="U1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="V1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="W1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="X1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Y1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Z1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -3644,15 +3656,15 @@
         <v>34</v>
       </c>
       <c r="Y2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z2" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -3724,15 +3736,15 @@
         <v>36</v>
       </c>
       <c r="Y3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z3" t="s">
-        <v>263</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -3804,15 +3816,15 @@
         <v>33</v>
       </c>
       <c r="Y4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -3884,7 +3896,7 @@
         <v>31</v>
       </c>
       <c r="Y5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z5" t="s">
         <v>222</v>
@@ -3892,7 +3904,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -3964,15 +3976,15 @@
         <v>35</v>
       </c>
       <c r="Y6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z6" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -4044,15 +4056,15 @@
         <v>33</v>
       </c>
       <c r="Y7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -4124,15 +4136,15 @@
         <v>35</v>
       </c>
       <c r="Y8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z8" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4204,15 +4216,15 @@
         <v>35</v>
       </c>
       <c r="Y9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z9" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -4284,15 +4296,15 @@
         <v>32</v>
       </c>
       <c r="Y10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4364,15 +4376,15 @@
         <v>33</v>
       </c>
       <c r="Y11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4441,18 +4453,18 @@
         <v>33</v>
       </c>
       <c r="X12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -4524,7 +4536,7 @@
         <v>31</v>
       </c>
       <c r="Y13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z13" t="s">
         <v>222</v>
@@ -4532,7 +4544,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4604,15 +4616,15 @@
         <v>32</v>
       </c>
       <c r="Y14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z14" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -4684,15 +4696,15 @@
         <v>35</v>
       </c>
       <c r="Y15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z15" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -4764,15 +4776,15 @@
         <v>37</v>
       </c>
       <c r="Y16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z16" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -4844,15 +4856,15 @@
         <v>35</v>
       </c>
       <c r="Y17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z17" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -4924,15 +4936,15 @@
         <v>35</v>
       </c>
       <c r="Y18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z18" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -5004,15 +5016,15 @@
         <v>33</v>
       </c>
       <c r="Y19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -5084,15 +5096,15 @@
         <v>35</v>
       </c>
       <c r="Y20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z20" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5164,10 +5176,10 @@
         <v>32</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Z21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5186,66 +5198,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="C1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H1" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="I1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J1" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K1" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M1" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="O1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P1" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q1" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="R1" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="S1" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="T1" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5302,12 +5314,12 @@
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -5364,12 +5376,12 @@
         <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5426,12 +5438,12 @@
         <v>38</v>
       </c>
       <c r="T4" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -5488,12 +5500,12 @@
         <v>38</v>
       </c>
       <c r="T5" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -5550,12 +5562,12 @@
         <v>38</v>
       </c>
       <c r="T6" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -5612,12 +5624,12 @@
         <v>38</v>
       </c>
       <c r="T7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -5674,12 +5686,12 @@
         <v>38</v>
       </c>
       <c r="T8" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -5736,12 +5748,12 @@
         <v>38</v>
       </c>
       <c r="T9" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -5798,12 +5810,12 @@
         <v>38</v>
       </c>
       <c r="T10" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -5865,7 +5877,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -5922,12 +5934,12 @@
         <v>38</v>
       </c>
       <c r="T12" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -5984,12 +5996,12 @@
         <v>38</v>
       </c>
       <c r="T13" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -6051,7 +6063,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -6108,7 +6120,7 @@
         <v>38</v>
       </c>
       <c r="T15" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6127,84 +6139,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="I1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="J1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="N1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="O1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="P1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="R1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="S1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="T1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="U1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="V1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="W1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="X1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="Y1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Z1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6284,7 +6296,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6353,18 +6365,18 @@
         <v>31</v>
       </c>
       <c r="X3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y3" t="s">
         <v>111</v>
       </c>
       <c r="Z3" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -6444,7 +6456,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -6524,7 +6536,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6599,12 +6611,12 @@
         <v>111</v>
       </c>
       <c r="Z6" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -6684,7 +6696,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -6759,12 +6771,12 @@
         <v>111</v>
       </c>
       <c r="Z8" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6844,7 +6856,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -6919,12 +6931,12 @@
         <v>111</v>
       </c>
       <c r="Z10" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -6999,12 +7011,12 @@
         <v>111</v>
       </c>
       <c r="Z11" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -7079,12 +7091,12 @@
         <v>111</v>
       </c>
       <c r="Z12" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7159,12 +7171,12 @@
         <v>111</v>
       </c>
       <c r="Z13" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -7244,7 +7256,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -7324,7 +7336,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7404,7 +7416,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -7484,7 +7496,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -7564,7 +7576,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -7639,12 +7651,12 @@
         <v>111</v>
       </c>
       <c r="Z19" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -7719,12 +7731,12 @@
         <v>111</v>
       </c>
       <c r="Z20" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -7799,7 +7811,7 @@
         <v>111</v>
       </c>
       <c r="Z21" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -7818,84 +7830,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="G1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="H1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="I1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="N1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="O1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="R1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="S1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="T1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="U1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="V1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="W1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="X1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="Y1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="Z1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -7975,7 +7987,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8055,7 +8067,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -8130,12 +8142,12 @@
         <v>111</v>
       </c>
       <c r="Z4" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8215,7 +8227,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8290,12 +8302,12 @@
         <v>111</v>
       </c>
       <c r="Z6" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -8375,7 +8387,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8455,7 +8467,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -8530,12 +8542,12 @@
         <v>111</v>
       </c>
       <c r="Z9" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -8610,12 +8622,12 @@
         <v>111</v>
       </c>
       <c r="Z10" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -8695,7 +8707,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -8775,7 +8787,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -8850,12 +8862,12 @@
         <v>111</v>
       </c>
       <c r="Z13" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -8930,12 +8942,12 @@
         <v>111</v>
       </c>
       <c r="Z14" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -9010,12 +9022,12 @@
         <v>111</v>
       </c>
       <c r="Z15" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -9090,12 +9102,12 @@
         <v>111</v>
       </c>
       <c r="Z16" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -9170,12 +9182,12 @@
         <v>111</v>
       </c>
       <c r="Z17" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -9255,7 +9267,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -9335,7 +9347,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9410,12 +9422,12 @@
         <v>111</v>
       </c>
       <c r="Z20" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -9490,7 +9502,7 @@
         <v>111</v>
       </c>
       <c r="Z21" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -9509,78 +9521,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="E1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="J1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="N1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="O1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="P1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="Q1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="R1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="S1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="T1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="U1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="V1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="W1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="X1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9654,7 +9666,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -9728,7 +9740,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -9797,12 +9809,12 @@
         <v>111</v>
       </c>
       <c r="X4" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -9876,7 +9888,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -9950,7 +9962,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10019,12 +10031,12 @@
         <v>111</v>
       </c>
       <c r="X7" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10093,12 +10105,12 @@
         <v>111</v>
       </c>
       <c r="X8" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10172,7 +10184,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -10241,12 +10253,12 @@
         <v>76</v>
       </c>
       <c r="X10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10315,12 +10327,12 @@
         <v>111</v>
       </c>
       <c r="X11" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10394,7 +10406,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -10468,7 +10480,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -10537,12 +10549,12 @@
         <v>111</v>
       </c>
       <c r="X14" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -10616,7 +10628,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -10690,7 +10702,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -10764,7 +10776,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -10833,12 +10845,12 @@
         <v>111</v>
       </c>
       <c r="X18" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -10926,78 +10938,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="E1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="I1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="J1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="N1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="O1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="P1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="Q1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="R1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="S1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="T1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="U1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="V1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="W1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="X1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11066,12 +11078,12 @@
         <v>76</v>
       </c>
       <c r="X2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11145,7 +11157,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -11219,7 +11231,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -11293,7 +11305,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11367,7 +11379,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11436,12 +11448,12 @@
         <v>76</v>
       </c>
       <c r="X7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -11515,7 +11527,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -11589,7 +11601,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -11663,7 +11675,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -11737,7 +11749,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -11811,7 +11823,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -11885,7 +11897,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -11954,12 +11966,12 @@
         <v>76</v>
       </c>
       <c r="X14" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -12028,12 +12040,12 @@
         <v>76</v>
       </c>
       <c r="X15" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12107,7 +12119,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12176,12 +12188,12 @@
         <v>76</v>
       </c>
       <c r="X17" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12250,12 +12262,12 @@
         <v>76</v>
       </c>
       <c r="X18" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12343,60 +12355,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="I1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="J1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="K1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="N1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="O1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="P1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="Q1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="R1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12452,7 +12464,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -12508,7 +12520,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -12564,7 +12576,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12620,7 +12632,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -12676,7 +12688,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -12732,7 +12744,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -12788,7 +12800,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -12844,7 +12856,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -12900,7 +12912,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -12956,7 +12968,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -13007,12 +13019,12 @@
         <v>110</v>
       </c>
       <c r="R12" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -13063,7 +13075,7 @@
         <v>110</v>
       </c>
       <c r="R13" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -13082,54 +13094,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="I1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="K1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="N1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="O1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13156,7 +13168,7 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
@@ -13171,15 +13183,15 @@
         <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13203,7 +13215,7 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>30</v>
@@ -13221,15 +13233,15 @@
         <v>32</v>
       </c>
       <c r="O3" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13271,7 +13283,7 @@
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
@@ -13279,7 +13291,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13309,7 +13321,7 @@
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
         <v>32</v>
@@ -13321,15 +13333,15 @@
         <v>33</v>
       </c>
       <c r="O5" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -13338,7 +13350,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -13371,15 +13383,15 @@
         <v>32</v>
       </c>
       <c r="O6" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -13421,7 +13433,7 @@
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
         <v>30</v>
@@ -13429,7 +13441,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -13447,7 +13459,7 @@
         <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -13471,15 +13483,15 @@
         <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>116</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -13521,7 +13533,7 @@
         <v>30</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
         <v>30</v>
@@ -13529,7 +13541,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -13571,15 +13583,15 @@
         <v>31</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -13621,10 +13633,10 @@
         <v>33</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -13643,54 +13655,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="F1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="G1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="J1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="K1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="M1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="N1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="O1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="P1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13726,21 +13738,21 @@
         <v>34</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13764,7 +13776,7 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>31</v>
@@ -13782,15 +13794,15 @@
         <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -13832,15 +13844,15 @@
         <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>301</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13867,7 +13879,7 @@
         <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
@@ -13882,15 +13894,15 @@
         <v>34</v>
       </c>
       <c r="O5" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -13911,7 +13923,7 @@
         <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
         <v>29</v>
@@ -13932,18 +13944,18 @@
         <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>301</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -13973,24 +13985,24 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
         <v>31</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O7" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14032,15 +14044,15 @@
         <v>33</v>
       </c>
       <c r="O8" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -14082,15 +14094,15 @@
         <v>33</v>
       </c>
       <c r="O9" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14132,15 +14144,15 @@
         <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -14149,7 +14161,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -14182,10 +14194,10 @@
         <v>33</v>
       </c>
       <c r="O11" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -14204,54 +14216,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="E1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="F1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="G1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="H1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="I1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="J1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="L1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="M1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="N1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="O1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="P1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14278,30 +14290,30 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -14343,15 +14355,15 @@
         <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P3" t="s">
-        <v>413</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -14393,15 +14405,15 @@
         <v>31</v>
       </c>
       <c r="O4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -14431,7 +14443,7 @@
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
         <v>30</v>
@@ -14443,15 +14455,15 @@
         <v>31</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14460,7 +14472,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -14493,15 +14505,15 @@
         <v>31</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -14543,7 +14555,7 @@
         <v>30</v>
       </c>
       <c r="O7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P7" t="s">
         <v>30</v>
@@ -14551,7 +14563,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -14569,7 +14581,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -14593,7 +14605,7 @@
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P8" t="s">
         <v>30</v>
@@ -14601,13 +14613,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -14643,15 +14655,15 @@
         <v>32</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14687,21 +14699,21 @@
         <v>30</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -14743,10 +14755,10 @@
         <v>31</v>
       </c>
       <c r="O11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -16182,84 +16194,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="G1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="H1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="I1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="J1" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K1" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="L1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M1" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="N1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="O1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="P1" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="Q1" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="R1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="S1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="T1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="U1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="V1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="W1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="X1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="Y1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="Z1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16339,7 +16351,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -16414,12 +16426,12 @@
         <v>111</v>
       </c>
       <c r="Z3" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16494,12 +16506,12 @@
         <v>111</v>
       </c>
       <c r="Z4" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -16579,7 +16591,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -16659,7 +16671,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -16734,12 +16746,12 @@
         <v>110</v>
       </c>
       <c r="Z7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -16814,12 +16826,12 @@
         <v>110</v>
       </c>
       <c r="Z8" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -16899,7 +16911,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -16974,12 +16986,12 @@
         <v>110</v>
       </c>
       <c r="Z10" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17059,7 +17071,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -17134,12 +17146,12 @@
         <v>111</v>
       </c>
       <c r="Z12" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17219,7 +17231,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17288,18 +17300,18 @@
         <v>36</v>
       </c>
       <c r="X14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y14" t="s">
         <v>110</v>
       </c>
       <c r="Z14" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17379,7 +17391,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17459,7 +17471,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -17534,12 +17546,12 @@
         <v>111</v>
       </c>
       <c r="Z17" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -17619,7 +17631,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -17699,7 +17711,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -17779,7 +17791,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -17873,90 +17885,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C1" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="E1" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="F1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="G1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="H1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="I1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="J1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="L1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="M1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="N1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="O1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="P1" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="Q1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="R1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="S1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="T1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="U1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="V1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="W1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="X1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="Y1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="Z1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="AA1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="AB1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18034,15 +18046,15 @@
         <v>34</v>
       </c>
       <c r="AA2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB2" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18120,15 +18132,15 @@
         <v>33</v>
       </c>
       <c r="AA3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18206,15 +18218,15 @@
         <v>35</v>
       </c>
       <c r="AA4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB4" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18292,15 +18304,15 @@
         <v>32</v>
       </c>
       <c r="AA5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18378,15 +18390,15 @@
         <v>35</v>
       </c>
       <c r="AA6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB6" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -18464,15 +18476,15 @@
         <v>35</v>
       </c>
       <c r="AA7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB7" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -18547,18 +18559,18 @@
         <v>33</v>
       </c>
       <c r="Z8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -18636,15 +18648,15 @@
         <v>37</v>
       </c>
       <c r="AA9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB9" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -18722,15 +18734,15 @@
         <v>34</v>
       </c>
       <c r="AA10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB10" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -18808,15 +18820,15 @@
         <v>32</v>
       </c>
       <c r="AA11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB11" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -18894,15 +18906,15 @@
         <v>35</v>
       </c>
       <c r="AA12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB12" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -18980,15 +18992,15 @@
         <v>33</v>
       </c>
       <c r="AA13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19066,7 +19078,7 @@
         <v>31</v>
       </c>
       <c r="AA14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB14" t="s">
         <v>222</v>
@@ -19074,7 +19086,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -19152,15 +19164,15 @@
         <v>35</v>
       </c>
       <c r="AA15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -19238,7 +19250,7 @@
         <v>31</v>
       </c>
       <c r="AA16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB16" t="s">
         <v>222</v>
@@ -19246,7 +19258,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -19324,15 +19336,15 @@
         <v>32</v>
       </c>
       <c r="AA17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB17" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -19410,15 +19422,15 @@
         <v>38</v>
       </c>
       <c r="AA18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB18" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -19496,15 +19508,15 @@
         <v>35</v>
       </c>
       <c r="AA19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB19" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -19582,15 +19594,15 @@
         <v>33</v>
       </c>
       <c r="AA20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -19668,15 +19680,15 @@
         <v>35</v>
       </c>
       <c r="AA21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB21" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -19754,15 +19766,15 @@
         <v>33</v>
       </c>
       <c r="AA22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -19840,10 +19852,10 @@
         <v>32</v>
       </c>
       <c r="AA23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AB23" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -19862,84 +19874,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="E1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="F1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="G1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="H1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="I1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="J1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="K1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="L1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="M1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="N1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="O1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="P1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="Q1" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="R1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="S1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="T1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="U1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="V1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="W1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="X1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="Y1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="Z1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20014,12 +20026,12 @@
         <v>111</v>
       </c>
       <c r="Z2" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20094,12 +20106,12 @@
         <v>111</v>
       </c>
       <c r="Z3" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -20174,12 +20186,12 @@
         <v>111</v>
       </c>
       <c r="Z4" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -20259,7 +20271,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -20334,12 +20346,12 @@
         <v>111</v>
       </c>
       <c r="Z6" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -20419,7 +20431,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20499,7 +20511,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20574,12 +20586,12 @@
         <v>111</v>
       </c>
       <c r="Z9" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20659,7 +20671,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -20734,12 +20746,12 @@
         <v>111</v>
       </c>
       <c r="Z11" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -20814,12 +20826,12 @@
         <v>111</v>
       </c>
       <c r="Z12" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -20899,7 +20911,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -20979,7 +20991,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21059,7 +21071,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21139,7 +21151,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21219,7 +21231,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21294,12 +21306,12 @@
         <v>111</v>
       </c>
       <c r="Z18" t="s">
-        <v>413</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -21374,12 +21386,12 @@
         <v>111</v>
       </c>
       <c r="Z19" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -21454,12 +21466,12 @@
         <v>111</v>
       </c>
       <c r="Z20" t="s">
-        <v>266</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -27112,7 +27124,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" t="s">
         <v>30</v>
@@ -27237,7 +27249,7 @@
         <v>31</v>
       </c>
       <c r="AC3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD3" t="s">
         <v>222</v>
@@ -27269,7 +27281,7 @@
         <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
@@ -27329,10 +27341,10 @@
         <v>31</v>
       </c>
       <c r="AC4" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AD4" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5">
@@ -27355,7 +27367,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
@@ -27412,19 +27424,19 @@
         <v>29</v>
       </c>
       <c r="Z5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA5" t="s">
         <v>33</v>
       </c>
       <c r="AB5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AD5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6">
@@ -27513,10 +27525,10 @@
         <v>31</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AD6" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
@@ -27599,16 +27611,16 @@
         <v>30</v>
       </c>
       <c r="AA7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AD7" t="s">
-        <v>30</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -27697,7 +27709,7 @@
         <v>30</v>
       </c>
       <c r="AC8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD8" t="s">
         <v>30</v>
@@ -27789,10 +27801,10 @@
         <v>33</v>
       </c>
       <c r="AC9" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AD9" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
@@ -27881,10 +27893,10 @@
         <v>31</v>
       </c>
       <c r="AC10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11">
@@ -27973,7 +27985,7 @@
         <v>30</v>
       </c>
       <c r="AC11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD11" t="s">
         <v>30</v>
@@ -28065,10 +28077,10 @@
         <v>34</v>
       </c>
       <c r="AC12" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AD12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13">
@@ -28121,7 +28133,7 @@
         <v>30</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R13" t="s">
         <v>29</v>
@@ -28157,7 +28169,7 @@
         <v>30</v>
       </c>
       <c r="AC13" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AD13" t="s">
         <v>30</v>
@@ -28249,7 +28261,7 @@
         <v>30</v>
       </c>
       <c r="AC14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD14" t="s">
         <v>30</v>
@@ -28272,7 +28284,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -28433,10 +28445,10 @@
         <v>31</v>
       </c>
       <c r="AC16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17">
@@ -28617,7 +28629,7 @@
         <v>30</v>
       </c>
       <c r="AC18" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AD18" t="s">
         <v>30</v>
@@ -28709,7 +28721,7 @@
         <v>30</v>
       </c>
       <c r="AC19" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AD19" t="s">
         <v>30</v>
@@ -28801,10 +28813,10 @@
         <v>33</v>
       </c>
       <c r="AC20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
@@ -28842,7 +28854,7 @@
         <v>30</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
         <v>29</v>
@@ -28893,7 +28905,7 @@
         <v>30</v>
       </c>
       <c r="AC21" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AD21" t="s">
         <v>30</v>
@@ -28985,10 +28997,10 @@
         <v>33</v>
       </c>
       <c r="AC22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
@@ -29077,10 +29089,10 @@
         <v>32</v>
       </c>
       <c r="AC23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD23" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -29169,10 +29181,10 @@
         <v>31</v>
       </c>
       <c r="AC24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
@@ -29231,7 +29243,7 @@
         <v>29</v>
       </c>
       <c r="S25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T25" t="s">
         <v>29</v>
@@ -29261,10 +29273,10 @@
         <v>31</v>
       </c>
       <c r="AC25" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="AD25" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -29283,96 +29295,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="R1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="T1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="V1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="W1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="X1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Y1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AB1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AC1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AD1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -29459,12 +29471,12 @@
         <v>219</v>
       </c>
       <c r="AD2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -29551,12 +29563,12 @@
         <v>219</v>
       </c>
       <c r="AD3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -29598,7 +29610,7 @@
         <v>30</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P4" t="s">
         <v>30</v>
@@ -29631,27 +29643,27 @@
         <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="s">
         <v>34</v>
       </c>
       <c r="AB4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="s">
         <v>219</v>
       </c>
       <c r="AD4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -29735,12 +29747,12 @@
         <v>219</v>
       </c>
       <c r="AD5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -29821,18 +29833,18 @@
         <v>32</v>
       </c>
       <c r="AB6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AC6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -29916,15 +29928,15 @@
         <v>33</v>
       </c>
       <c r="AC7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -29969,7 +29981,7 @@
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s">
         <v>29</v>
@@ -30011,12 +30023,12 @@
         <v>219</v>
       </c>
       <c r="AD8" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -30100,7 +30112,7 @@
         <v>31</v>
       </c>
       <c r="AC9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD9" t="s">
         <v>222</v>
@@ -30108,7 +30120,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -30195,12 +30207,12 @@
         <v>219</v>
       </c>
       <c r="AD10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -30239,7 +30251,7 @@
         <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" t="s">
         <v>30</v>
@@ -30292,7 +30304,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -30384,7 +30396,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -30471,12 +30483,12 @@
         <v>219</v>
       </c>
       <c r="AD13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -30568,7 +30580,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -30646,21 +30658,21 @@
         <v>32</v>
       </c>
       <c r="AA15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AC15" t="s">
         <v>219</v>
       </c>
       <c r="AD15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -30752,13 +30764,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -30839,12 +30851,12 @@
         <v>219</v>
       </c>
       <c r="AD17" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -30877,7 +30889,7 @@
         <v>29</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M18" t="s">
         <v>29</v>
@@ -30931,12 +30943,12 @@
         <v>219</v>
       </c>
       <c r="AD18" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -31023,12 +31035,12 @@
         <v>219</v>
       </c>
       <c r="AD19" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -31082,7 +31094,7 @@
         <v>29</v>
       </c>
       <c r="S20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T20" t="s">
         <v>29</v>
@@ -31120,7 +31132,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -31156,7 +31168,7 @@
         <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N21" t="s">
         <v>29</v>
@@ -31207,12 +31219,12 @@
         <v>219</v>
       </c>
       <c r="AD21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -31299,12 +31311,12 @@
         <v>219</v>
       </c>
       <c r="AD22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -31388,15 +31400,15 @@
         <v>32</v>
       </c>
       <c r="AC23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AD23" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -31459,7 +31471,7 @@
         <v>29</v>
       </c>
       <c r="V24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W24" t="s">
         <v>29</v>
@@ -31483,12 +31495,12 @@
         <v>219</v>
       </c>
       <c r="AD24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -31515,7 +31527,7 @@
         <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K25" t="s">
         <v>29</v>
@@ -31594,93 +31606,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="T1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="U1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="V1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="W1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="X1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Y1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Z1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AA1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AB1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AC1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -31710,7 +31722,7 @@
         <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -31746,7 +31758,7 @@
         <v>29</v>
       </c>
       <c r="W2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X2" t="s">
         <v>30</v>
@@ -31761,7 +31773,7 @@
         <v>30</v>
       </c>
       <c r="AB2" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="AC2" t="s">
         <v>30</v>
@@ -31769,7 +31781,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -31781,7 +31793,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -31850,15 +31862,15 @@
         <v>33</v>
       </c>
       <c r="AB3" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC3" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -31939,15 +31951,15 @@
         <v>35</v>
       </c>
       <c r="AB4" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="AC4" t="s">
-        <v>46</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -32028,15 +32040,15 @@
         <v>33</v>
       </c>
       <c r="AB5" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="AC5" t="s">
-        <v>44</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32117,15 +32129,15 @@
         <v>32</v>
       </c>
       <c r="AB6" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC6" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32185,7 +32197,7 @@
         <v>30</v>
       </c>
       <c r="U7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V7" t="s">
         <v>29</v>
@@ -32197,24 +32209,24 @@
         <v>29</v>
       </c>
       <c r="Y7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="s">
         <v>31</v>
       </c>
       <c r="AA7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB7" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="AC7" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -32295,15 +32307,15 @@
         <v>31</v>
       </c>
       <c r="AB8" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="AC8" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -32384,7 +32396,7 @@
         <v>30</v>
       </c>
       <c r="AB9" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC9" t="s">
         <v>30</v>
@@ -32392,7 +32404,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -32473,15 +32485,15 @@
         <v>31</v>
       </c>
       <c r="AB10" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC10" t="s">
-        <v>116</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -32562,15 +32574,15 @@
         <v>33</v>
       </c>
       <c r="AB11" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="AC11" t="s">
-        <v>44</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -32654,12 +32666,12 @@
         <v>39</v>
       </c>
       <c r="AC12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -32725,7 +32737,7 @@
         <v>29</v>
       </c>
       <c r="W13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X13" t="s">
         <v>29</v>
@@ -32740,15 +32752,15 @@
         <v>35</v>
       </c>
       <c r="AB13" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC13" t="s">
-        <v>301</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -32769,7 +32781,7 @@
         <v>29</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
         <v>30</v>
@@ -32829,15 +32841,15 @@
         <v>34</v>
       </c>
       <c r="AB14" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC14" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -32882,7 +32894,7 @@
         <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q15" t="s">
         <v>29</v>
@@ -32918,15 +32930,15 @@
         <v>33</v>
       </c>
       <c r="AB15" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="AC15" t="s">
-        <v>44</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -33007,15 +33019,15 @@
         <v>32</v>
       </c>
       <c r="AB16" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="AC16" t="s">
-        <v>43</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -33078,7 +33090,7 @@
         <v>29</v>
       </c>
       <c r="V17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W17" t="s">
         <v>30</v>
@@ -33096,15 +33108,15 @@
         <v>32</v>
       </c>
       <c r="AB17" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC17" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -33119,7 +33131,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
         <v>29</v>
@@ -33185,15 +33197,15 @@
         <v>34</v>
       </c>
       <c r="AB18" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC18" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -33217,7 +33229,7 @@
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
         <v>29</v>
@@ -33274,15 +33286,15 @@
         <v>32</v>
       </c>
       <c r="AB19" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC19" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -33291,7 +33303,7 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -33363,15 +33375,15 @@
         <v>32</v>
       </c>
       <c r="AB20" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC20" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -33446,21 +33458,21 @@
         <v>31</v>
       </c>
       <c r="Z21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB21" t="s">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="AC21" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -33541,15 +33553,15 @@
         <v>35</v>
       </c>
       <c r="AB22" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC22" t="s">
-        <v>301</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -33630,15 +33642,15 @@
         <v>32</v>
       </c>
       <c r="AB23" t="s">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="AC23" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -33665,7 +33677,7 @@
         <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K24" t="s">
         <v>29</v>
@@ -33719,10 +33731,10 @@
         <v>36</v>
       </c>
       <c r="AB24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC24" t="s">
-        <v>42</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -33741,84 +33753,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="I1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="J1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="R1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="S1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="T1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="U1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="V1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="W1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="X1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Y1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Z1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -33898,7 +33910,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -33978,7 +33990,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -34058,7 +34070,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34133,12 +34145,12 @@
         <v>110</v>
       </c>
       <c r="Z5" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -34218,7 +34230,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -34298,7 +34310,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34373,12 +34385,12 @@
         <v>110</v>
       </c>
       <c r="Z8" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34458,7 +34470,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -34533,12 +34545,12 @@
         <v>110</v>
       </c>
       <c r="Z10" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -34618,7 +34630,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -34698,7 +34710,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -34778,7 +34790,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -34853,12 +34865,12 @@
         <v>110</v>
       </c>
       <c r="Z14" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -34938,7 +34950,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -35018,7 +35030,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -35093,12 +35105,12 @@
         <v>110</v>
       </c>
       <c r="Z17" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35178,7 +35190,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -35258,7 +35270,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -35338,7 +35350,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -35413,7 +35425,7 @@
         <v>110</v>
       </c>
       <c r="Z21" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/RedTotalsV2.xlsx
+++ b/RedTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="679">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -695,1372 +695,1381 @@
     <t>Sheffield Weds</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
+    <t>0.1053</t>
+  </si>
+  <si>
+    <t>0.2381</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.2857</t>
+  </si>
+  <si>
+    <t>0.0526</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol.Rvs</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley.Town</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Forest.Green</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Leyton.Orient</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Newport.County</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Port.Vale</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>e3_hrtotals</t>
+  </si>
+  <si>
+    <t>e3_artotals</t>
+  </si>
+  <si>
+    <t>e3_totalreds</t>
+  </si>
+  <si>
+    <t>e3_games_played</t>
+  </si>
+  <si>
+    <t>e3_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0.2105</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.4211</t>
+  </si>
+  <si>
+    <t>0.1579</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.2632</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham.Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag.and.Red</t>
+  </si>
+  <si>
+    <t>Dover.Athletic</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Kings.Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Notts.County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>ec_hrtotals</t>
+  </si>
+  <si>
+    <t>ec_artotals</t>
+  </si>
+  <si>
+    <t>ec_totalreds</t>
+  </si>
+  <si>
+    <t>ec_games_played</t>
+  </si>
+  <si>
+    <t>ec_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>0.15</t>
+    <t>0.2222</t>
+  </si>
+  <si>
+    <t>0.0588</t>
+  </si>
+  <si>
+    <t>0.1667</t>
   </si>
   <si>
     <t>0.1111</t>
   </si>
   <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.0526</t>
-  </si>
-  <si>
-    <t>0.1053</t>
-  </si>
-  <si>
-    <t>0.1579</t>
-  </si>
-  <si>
-    <t>0.2632</t>
-  </si>
-  <si>
-    <t>0.0556</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol.Rvs</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Crawley.Town</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Forest.Green</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Leyton.Orient</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Newport.County</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Port.Vale</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>e3_hrtotals</t>
-  </si>
-  <si>
-    <t>e3_artotals</t>
-  </si>
-  <si>
-    <t>e3_totalreds</t>
-  </si>
-  <si>
-    <t>e3_games_played</t>
-  </si>
-  <si>
-    <t>e3_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>0.2778</t>
+  </si>
+  <si>
+    <t>0.4706</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hrtotals</t>
+  </si>
+  <si>
+    <t>f1_artotals</t>
+  </si>
+  <si>
+    <t>f1_totalreds</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hrtotals</t>
+  </si>
+  <si>
+    <t>f2_artotals</t>
+  </si>
+  <si>
+    <t>f2_totalreds</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hrtotals</t>
+  </si>
+  <si>
+    <t>g1_artotals</t>
+  </si>
+  <si>
+    <t>g1_totalreds</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
+    <t>0.3333</t>
+  </si>
+  <si>
+    <t>0.4167</t>
+  </si>
+  <si>
+    <t>0.0833</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hrtotals</t>
+  </si>
+  <si>
+    <t>i1_artotals</t>
+  </si>
+  <si>
+    <t>i1_totalreds</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hrtotals</t>
+  </si>
+  <si>
+    <t>i2_artotals</t>
+  </si>
+  <si>
+    <t>i2_totalreds</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hrtotals</t>
+  </si>
+  <si>
+    <t>n1_artotals</t>
+  </si>
+  <si>
+    <t>n1_totalreds</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.2667</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hrtotals</t>
+  </si>
+  <si>
+    <t>p1_artotals</t>
+  </si>
+  <si>
+    <t>p1_totalreds</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>0.3846</t>
+  </si>
+  <si>
+    <t>0.1538</t>
+  </si>
+  <si>
+    <t>0.3077</t>
+  </si>
+  <si>
+    <t>0.2308</t>
+  </si>
+  <si>
+    <t>0.4615</t>
+  </si>
+  <si>
+    <t>0.5385</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Dundee.United</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Ross.County</t>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+  </si>
+  <si>
+    <t>sc0_hrtotals</t>
+  </si>
+  <si>
+    <t>sc0_artotals</t>
+  </si>
+  <si>
+    <t>sc0_totalreds</t>
+  </si>
+  <si>
+    <t>sc0_games_played</t>
+  </si>
+  <si>
+    <t>sc0_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>Arbroath</t>
+  </si>
+  <si>
+    <t>Ayr</t>
+  </si>
+  <si>
+    <t>Dunfermline</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Inverness.C</t>
+  </si>
+  <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Morton</t>
+  </si>
+  <si>
+    <t>Partick</t>
+  </si>
+  <si>
+    <t>Queen.of.Sth</t>
+  </si>
+  <si>
+    <t>Raith.Rvs</t>
+  </si>
+  <si>
+    <t>sc1_hrtotals</t>
+  </si>
+  <si>
+    <t>sc1_artotals</t>
+  </si>
+  <si>
+    <t>sc1_totalreds</t>
+  </si>
+  <si>
+    <t>sc1_games_played</t>
+  </si>
+  <si>
+    <t>sc1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Inverness C</t>
+  </si>
+  <si>
+    <t>Queen of Sth</t>
+  </si>
+  <si>
+    <t>Raith Rvs</t>
+  </si>
+  <si>
+    <t>Airdrie.Utd</t>
+  </si>
+  <si>
+    <t>Alloa</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Cove.Rangers</t>
+  </si>
+  <si>
+    <t>Dumbarton</t>
+  </si>
+  <si>
+    <t>East.Fife</t>
+  </si>
+  <si>
+    <t>Falkirk</t>
+  </si>
+  <si>
+    <t>Montrose</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
+    <t>Queens.Park</t>
+  </si>
+  <si>
+    <t>sc2_hrtotals</t>
+  </si>
+  <si>
+    <t>sc2_artotals</t>
+  </si>
+  <si>
+    <t>sc2_totalreds</t>
+  </si>
+  <si>
+    <t>sc2_games_played</t>
+  </si>
+  <si>
+    <t>sc2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>East Fife</t>
+  </si>
+  <si>
+    <t>Queens Park</t>
+  </si>
+  <si>
+    <t>0.4375</t>
+  </si>
+  <si>
+    <t>Albion.Rvs</t>
+  </si>
+  <si>
+    <t>Annan.Athletic</t>
+  </si>
+  <si>
+    <t>Cowdenbeath</t>
+  </si>
+  <si>
+    <t>Edinburgh.City</t>
+  </si>
+  <si>
+    <t>Elgin</t>
+  </si>
+  <si>
+    <t>Forfar</t>
+  </si>
+  <si>
+    <t>Kelty.Hearts</t>
+  </si>
+  <si>
+    <t>Stenhousemuir</t>
+  </si>
+  <si>
+    <t>Stirling</t>
+  </si>
+  <si>
+    <t>Stranraer</t>
+  </si>
+  <si>
+    <t>sc3_hrtotals</t>
+  </si>
+  <si>
+    <t>sc3_artotals</t>
+  </si>
+  <si>
+    <t>sc3_totalreds</t>
+  </si>
+  <si>
+    <t>sc3_games_played</t>
+  </si>
+  <si>
+    <t>sc3_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Albion Rvs</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
+  </si>
+  <si>
+    <t>Edinburgh City</t>
+  </si>
+  <si>
+    <t>Kelty Hearts</t>
+  </si>
+  <si>
+    <t>Alaves</t>
+  </si>
+  <si>
+    <t>Ath.Bilbao</t>
+  </si>
+  <si>
+    <t>Ath.Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Betis</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>Celta</t>
+  </si>
+  <si>
+    <t>Elche</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Levante</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Osasuna</t>
+  </si>
+  <si>
+    <t>Real.Madrid</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Sociedad</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Vallecano</t>
+  </si>
+  <si>
+    <t>Villarreal</t>
+  </si>
+  <si>
+    <t>sp1_hrtotals</t>
+  </si>
+  <si>
+    <t>sp1_artotals</t>
+  </si>
+  <si>
+    <t>sp1_totalreds</t>
+  </si>
+  <si>
+    <t>sp1_games_played</t>
+  </si>
+  <si>
+    <t>sp1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Ath Bilbao</t>
+  </si>
+  <si>
+    <t>Ath Madrid</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Alcorcon</t>
+  </si>
+  <si>
+    <t>Almeria</t>
+  </si>
+  <si>
+    <t>Amorebieta</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Eibar</t>
+  </si>
+  <si>
+    <t>Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Girona</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Ibiza</t>
+  </si>
+  <si>
+    <t>Las.Palmas</t>
+  </si>
+  <si>
+    <t>Leganes</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>Mirandes</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>Ponferradina</t>
+  </si>
+  <si>
+    <t>Sociedad.B</t>
+  </si>
+  <si>
+    <t>Sp.Gijon</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>Valladolid</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>sp2_hrtotals</t>
+  </si>
+  <si>
+    <t>sp2_artotals</t>
+  </si>
+  <si>
+    <t>sp2_totalreds</t>
+  </si>
+  <si>
+    <t>sp2_games_played</t>
+  </si>
+  <si>
+    <t>sp2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Sociedad B</t>
+  </si>
+  <si>
+    <t>Sp Gijon</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>0.2105</t>
+    <t>0.3158</t>
   </si>
   <si>
     <t>0.5263</t>
   </si>
   <si>
-    <t>0.4444</t>
-  </si>
-  <si>
-    <t>0.1667</t>
-  </si>
-  <si>
-    <t>0.3158</t>
-  </si>
-  <si>
-    <t>0.2222</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham.Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag.and.Red</t>
-  </si>
-  <si>
-    <t>Dover.Athletic</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Kings.Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Notts.County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>ec_hrtotals</t>
-  </si>
-  <si>
-    <t>ec_artotals</t>
-  </si>
-  <si>
-    <t>ec_totalreds</t>
-  </si>
-  <si>
-    <t>ec_games_played</t>
-  </si>
-  <si>
-    <t>ec_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>0.0588</t>
-  </si>
-  <si>
-    <t>0.2778</t>
-  </si>
-  <si>
-    <t>0.4706</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hrtotals</t>
-  </si>
-  <si>
-    <t>f1_artotals</t>
-  </si>
-  <si>
-    <t>f1_totalreds</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hrtotals</t>
-  </si>
-  <si>
-    <t>f2_artotals</t>
-  </si>
-  <si>
-    <t>f2_totalreds</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hrtotals</t>
-  </si>
-  <si>
-    <t>g1_artotals</t>
-  </si>
-  <si>
-    <t>g1_totalreds</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>0.3333</t>
-  </si>
-  <si>
-    <t>0.4167</t>
-  </si>
-  <si>
-    <t>0.0833</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hrtotals</t>
-  </si>
-  <si>
-    <t>i1_artotals</t>
-  </si>
-  <si>
-    <t>i1_totalreds</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hrtotals</t>
-  </si>
-  <si>
-    <t>i2_artotals</t>
-  </si>
-  <si>
-    <t>i2_totalreds</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hrtotals</t>
-  </si>
-  <si>
-    <t>n1_artotals</t>
-  </si>
-  <si>
-    <t>n1_totalreds</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.2667</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hrtotals</t>
-  </si>
-  <si>
-    <t>p1_artotals</t>
-  </si>
-  <si>
-    <t>p1_totalreds</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>0.3846</t>
-  </si>
-  <si>
-    <t>0.1538</t>
-  </si>
-  <si>
-    <t>0.3077</t>
-  </si>
-  <si>
-    <t>0.2308</t>
-  </si>
-  <si>
-    <t>0.4615</t>
-  </si>
-  <si>
-    <t>0.5385</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Dundee.United</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Ross.County</t>
-  </si>
-  <si>
-    <t>St.Johnstone</t>
-  </si>
-  <si>
-    <t>St.Mirren</t>
-  </si>
-  <si>
-    <t>sc0_hrtotals</t>
-  </si>
-  <si>
-    <t>sc0_artotals</t>
-  </si>
-  <si>
-    <t>sc0_totalreds</t>
-  </si>
-  <si>
-    <t>sc0_games_played</t>
-  </si>
-  <si>
-    <t>sc0_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>Arbroath</t>
-  </si>
-  <si>
-    <t>Ayr</t>
-  </si>
-  <si>
-    <t>Dunfermline</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Inverness.C</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Morton</t>
-  </si>
-  <si>
-    <t>Partick</t>
-  </si>
-  <si>
-    <t>Queen.of.Sth</t>
-  </si>
-  <si>
-    <t>Raith.Rvs</t>
-  </si>
-  <si>
-    <t>sc1_hrtotals</t>
-  </si>
-  <si>
-    <t>sc1_artotals</t>
-  </si>
-  <si>
-    <t>sc1_totalreds</t>
-  </si>
-  <si>
-    <t>sc1_games_played</t>
-  </si>
-  <si>
-    <t>sc1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Inverness C</t>
-  </si>
-  <si>
-    <t>Queen of Sth</t>
-  </si>
-  <si>
-    <t>Raith Rvs</t>
-  </si>
-  <si>
-    <t>Airdrie.Utd</t>
-  </si>
-  <si>
-    <t>Alloa</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>Cove.Rangers</t>
-  </si>
-  <si>
-    <t>Dumbarton</t>
-  </si>
-  <si>
-    <t>East.Fife</t>
-  </si>
-  <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
-    <t>Montrose</t>
-  </si>
-  <si>
-    <t>Peterhead</t>
-  </si>
-  <si>
-    <t>Queens.Park</t>
-  </si>
-  <si>
-    <t>sc2_hrtotals</t>
-  </si>
-  <si>
-    <t>sc2_artotals</t>
-  </si>
-  <si>
-    <t>sc2_totalreds</t>
-  </si>
-  <si>
-    <t>sc2_games_played</t>
-  </si>
-  <si>
-    <t>sc2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Airdrie Utd</t>
-  </si>
-  <si>
-    <t>Cove Rangers</t>
-  </si>
-  <si>
-    <t>East Fife</t>
-  </si>
-  <si>
-    <t>Queens Park</t>
+    <t>Ad..Demirspor</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>Altay</t>
+  </si>
+  <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
+    <t>Besiktas</t>
+  </si>
+  <si>
+    <t>Buyuksehyr</t>
+  </si>
+  <si>
+    <t>Fenerbahce</t>
+  </si>
+  <si>
+    <t>Galatasaray</t>
+  </si>
+  <si>
+    <t>Gaziantep</t>
+  </si>
+  <si>
+    <t>Giresunspor</t>
+  </si>
+  <si>
+    <t>Goztep</t>
+  </si>
+  <si>
+    <t>Hatayspor</t>
+  </si>
+  <si>
+    <t>Karagumruk</t>
+  </si>
+  <si>
+    <t>Kasimpasa</t>
+  </si>
+  <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>Konyaspor</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
+    <t>Trabzonspor</t>
+  </si>
+  <si>
+    <t>Yeni.Malatyaspor</t>
+  </si>
+  <si>
+    <t>t1_hrtotals</t>
+  </si>
+  <si>
+    <t>t1_artotals</t>
+  </si>
+  <si>
+    <t>t1_totalreds</t>
+  </si>
+  <si>
+    <t>t1_games_played</t>
+  </si>
+  <si>
+    <t>t1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Ad. Demirspor</t>
+  </si>
+  <si>
+    <t>Yeni Malatyaspor</t>
+  </si>
+  <si>
+    <t>0.5333</t>
   </si>
   <si>
     <t>0.4667</t>
-  </si>
-  <si>
-    <t>Albion.Rvs</t>
-  </si>
-  <si>
-    <t>Annan.Athletic</t>
-  </si>
-  <si>
-    <t>Cowdenbeath</t>
-  </si>
-  <si>
-    <t>Edinburgh.City</t>
-  </si>
-  <si>
-    <t>Elgin</t>
-  </si>
-  <si>
-    <t>Forfar</t>
-  </si>
-  <si>
-    <t>Kelty.Hearts</t>
-  </si>
-  <si>
-    <t>Stenhousemuir</t>
-  </si>
-  <si>
-    <t>Stirling</t>
-  </si>
-  <si>
-    <t>Stranraer</t>
-  </si>
-  <si>
-    <t>sc3_hrtotals</t>
-  </si>
-  <si>
-    <t>sc3_artotals</t>
-  </si>
-  <si>
-    <t>sc3_totalreds</t>
-  </si>
-  <si>
-    <t>sc3_games_played</t>
-  </si>
-  <si>
-    <t>sc3_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Albion Rvs</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
-  </si>
-  <si>
-    <t>Edinburgh City</t>
-  </si>
-  <si>
-    <t>Kelty Hearts</t>
-  </si>
-  <si>
-    <t>Alaves</t>
-  </si>
-  <si>
-    <t>Ath.Bilbao</t>
-  </si>
-  <si>
-    <t>Ath.Madrid</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Betis</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>Celta</t>
-  </si>
-  <si>
-    <t>Elche</t>
-  </si>
-  <si>
-    <t>Espanol</t>
-  </si>
-  <si>
-    <t>Getafe</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>Levante</t>
-  </si>
-  <si>
-    <t>Mallorca</t>
-  </si>
-  <si>
-    <t>Osasuna</t>
-  </si>
-  <si>
-    <t>Real.Madrid</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Vallecano</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>sp1_hrtotals</t>
-  </si>
-  <si>
-    <t>sp1_artotals</t>
-  </si>
-  <si>
-    <t>sp1_totalreds</t>
-  </si>
-  <si>
-    <t>sp1_games_played</t>
-  </si>
-  <si>
-    <t>sp1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Ath Bilbao</t>
-  </si>
-  <si>
-    <t>Ath Madrid</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>Alcorcon</t>
-  </si>
-  <si>
-    <t>Almeria</t>
-  </si>
-  <si>
-    <t>Amorebieta</t>
-  </si>
-  <si>
-    <t>Burgos</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>Eibar</t>
-  </si>
-  <si>
-    <t>Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Huesca</t>
-  </si>
-  <si>
-    <t>Ibiza</t>
-  </si>
-  <si>
-    <t>Las.Palmas</t>
-  </si>
-  <si>
-    <t>Leganes</t>
-  </si>
-  <si>
-    <t>Lugo</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>Mirandes</t>
-  </si>
-  <si>
-    <t>Oviedo</t>
-  </si>
-  <si>
-    <t>Ponferradina</t>
-  </si>
-  <si>
-    <t>Sociedad.B</t>
-  </si>
-  <si>
-    <t>Sp.Gijon</t>
-  </si>
-  <si>
-    <t>Tenerife</t>
-  </si>
-  <si>
-    <t>Valladolid</t>
-  </si>
-  <si>
-    <t>Zaragoza</t>
-  </si>
-  <si>
-    <t>sp2_hrtotals</t>
-  </si>
-  <si>
-    <t>sp2_artotals</t>
-  </si>
-  <si>
-    <t>sp2_totalreds</t>
-  </si>
-  <si>
-    <t>sp2_games_played</t>
-  </si>
-  <si>
-    <t>sp2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Las Palmas</t>
-  </si>
-  <si>
-    <t>Sociedad B</t>
-  </si>
-  <si>
-    <t>Sp Gijon</t>
-  </si>
-  <si>
-    <t>0.4211</t>
-  </si>
-  <si>
-    <t>Ad..Demirspor</t>
-  </si>
-  <si>
-    <t>Alanyaspor</t>
-  </si>
-  <si>
-    <t>Altay</t>
-  </si>
-  <si>
-    <t>Antalyaspor</t>
-  </si>
-  <si>
-    <t>Besiktas</t>
-  </si>
-  <si>
-    <t>Buyuksehyr</t>
-  </si>
-  <si>
-    <t>Fenerbahce</t>
-  </si>
-  <si>
-    <t>Galatasaray</t>
-  </si>
-  <si>
-    <t>Gaziantep</t>
-  </si>
-  <si>
-    <t>Giresunspor</t>
-  </si>
-  <si>
-    <t>Goztep</t>
-  </si>
-  <si>
-    <t>Hatayspor</t>
-  </si>
-  <si>
-    <t>Karagumruk</t>
-  </si>
-  <si>
-    <t>Kasimpasa</t>
-  </si>
-  <si>
-    <t>Kayserispor</t>
-  </si>
-  <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
-    <t>Rizespor</t>
-  </si>
-  <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Trabzonspor</t>
-  </si>
-  <si>
-    <t>Yeni.Malatyaspor</t>
-  </si>
-  <si>
-    <t>t1_hrtotals</t>
-  </si>
-  <si>
-    <t>t1_artotals</t>
-  </si>
-  <si>
-    <t>t1_totalreds</t>
-  </si>
-  <si>
-    <t>t1_games_played</t>
-  </si>
-  <si>
-    <t>t1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Ad. Demirspor</t>
-  </si>
-  <si>
-    <t>Yeni Malatyaspor</t>
-  </si>
-  <si>
-    <t>0.5333</t>
   </si>
 </sst>
 </file>
@@ -3531,84 +3540,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="R1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="T1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="U1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="V1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="W1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="X1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -3688,7 +3697,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -3768,7 +3777,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -3848,7 +3857,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -3923,12 +3932,12 @@
         <v>39</v>
       </c>
       <c r="Z5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -4008,7 +4017,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -4088,7 +4097,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -4168,7 +4177,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4248,7 +4257,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -4328,7 +4337,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -4408,7 +4417,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4488,7 +4497,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -4563,12 +4572,12 @@
         <v>39</v>
       </c>
       <c r="Z13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4648,7 +4657,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -4728,7 +4737,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -4797,18 +4806,18 @@
         <v>33</v>
       </c>
       <c r="X16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Y16" t="s">
         <v>39</v>
       </c>
       <c r="Z16" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -4888,7 +4897,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -4968,7 +4977,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -5048,7 +5057,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -5128,7 +5137,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5222,66 +5231,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="S1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="T1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5335,7 +5344,7 @@
         <v>35</v>
       </c>
       <c r="S2" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T2" t="s">
         <v>112</v>
@@ -5343,7 +5352,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -5397,7 +5406,7 @@
         <v>33</v>
       </c>
       <c r="S3" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T3" t="s">
         <v>390</v>
@@ -5405,7 +5414,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5459,7 +5468,7 @@
         <v>34</v>
       </c>
       <c r="S4" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T4" t="s">
         <v>391</v>
@@ -5467,7 +5476,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -5521,15 +5530,15 @@
         <v>32</v>
       </c>
       <c r="S5" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T5" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -5583,7 +5592,7 @@
         <v>35</v>
       </c>
       <c r="S6" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T6" t="s">
         <v>112</v>
@@ -5591,7 +5600,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -5645,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="S7" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T7" t="s">
         <v>392</v>
@@ -5653,7 +5662,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -5707,7 +5716,7 @@
         <v>33</v>
       </c>
       <c r="S8" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T8" t="s">
         <v>390</v>
@@ -5715,7 +5724,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -5769,15 +5778,15 @@
         <v>32</v>
       </c>
       <c r="S9" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T9" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -5831,7 +5840,7 @@
         <v>31</v>
       </c>
       <c r="S10" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T10" t="s">
         <v>392</v>
@@ -5839,7 +5848,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -5893,7 +5902,7 @@
         <v>30</v>
       </c>
       <c r="S11" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T11" t="s">
         <v>30</v>
@@ -5901,7 +5910,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -5955,15 +5964,15 @@
         <v>32</v>
       </c>
       <c r="S12" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T12" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -6017,15 +6026,15 @@
         <v>32</v>
       </c>
       <c r="S13" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T13" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -6079,7 +6088,7 @@
         <v>30</v>
       </c>
       <c r="S14" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T14" t="s">
         <v>30</v>
@@ -6087,7 +6096,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -6141,7 +6150,7 @@
         <v>35</v>
       </c>
       <c r="S15" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="T15" t="s">
         <v>112</v>
@@ -6389,7 +6398,7 @@
         <v>31</v>
       </c>
       <c r="X3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Y3" t="s">
         <v>110</v>
@@ -6949,7 +6958,7 @@
         <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Y10" t="s">
         <v>110</v>
@@ -11173,10 +11182,10 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="X3" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4">
@@ -11765,7 +11774,7 @@
         <v>35</v>
       </c>
       <c r="W11" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="X11" t="s">
         <v>112</v>
@@ -12283,7 +12292,7 @@
         <v>33</v>
       </c>
       <c r="W18" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="X18" t="s">
         <v>390</v>
@@ -12357,10 +12366,10 @@
         <v>32</v>
       </c>
       <c r="W19" t="s">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="X19" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -12754,16 +12763,16 @@
         <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="Q7" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="R7" t="s">
-        <v>474</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8">
@@ -12786,7 +12795,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -12807,19 +12816,19 @@
         <v>30</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O8" t="s">
         <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="R8" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -13768,7 +13777,7 @@
         <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="P2" t="s">
         <v>569</v>
@@ -14079,7 +14088,7 @@
         <v>557</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -14118,10 +14127,10 @@
         <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -17324,7 +17333,7 @@
         <v>37</v>
       </c>
       <c r="X14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Y14" t="s">
         <v>110</v>
@@ -18070,10 +18079,10 @@
         <v>34</v>
       </c>
       <c r="AA2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB2" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
@@ -18156,10 +18165,10 @@
         <v>33</v>
       </c>
       <c r="AA3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4">
@@ -18242,10 +18251,10 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB4" t="s">
-        <v>273</v>
+        <v>648</v>
       </c>
     </row>
     <row r="5">
@@ -18328,10 +18337,10 @@
         <v>35</v>
       </c>
       <c r="AA5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB5" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
@@ -18414,10 +18423,10 @@
         <v>34</v>
       </c>
       <c r="AA6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB6" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7">
@@ -18500,10 +18509,10 @@
         <v>37</v>
       </c>
       <c r="AA7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB7" t="s">
-        <v>273</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8">
@@ -18583,13 +18592,13 @@
         <v>33</v>
       </c>
       <c r="Z8" t="s">
-        <v>268</v>
+        <v>647</v>
       </c>
       <c r="AA8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB8" t="s">
-        <v>270</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9">
@@ -18669,13 +18678,13 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AA9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB9" t="s">
-        <v>647</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
@@ -18758,10 +18767,10 @@
         <v>34</v>
       </c>
       <c r="AA10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB10" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11">
@@ -18844,10 +18853,10 @@
         <v>32</v>
       </c>
       <c r="AA11" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB11" t="s">
         <v>222</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="12">
@@ -18930,10 +18939,10 @@
         <v>34</v>
       </c>
       <c r="AA12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB12" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13">
@@ -19016,10 +19025,10 @@
         <v>35</v>
       </c>
       <c r="AA13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB13" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14">
@@ -19102,10 +19111,10 @@
         <v>32</v>
       </c>
       <c r="AA14" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB14" t="s">
         <v>222</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15">
@@ -19188,10 +19197,10 @@
         <v>37</v>
       </c>
       <c r="AA15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB15" t="s">
-        <v>273</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16">
@@ -19274,10 +19283,10 @@
         <v>32</v>
       </c>
       <c r="AA16" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB16" t="s">
         <v>222</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="17">
@@ -19360,10 +19369,10 @@
         <v>32</v>
       </c>
       <c r="AA17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB17" t="s">
         <v>222</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="18">
@@ -19443,13 +19452,13 @@
         <v>33</v>
       </c>
       <c r="Z18" t="s">
-        <v>268</v>
+        <v>647</v>
       </c>
       <c r="AA18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB18" t="s">
-        <v>270</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19">
@@ -19532,10 +19541,10 @@
         <v>33</v>
       </c>
       <c r="AA19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20">
@@ -19618,10 +19627,10 @@
         <v>35</v>
       </c>
       <c r="AA20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB20" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21">
@@ -19704,10 +19713,10 @@
         <v>34</v>
       </c>
       <c r="AA21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB21" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22">
@@ -19790,10 +19799,10 @@
         <v>34</v>
       </c>
       <c r="AA22" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB22" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23">
@@ -19876,10 +19885,10 @@
         <v>35</v>
       </c>
       <c r="AA23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AB23" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -19898,84 +19907,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="F1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="G1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="H1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="I1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="J1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="K1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="L1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="M1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="N1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="O1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="Q1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="R1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="S1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="T1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="U1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="V1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="W1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="X1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="Y1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="Z1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20055,7 +20064,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -20135,7 +20144,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -20215,7 +20224,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -20295,7 +20304,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -20375,7 +20384,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -20455,7 +20464,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20535,7 +20544,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20615,7 +20624,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20695,7 +20704,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -20775,7 +20784,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -20855,7 +20864,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -20935,7 +20944,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -21004,18 +21013,18 @@
         <v>37</v>
       </c>
       <c r="X14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Y14" t="s">
         <v>146</v>
       </c>
       <c r="Z14" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21095,7 +21104,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21175,7 +21184,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21255,7 +21264,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21335,7 +21344,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -21410,12 +21419,12 @@
         <v>146</v>
       </c>
       <c r="Z19" t="s">
-        <v>569</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -21495,7 +21504,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -27103,7 +27112,7 @@
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -27181,10 +27190,10 @@
         <v>35</v>
       </c>
       <c r="AC2" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD2" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -27273,10 +27282,10 @@
         <v>32</v>
       </c>
       <c r="AC3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4">
@@ -27359,16 +27368,16 @@
         <v>32</v>
       </c>
       <c r="AA4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC4" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD4" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -27457,10 +27466,10 @@
         <v>34</v>
       </c>
       <c r="AC5" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD5" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6">
@@ -27549,10 +27558,10 @@
         <v>31</v>
       </c>
       <c r="AC6" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD6" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
@@ -27593,7 +27602,7 @@
         <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N7" t="s">
         <v>29</v>
@@ -27641,10 +27650,10 @@
         <v>32</v>
       </c>
       <c r="AC7" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD7" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8">
@@ -27664,7 +27673,7 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
@@ -27733,10 +27742,10 @@
         <v>31</v>
       </c>
       <c r="AC8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9">
@@ -27780,7 +27789,7 @@
         <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O9" t="s">
         <v>30</v>
@@ -27816,19 +27825,19 @@
         <v>29</v>
       </c>
       <c r="Z9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA9" t="s">
         <v>32</v>
       </c>
       <c r="AB9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD9" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
@@ -27881,7 +27890,7 @@
         <v>30</v>
       </c>
       <c r="Q10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
         <v>29</v>
@@ -27917,10 +27926,10 @@
         <v>32</v>
       </c>
       <c r="AC10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
@@ -27934,7 +27943,7 @@
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>30</v>
@@ -28000,19 +28009,19 @@
         <v>30</v>
       </c>
       <c r="Z11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="s">
         <v>31</v>
       </c>
       <c r="AB11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -28095,16 +28104,16 @@
         <v>32</v>
       </c>
       <c r="AA12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AB12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD12" t="s">
-        <v>112</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
@@ -28193,7 +28202,7 @@
         <v>30</v>
       </c>
       <c r="AC13" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD13" t="s">
         <v>30</v>
@@ -28279,16 +28288,16 @@
         <v>30</v>
       </c>
       <c r="AA14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD14" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15">
@@ -28344,7 +28353,7 @@
         <v>29</v>
       </c>
       <c r="R15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S15" t="s">
         <v>30</v>
@@ -28377,10 +28386,10 @@
         <v>32</v>
       </c>
       <c r="AC15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16">
@@ -28469,10 +28478,10 @@
         <v>32</v>
       </c>
       <c r="AC16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -28561,7 +28570,7 @@
         <v>30</v>
       </c>
       <c r="AC17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD17" t="s">
         <v>30</v>
@@ -28653,7 +28662,7 @@
         <v>30</v>
       </c>
       <c r="AC18" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD18" t="s">
         <v>30</v>
@@ -28721,7 +28730,7 @@
         <v>29</v>
       </c>
       <c r="U19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="V19" t="s">
         <v>30</v>
@@ -28736,19 +28745,19 @@
         <v>29</v>
       </c>
       <c r="Z19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA19" t="s">
         <v>30</v>
       </c>
       <c r="AB19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC19" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD19" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -28786,7 +28795,7 @@
         <v>30</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M20" t="s">
         <v>29</v>
@@ -28828,19 +28837,19 @@
         <v>30</v>
       </c>
       <c r="Z20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA20" t="s">
         <v>30</v>
       </c>
       <c r="AB20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AC20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD20" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
@@ -28923,16 +28932,16 @@
         <v>30</v>
       </c>
       <c r="AA21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC21" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD21" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
@@ -29021,10 +29030,10 @@
         <v>34</v>
       </c>
       <c r="AC22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD22" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -29074,7 +29083,7 @@
         <v>29</v>
       </c>
       <c r="P23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q23" t="s">
         <v>30</v>
@@ -29113,10 +29122,10 @@
         <v>35</v>
       </c>
       <c r="AC23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD23" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24">
@@ -29184,7 +29193,7 @@
         <v>30</v>
       </c>
       <c r="V24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W24" t="s">
         <v>29</v>
@@ -29205,10 +29214,10 @@
         <v>31</v>
       </c>
       <c r="AC24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -29225,7 +29234,7 @@
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
         <v>29</v>
@@ -29297,10 +29306,10 @@
         <v>31</v>
       </c>
       <c r="AC25" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AD25" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -29319,96 +29328,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s">
         <v>232</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>234</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>235</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>236</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>237</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>238</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>239</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>240</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>241</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>242</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>243</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>244</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>245</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>246</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>247</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>248</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>249</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>250</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>251</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>252</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>253</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>254</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>255</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>256</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>257</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -29492,15 +29501,15 @@
         <v>33</v>
       </c>
       <c r="AC2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AD2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -29515,7 +29524,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -29584,15 +29593,15 @@
         <v>31</v>
       </c>
       <c r="AC3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -29640,7 +29649,7 @@
         <v>30</v>
       </c>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="R4" t="s">
         <v>29</v>
@@ -29667,24 +29676,24 @@
         <v>29</v>
       </c>
       <c r="Z4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD4" t="s">
         <v>267</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>268</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -29768,15 +29777,15 @@
         <v>34</v>
       </c>
       <c r="AC5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD5" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -29857,18 +29866,18 @@
         <v>32</v>
       </c>
       <c r="AB6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AC6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -29952,15 +29961,15 @@
         <v>35</v>
       </c>
       <c r="AC7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -30002,7 +30011,7 @@
         <v>30</v>
       </c>
       <c r="O8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s">
         <v>30</v>
@@ -30044,15 +30053,15 @@
         <v>33</v>
       </c>
       <c r="AC8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD8" t="s">
-        <v>269</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -30136,15 +30145,15 @@
         <v>35</v>
       </c>
       <c r="AC9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -30168,7 +30177,7 @@
         <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
         <v>29</v>
@@ -30228,15 +30237,15 @@
         <v>37</v>
       </c>
       <c r="AC10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -30287,7 +30296,7 @@
         <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S11" t="s">
         <v>29</v>
@@ -30320,15 +30329,15 @@
         <v>31</v>
       </c>
       <c r="AC11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -30394,7 +30403,7 @@
         <v>30</v>
       </c>
       <c r="W12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X12" t="s">
         <v>29</v>
@@ -30412,15 +30421,15 @@
         <v>32</v>
       </c>
       <c r="AC12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -30432,7 +30441,7 @@
         <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
         <v>29</v>
@@ -30504,15 +30513,15 @@
         <v>34</v>
       </c>
       <c r="AC13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD13" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -30575,7 +30584,7 @@
         <v>30</v>
       </c>
       <c r="V14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W14" t="s">
         <v>30</v>
@@ -30587,24 +30596,24 @@
         <v>30</v>
       </c>
       <c r="Z14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA14" t="s">
         <v>30</v>
       </c>
       <c r="AB14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -30688,15 +30697,15 @@
         <v>33</v>
       </c>
       <c r="AC15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD15" t="s">
-        <v>269</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -30765,7 +30774,7 @@
         <v>30</v>
       </c>
       <c r="X16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="s">
         <v>30</v>
@@ -30780,7 +30789,7 @@
         <v>30</v>
       </c>
       <c r="AC16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD16" t="s">
         <v>30</v>
@@ -30788,7 +30797,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -30866,21 +30875,21 @@
         <v>32</v>
       </c>
       <c r="AA17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AC17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -30964,15 +30973,15 @@
         <v>31</v>
       </c>
       <c r="AC18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -31056,15 +31065,15 @@
         <v>34</v>
       </c>
       <c r="AC19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AD19" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -31148,15 +31157,15 @@
         <v>32</v>
       </c>
       <c r="AC20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -31213,7 +31222,7 @@
         <v>29</v>
       </c>
       <c r="T21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U21" t="s">
         <v>29</v>
@@ -31240,15 +31249,15 @@
         <v>31</v>
       </c>
       <c r="AC21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD21" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -31326,21 +31335,21 @@
         <v>32</v>
       </c>
       <c r="AA22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD22" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -31424,15 +31433,15 @@
         <v>32</v>
       </c>
       <c r="AC23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -31516,15 +31525,15 @@
         <v>33</v>
       </c>
       <c r="AC24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD24" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -31542,7 +31551,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -31608,10 +31617,10 @@
         <v>35</v>
       </c>
       <c r="AC25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AD25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -31630,93 +31639,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" t="s">
         <v>275</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>276</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>277</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>278</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>279</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>280</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>281</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>282</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>283</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>284</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>285</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>286</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>287</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>288</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>289</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>290</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>291</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>292</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>293</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>294</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>295</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>296</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>297</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>298</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>299</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -31797,7 +31806,7 @@
         <v>30</v>
       </c>
       <c r="AB2" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="AC2" t="s">
         <v>30</v>
@@ -31805,7 +31814,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -31886,15 +31895,15 @@
         <v>33</v>
       </c>
       <c r="AB3" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="AC3" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -31975,15 +31984,15 @@
         <v>33</v>
       </c>
       <c r="AB4" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="AC4" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -32072,7 +32081,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32153,15 +32162,15 @@
         <v>33</v>
       </c>
       <c r="AB6" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="AC6" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32250,7 +32259,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -32331,96 +32340,96 @@
         <v>35</v>
       </c>
       <c r="AB8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC8" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" t="s">
+        <v>29</v>
+      </c>
+      <c r="V9" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB9" t="s">
         <v>305</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" t="s">
-        <v>29</v>
-      </c>
-      <c r="V9" t="s">
-        <v>29</v>
-      </c>
-      <c r="W9" t="s">
-        <v>30</v>
-      </c>
-      <c r="X9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>221</v>
       </c>
       <c r="AC9" t="s">
         <v>30</v>
@@ -32428,7 +32437,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -32517,7 +32526,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -32598,15 +32607,15 @@
         <v>33</v>
       </c>
       <c r="AB11" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="AC11" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -32690,12 +32699,12 @@
         <v>39</v>
       </c>
       <c r="AC12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -32784,7 +32793,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -32865,15 +32874,15 @@
         <v>34</v>
       </c>
       <c r="AB14" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC14" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -32954,15 +32963,15 @@
         <v>35</v>
       </c>
       <c r="AB15" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="AC15" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -33043,15 +33052,15 @@
         <v>33</v>
       </c>
       <c r="AB16" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="AC16" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -33090,7 +33099,7 @@
         <v>29</v>
       </c>
       <c r="N17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
         <v>29</v>
@@ -33132,15 +33141,15 @@
         <v>32</v>
       </c>
       <c r="AB17" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="AC17" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -33229,7 +33238,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -33310,15 +33319,15 @@
         <v>32</v>
       </c>
       <c r="AB19" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="AC19" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -33399,15 +33408,15 @@
         <v>35</v>
       </c>
       <c r="AB20" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="AC20" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -33488,15 +33497,15 @@
         <v>35</v>
       </c>
       <c r="AB21" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="AC21" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -33577,15 +33586,15 @@
         <v>34</v>
       </c>
       <c r="AB22" t="s">
-        <v>221</v>
+        <v>305</v>
       </c>
       <c r="AC22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -33666,15 +33675,15 @@
         <v>33</v>
       </c>
       <c r="AB23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AC23" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -33752,13 +33761,13 @@
         <v>37</v>
       </c>
       <c r="AA24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AB24" t="s">
         <v>39</v>
       </c>
       <c r="AC24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -33777,84 +33786,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="R1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="S1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="U1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="V1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="W1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="X1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -33934,7 +33943,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -34014,7 +34023,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -34094,7 +34103,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34174,7 +34183,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -34254,7 +34263,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -34334,7 +34343,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34414,7 +34423,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34494,7 +34503,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -34574,7 +34583,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -34654,7 +34663,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -34734,7 +34743,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -34814,7 +34823,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -34894,7 +34903,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -34974,7 +34983,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -35054,7 +35063,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -35134,7 +35143,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35214,7 +35223,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -35294,7 +35303,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -35374,7 +35383,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>

--- a/RedTotalsV2.xlsx
+++ b/RedTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="686">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -1589,12 +1589,12 @@
     <t>Sp Lisbon</t>
   </si>
   <si>
+    <t>0.3571</t>
+  </si>
+  <si>
     <t>0.4286</t>
   </si>
   <si>
-    <t>0.3571</t>
-  </si>
-  <si>
     <t>Aberdeen</t>
   </si>
   <si>
@@ -2090,13 +2090,7 @@
     <t>Yeni Malatyaspor</t>
   </si>
   <si>
-    <t>0.2667</t>
-  </si>
-  <si>
     <t>0.5625</t>
-  </si>
-  <si>
-    <t>0.4667</t>
   </si>
 </sst>
 </file>
@@ -4996,10 +4990,10 @@
         <v>34</v>
       </c>
       <c r="Y18" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -5135,7 +5129,7 @@
         <v>29</v>
       </c>
       <c r="R20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S20" t="s">
         <v>30</v>
@@ -5156,10 +5150,10 @@
         <v>34</v>
       </c>
       <c r="Y20" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
@@ -7204,7 +7198,7 @@
         <v>30</v>
       </c>
       <c r="Q13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R13" t="s">
         <v>30</v>
@@ -7219,19 +7213,19 @@
         <v>29</v>
       </c>
       <c r="V13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W13" t="s">
         <v>30</v>
       </c>
       <c r="X13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="Z13" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
@@ -7542,16 +7536,16 @@
         <v>30</v>
       </c>
       <c r="W17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="Z17" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
@@ -11123,7 +11117,7 @@
         <v>31</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T2" t="s">
         <v>31</v>
@@ -11135,10 +11129,10 @@
         <v>36</v>
       </c>
       <c r="W2" t="s">
-        <v>399</v>
+        <v>149</v>
       </c>
       <c r="X2" t="s">
-        <v>401</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3">
@@ -11508,7 +11502,7 @@
         <v>149</v>
       </c>
       <c r="X7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8">
@@ -11730,7 +11724,7 @@
         <v>149</v>
       </c>
       <c r="X10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11">
@@ -12026,7 +12020,7 @@
         <v>149</v>
       </c>
       <c r="X14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="15">
@@ -12393,10 +12387,10 @@
         <v>32</v>
       </c>
       <c r="W19" t="s">
-        <v>271</v>
+        <v>399</v>
       </c>
       <c r="X19" t="s">
-        <v>43</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -16764,7 +16758,7 @@
         <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
@@ -16794,19 +16788,19 @@
         <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W7" t="s">
         <v>30</v>
       </c>
       <c r="X7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y7" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="Z7" t="s">
-        <v>272</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
@@ -17197,16 +17191,16 @@
         <v>32</v>
       </c>
       <c r="W12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="Z12" t="s">
-        <v>47</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13">
@@ -19286,7 +19280,7 @@
         <v>29</v>
       </c>
       <c r="S16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T16" t="s">
         <v>29</v>
@@ -19310,10 +19304,10 @@
         <v>32</v>
       </c>
       <c r="AA16" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="AB16" t="s">
-        <v>316</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17">
@@ -19568,10 +19562,10 @@
         <v>34</v>
       </c>
       <c r="AA19" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="AB19" t="s">
-        <v>312</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -20563,10 +20557,10 @@
         <v>33</v>
       </c>
       <c r="Y8" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="Z8" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -20643,10 +20637,10 @@
         <v>34</v>
       </c>
       <c r="Y9" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="Z9" t="s">
-        <v>685</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10">
@@ -20672,7 +20666,7 @@
         <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
         <v>29</v>
@@ -20723,10 +20717,10 @@
         <v>33</v>
       </c>
       <c r="Y10" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="Z10" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11">
@@ -21046,7 +21040,7 @@
         <v>148</v>
       </c>
       <c r="Z14" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15">
@@ -21395,7 +21389,7 @@
         <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
         <v>30</v>
@@ -21443,10 +21437,10 @@
         <v>38</v>
       </c>
       <c r="Y19" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="Z19" t="s">
-        <v>687</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20">

--- a/RedTotalsV2.xlsx
+++ b/RedTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="688">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -644,117 +644,117 @@
     <t>0.0952</t>
   </si>
   <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>AFC.Wimbledon</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Fleetwood.Town</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Milton.Keynes.Dons</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Sheffield.Weds</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>e2_hrtotals</t>
+  </si>
+  <si>
+    <t>e2_artotals</t>
+  </si>
+  <si>
+    <t>e2_totalreds</t>
+  </si>
+  <si>
+    <t>e2_games_played</t>
+  </si>
+  <si>
+    <t>e2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>0.2273</t>
+  </si>
+  <si>
+    <t>0.2727</t>
+  </si>
+  <si>
+    <t>0.0476</t>
+  </si>
+  <si>
     <t>0.1429</t>
   </si>
   <si>
-    <t>Accrington</t>
-  </si>
-  <si>
-    <t>AFC.Wimbledon</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Crewe</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>Fleetwood.Town</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Milton.Keynes.Dons</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Sheffield.Weds</t>
-  </si>
-  <si>
-    <t>Shrewsbury</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
-    <t>e2_hrtotals</t>
-  </si>
-  <si>
-    <t>e2_artotals</t>
-  </si>
-  <si>
-    <t>e2_totalreds</t>
-  </si>
-  <si>
-    <t>e2_games_played</t>
-  </si>
-  <si>
-    <t>e2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>0.2273</t>
-  </si>
-  <si>
-    <t>0.2727</t>
-  </si>
-  <si>
-    <t>0.0476</t>
-  </si>
-  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -1247,355 +1247,352 @@
     <t>14</t>
   </si>
   <si>
-    <t>13</t>
+    <t>0.1333</t>
+  </si>
+  <si>
+    <t>0.0667</t>
+  </si>
+  <si>
+    <t>0.0714</t>
   </si>
   <si>
     <t>0.2143</t>
   </si>
   <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hrtotals</t>
+  </si>
+  <si>
+    <t>i1_artotals</t>
+  </si>
+  <si>
+    <t>i1_totalreds</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hrtotals</t>
+  </si>
+  <si>
+    <t>i2_artotals</t>
+  </si>
+  <si>
+    <t>i2_totalreds</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hrtotals</t>
+  </si>
+  <si>
+    <t>n1_artotals</t>
+  </si>
+  <si>
+    <t>n1_totalreds</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>0.3529</t>
+  </si>
+  <si>
+    <t>0.4118</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hrtotals</t>
+  </si>
+  <si>
+    <t>p1_artotals</t>
+  </si>
+  <si>
+    <t>p1_totalreds</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
+  </si>
+  <si>
+    <t>0.2857</t>
+  </si>
+  <si>
+    <t>0.4667</t>
+  </si>
+  <si>
     <t>0.3571</t>
-  </si>
-  <si>
-    <t>0.1333</t>
-  </si>
-  <si>
-    <t>0.0667</t>
-  </si>
-  <si>
-    <t>0.0769</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hrtotals</t>
-  </si>
-  <si>
-    <t>i1_artotals</t>
-  </si>
-  <si>
-    <t>i1_totalreds</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hrtotals</t>
-  </si>
-  <si>
-    <t>i2_artotals</t>
-  </si>
-  <si>
-    <t>i2_totalreds</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hrtotals</t>
-  </si>
-  <si>
-    <t>n1_artotals</t>
-  </si>
-  <si>
-    <t>n1_totalreds</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>0.3529</t>
-  </si>
-  <si>
-    <t>0.4118</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hrtotals</t>
-  </si>
-  <si>
-    <t>p1_artotals</t>
-  </si>
-  <si>
-    <t>p1_totalreds</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>0.2857</t>
-  </si>
-  <si>
-    <t>0.4667</t>
   </si>
   <si>
     <t>Aberdeen</t>
@@ -5347,7 +5344,7 @@
         <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
@@ -5374,10 +5371,10 @@
         <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="T2" t="s">
-        <v>405</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -5465,7 +5462,7 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
@@ -5498,10 +5495,10 @@
         <v>36</v>
       </c>
       <c r="S4" t="s">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="T4" t="s">
-        <v>406</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5">
@@ -5563,7 +5560,7 @@
         <v>153</v>
       </c>
       <c r="T5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6">
@@ -5687,7 +5684,7 @@
         <v>153</v>
       </c>
       <c r="T7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8">
@@ -5746,10 +5743,10 @@
         <v>36</v>
       </c>
       <c r="S8" t="s">
-        <v>403</v>
+        <v>153</v>
       </c>
       <c r="T8" t="s">
-        <v>406</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9">
@@ -5811,7 +5808,7 @@
         <v>153</v>
       </c>
       <c r="T9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10">
@@ -5870,10 +5867,10 @@
         <v>31</v>
       </c>
       <c r="S10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="T10" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11">
@@ -5997,7 +5994,7 @@
         <v>403</v>
       </c>
       <c r="T12" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13">
@@ -6183,7 +6180,7 @@
         <v>403</v>
       </c>
       <c r="T15" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -6202,84 +6199,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1" t="s">
         <v>410</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>411</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>412</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>413</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>414</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>415</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>416</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>417</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>418</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>419</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>420</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>421</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>422</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>423</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>424</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>425</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>426</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>427</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>428</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>429</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>430</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>431</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>432</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6359,7 +6356,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6439,7 +6436,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -6519,7 +6516,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -6599,7 +6596,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6679,7 +6676,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -6759,7 +6756,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -6839,7 +6836,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -6919,7 +6916,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -6999,7 +6996,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7079,7 +7076,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -7159,7 +7156,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7239,7 +7236,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -7319,7 +7316,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -7399,7 +7396,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7479,7 +7476,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -7559,7 +7556,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -7639,7 +7636,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -7719,7 +7716,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -7799,7 +7796,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -7893,84 +7890,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" t="s">
         <v>435</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>436</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>437</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>438</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>439</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>440</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>441</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>442</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>443</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>444</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>445</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>446</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>447</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>448</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>449</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>450</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>451</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>452</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>453</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>454</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>455</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>456</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>457</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8050,7 +8047,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8130,7 +8127,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -8210,7 +8207,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8290,7 +8287,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8370,7 +8367,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -8450,7 +8447,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8530,7 +8527,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -8610,7 +8607,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -8690,7 +8687,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -8770,7 +8767,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -8850,7 +8847,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -8930,7 +8927,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9010,7 +9007,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -9090,7 +9087,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -9170,7 +9167,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -9250,7 +9247,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -9330,7 +9327,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -9410,7 +9407,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9490,7 +9487,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -9584,78 +9581,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" t="s">
         <v>460</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>461</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>462</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>463</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>464</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>465</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>466</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>467</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>468</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>469</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>470</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>471</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>472</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>473</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>474</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>475</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>476</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>477</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>478</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>479</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>480</v>
-      </c>
-      <c r="W1" t="s">
-        <v>481</v>
-      </c>
-      <c r="X1" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9729,7 +9726,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -9803,7 +9800,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -9877,7 +9874,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -9951,7 +9948,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -10025,7 +10022,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10099,7 +10096,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10168,12 +10165,12 @@
         <v>82</v>
       </c>
       <c r="X8" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10247,7 +10244,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -10321,7 +10318,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10395,7 +10392,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10469,7 +10466,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -10543,7 +10540,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -10617,7 +10614,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -10691,7 +10688,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -10760,12 +10757,12 @@
         <v>82</v>
       </c>
       <c r="X16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -10839,7 +10836,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -10908,12 +10905,12 @@
         <v>82</v>
       </c>
       <c r="X18" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -11001,78 +10998,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D1" t="s">
         <v>491</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>492</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>493</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>494</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>495</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>496</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>497</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>498</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>499</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>500</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>501</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>502</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>503</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>504</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>505</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>506</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>507</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>508</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>509</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>510</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>511</v>
-      </c>
-      <c r="W1" t="s">
-        <v>512</v>
-      </c>
-      <c r="X1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11146,7 +11143,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11215,12 +11212,12 @@
         <v>403</v>
       </c>
       <c r="X3" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -11289,12 +11286,12 @@
         <v>153</v>
       </c>
       <c r="X4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -11368,7 +11365,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11442,7 +11439,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11516,7 +11513,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -11590,7 +11587,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -11664,7 +11661,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -11738,7 +11735,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -11807,12 +11804,12 @@
         <v>403</v>
       </c>
       <c r="X11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -11886,7 +11883,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -11960,7 +11957,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -12034,7 +12031,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -12103,12 +12100,12 @@
         <v>153</v>
       </c>
       <c r="X15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12177,12 +12174,12 @@
         <v>153</v>
       </c>
       <c r="X16" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12256,7 +12253,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12325,12 +12322,12 @@
         <v>403</v>
       </c>
       <c r="X18" t="s">
-        <v>406</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12399,7 +12396,7 @@
         <v>403</v>
       </c>
       <c r="X19" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -12418,60 +12415,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1" t="s">
         <v>521</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>522</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>523</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>524</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>525</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>526</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>527</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>528</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>529</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>530</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>531</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>532</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>533</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>534</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>535</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>536</v>
-      </c>
-      <c r="R1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12527,7 +12524,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -12583,7 +12580,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -12639,7 +12636,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -12695,7 +12692,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -12751,7 +12748,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -12807,7 +12804,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -12863,7 +12860,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -12919,7 +12916,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -12975,7 +12972,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13031,7 +13028,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -13087,7 +13084,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -13157,54 +13154,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1" t="s">
         <v>542</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>543</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>544</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>545</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>546</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>547</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>548</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>549</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>550</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>551</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>552</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>553</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>554</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>555</v>
-      </c>
-      <c r="P1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13254,7 +13251,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13304,7 +13301,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13354,7 +13351,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13404,7 +13401,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -13454,7 +13451,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -13504,7 +13501,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -13554,7 +13551,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -13604,7 +13601,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -13654,7 +13651,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -13718,54 +13715,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" t="s">
         <v>560</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>561</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>562</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>563</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>564</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>565</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>566</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>567</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>568</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>569</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>570</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>571</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>572</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>573</v>
-      </c>
-      <c r="P1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13810,12 +13807,12 @@
         <v>152</v>
       </c>
       <c r="P2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13865,7 +13862,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -13915,7 +13912,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13965,7 +13962,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -14015,7 +14012,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -14065,7 +14062,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14115,7 +14112,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -14165,7 +14162,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14215,7 +14212,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -14279,54 +14276,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1" t="s">
         <v>580</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>581</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>582</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>583</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>584</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>585</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>586</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>587</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>588</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>589</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>590</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>591</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>592</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>593</v>
-      </c>
-      <c r="P1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14376,7 +14373,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -14426,7 +14423,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -14476,7 +14473,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -14526,7 +14523,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14571,12 +14568,12 @@
         <v>152</v>
       </c>
       <c r="P6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -14626,7 +14623,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14676,7 +14673,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -14726,7 +14723,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14776,7 +14773,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -16257,84 +16254,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1" t="s">
         <v>600</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>601</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>602</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>603</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>604</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>605</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>606</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>607</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>608</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>609</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>610</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>611</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>612</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>613</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>614</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>615</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>616</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>617</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>618</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>619</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>620</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>621</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>622</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>623</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16414,7 +16411,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -16494,7 +16491,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16574,7 +16571,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -16654,7 +16651,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -16734,7 +16731,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -16814,7 +16811,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -16894,7 +16891,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -16974,7 +16971,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -17054,7 +17051,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17134,7 +17131,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -17209,12 +17206,12 @@
         <v>82</v>
       </c>
       <c r="Z12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17268,7 +17265,7 @@
         <v>29</v>
       </c>
       <c r="S13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T13" t="s">
         <v>30</v>
@@ -17286,15 +17283,15 @@
         <v>33</v>
       </c>
       <c r="Y13" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="Z13" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17374,7 +17371,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17454,7 +17451,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17534,7 +17531,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -17614,7 +17611,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -17694,7 +17691,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -17766,15 +17763,15 @@
         <v>37</v>
       </c>
       <c r="Y19" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="Z19" t="s">
-        <v>489</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -17854,7 +17851,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -17948,90 +17945,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C1" t="s">
         <v>628</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>629</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>630</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>631</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>632</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>633</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>634</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>635</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>636</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>637</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>638</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>639</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>640</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>641</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>642</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>643</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>644</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>645</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>646</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>647</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>648</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>649</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>650</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>651</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>652</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>653</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18117,7 +18114,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18203,7 +18200,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18284,12 +18281,12 @@
         <v>193</v>
       </c>
       <c r="AB4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18375,7 +18372,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18461,7 +18458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -18542,12 +18539,12 @@
         <v>193</v>
       </c>
       <c r="AB7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -18628,12 +18625,12 @@
         <v>193</v>
       </c>
       <c r="AB8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -18714,12 +18711,12 @@
         <v>193</v>
       </c>
       <c r="AB9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -18800,12 +18797,12 @@
         <v>193</v>
       </c>
       <c r="AB10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -18891,7 +18888,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -18977,7 +18974,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19058,12 +19055,12 @@
         <v>193</v>
       </c>
       <c r="AB13" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19149,7 +19146,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -19230,12 +19227,12 @@
         <v>193</v>
       </c>
       <c r="AB15" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -19321,7 +19318,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -19407,7 +19404,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -19488,12 +19485,12 @@
         <v>193</v>
       </c>
       <c r="AB18" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -19579,7 +19576,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -19665,7 +19662,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -19746,12 +19743,12 @@
         <v>193</v>
       </c>
       <c r="AB21" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -19837,7 +19834,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -19918,7 +19915,7 @@
         <v>193</v>
       </c>
       <c r="AB23" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -19937,84 +19934,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C1" t="s">
         <v>661</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>662</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>663</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>664</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>665</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>666</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>667</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>668</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>669</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>670</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>671</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>672</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>673</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>674</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>675</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>676</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>677</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>678</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>679</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>680</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>681</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>682</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>683</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>684</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20094,7 +20091,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -20169,12 +20166,12 @@
         <v>82</v>
       </c>
       <c r="Z3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -20254,7 +20251,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -20334,7 +20331,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -20414,7 +20411,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -20494,7 +20491,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20574,7 +20571,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20654,7 +20651,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20734,7 +20731,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -20809,12 +20806,12 @@
         <v>82</v>
       </c>
       <c r="Z11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -20889,12 +20886,12 @@
         <v>82</v>
       </c>
       <c r="Z12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -20974,7 +20971,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -21049,12 +21046,12 @@
         <v>82</v>
       </c>
       <c r="Z14" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21134,7 +21131,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21214,7 +21211,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21294,7 +21291,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21374,7 +21371,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -21449,12 +21446,12 @@
         <v>82</v>
       </c>
       <c r="Z19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -21534,7 +21531,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -25716,7 +25713,7 @@
         <v>30</v>
       </c>
       <c r="V11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W11" t="s">
         <v>30</v>
@@ -25737,10 +25734,10 @@
         <v>34</v>
       </c>
       <c r="AC11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AD11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12">
@@ -26749,10 +26746,10 @@
         <v>33</v>
       </c>
       <c r="AC22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD22" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -27047,96 +27044,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
         <v>204</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>205</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>206</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>207</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>208</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>209</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>210</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>212</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>213</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>214</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>215</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>216</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>217</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>218</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>219</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>220</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>221</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>222</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>223</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>224</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>225</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>226</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>227</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>229</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>230</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>231</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -27228,7 +27225,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -27320,7 +27317,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -27412,7 +27409,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -27499,12 +27496,12 @@
         <v>192</v>
       </c>
       <c r="AD5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -27596,7 +27593,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -27688,7 +27685,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -27780,7 +27777,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -27867,12 +27864,12 @@
         <v>192</v>
       </c>
       <c r="AD9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -27964,7 +27961,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -28056,7 +28053,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -28143,12 +28140,12 @@
         <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -28240,7 +28237,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -28327,12 +28324,12 @@
         <v>193</v>
       </c>
       <c r="AD14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -28419,12 +28416,12 @@
         <v>193</v>
       </c>
       <c r="AD15" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -28516,7 +28513,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -28608,7 +28605,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -28700,7 +28697,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -28792,7 +28789,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -28884,7 +28881,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -28976,7 +28973,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -29063,12 +29060,12 @@
         <v>192</v>
       </c>
       <c r="AD22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -29160,7 +29157,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -29247,12 +29244,12 @@
         <v>193</v>
       </c>
       <c r="AD24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -30270,7 +30267,7 @@
         <v>192</v>
       </c>
       <c r="AD10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11">
@@ -30362,7 +30359,7 @@
         <v>193</v>
       </c>
       <c r="AD11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12">
@@ -31282,7 +31279,7 @@
         <v>193</v>
       </c>
       <c r="AD21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
@@ -31374,7 +31371,7 @@
         <v>192</v>
       </c>
       <c r="AD22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23">
@@ -31650,7 +31647,7 @@
         <v>193</v>
       </c>
       <c r="AD25" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/RedTotalsV2.xlsx
+++ b/RedTotalsV2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10732" uniqueCount="702">
   <si>
     <t>Anderlecht</t>
   </si>
@@ -500,1170 +500,1194 @@
     <t>19</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0.1579</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.2105</t>
+  </si>
+  <si>
+    <t>0.1053</t>
+  </si>
+  <si>
+    <t>0.3529</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Bristol.City</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Hull</t>
+  </si>
+  <si>
+    <t>Luton</t>
+  </si>
+  <si>
+    <t>Middlesbrough</t>
+  </si>
+  <si>
+    <t>Millwall</t>
+  </si>
+  <si>
+    <t>Nottm.Forest</t>
+  </si>
+  <si>
+    <t>Peterboro</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Sheffield.United</t>
+  </si>
+  <si>
+    <t>Stoke</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>West.Brom</t>
+  </si>
+  <si>
+    <t>e1_hrtotals</t>
+  </si>
+  <si>
+    <t>e1_artotals</t>
+  </si>
+  <si>
+    <t>e1_totalreds</t>
+  </si>
+  <si>
+    <t>e1_games_played</t>
+  </si>
+  <si>
+    <t>e1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>West Brom</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>0.0417</t>
+  </si>
+  <si>
+    <t>0.1304</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.1739</t>
+  </si>
+  <si>
+    <t>0.0833</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.087</t>
+  </si>
+  <si>
+    <t>0.0455</t>
+  </si>
+  <si>
+    <t>0.1364</t>
+  </si>
+  <si>
+    <t>Accrington</t>
+  </si>
+  <si>
+    <t>AFC.Wimbledon</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Crewe</t>
+  </si>
+  <si>
+    <t>Doncaster</t>
+  </si>
+  <si>
+    <t>Fleetwood.Town</t>
+  </si>
+  <si>
+    <t>Gillingham</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Milton.Keynes.Dons</t>
+  </si>
+  <si>
+    <t>Morecambe</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Rotherham</t>
+  </si>
+  <si>
+    <t>Sheffield.Weds</t>
+  </si>
+  <si>
+    <t>Shrewsbury</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Wycombe</t>
+  </si>
+  <si>
+    <t>e2_hrtotals</t>
+  </si>
+  <si>
+    <t>e2_artotals</t>
+  </si>
+  <si>
+    <t>e2_totalreds</t>
+  </si>
+  <si>
+    <t>e2_games_played</t>
+  </si>
+  <si>
+    <t>e2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Sheffield Weds</t>
+  </si>
+  <si>
+    <t>0.2273</t>
+  </si>
+  <si>
+    <t>0.0435</t>
+  </si>
+  <si>
+    <t>0.2174</t>
+  </si>
+  <si>
+    <t>0.0909</t>
+  </si>
+  <si>
+    <t>0.2727</t>
+  </si>
+  <si>
+    <t>0.0476</t>
+  </si>
+  <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Bradford</t>
+  </si>
+  <si>
+    <t>Bristol.Rvs</t>
+  </si>
+  <si>
+    <t>Carlisle</t>
+  </si>
+  <si>
+    <t>Colchester</t>
+  </si>
+  <si>
+    <t>Crawley.Town</t>
+  </si>
+  <si>
+    <t>Exeter</t>
+  </si>
+  <si>
+    <t>Forest.Green</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>Hartlepool</t>
+  </si>
+  <si>
+    <t>Leyton.Orient</t>
+  </si>
+  <si>
+    <t>Mansfield</t>
+  </si>
+  <si>
+    <t>Newport.County</t>
+  </si>
+  <si>
+    <t>Northampton</t>
+  </si>
+  <si>
+    <t>Oldham</t>
+  </si>
+  <si>
+    <t>Port.Vale</t>
+  </si>
+  <si>
+    <t>Rochdale</t>
+  </si>
+  <si>
+    <t>Salford</t>
+  </si>
+  <si>
+    <t>Scunthorpe</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Sutton</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Tranmere</t>
+  </si>
+  <si>
+    <t>Walsall</t>
+  </si>
+  <si>
+    <t>e3_hrtotals</t>
+  </si>
+  <si>
+    <t>e3_artotals</t>
+  </si>
+  <si>
+    <t>e3_totalreds</t>
+  </si>
+  <si>
+    <t>e3_games_played</t>
+  </si>
+  <si>
+    <t>e3_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Forest Green</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Newport County</t>
+  </si>
+  <si>
+    <t>Port Vale</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0.5714</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.1818</t>
+  </si>
+  <si>
+    <t>Aldershot</t>
+  </si>
+  <si>
+    <t>Altrincham</t>
+  </si>
+  <si>
+    <t>Barnet</t>
+  </si>
+  <si>
+    <t>Boreham.Wood</t>
+  </si>
+  <si>
+    <t>Bromley</t>
+  </si>
+  <si>
+    <t>Chesterfield</t>
+  </si>
+  <si>
+    <t>Dag.and.Red</t>
+  </si>
+  <si>
+    <t>Dover.Athletic</t>
+  </si>
+  <si>
+    <t>Eastleigh</t>
+  </si>
+  <si>
+    <t>Grimsby</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>Kings.Lynn</t>
+  </si>
+  <si>
+    <t>Maidenhead</t>
+  </si>
+  <si>
+    <t>Notts.County</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Southend</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>Torquay</t>
+  </si>
+  <si>
+    <t>Wealdstone</t>
+  </si>
+  <si>
+    <t>Weymouth</t>
+  </si>
+  <si>
+    <t>Woking</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Yeovil</t>
+  </si>
+  <si>
+    <t>ec_hrtotals</t>
+  </si>
+  <si>
+    <t>ec_artotals</t>
+  </si>
+  <si>
+    <t>ec_totalreds</t>
+  </si>
+  <si>
+    <t>ec_games_played</t>
+  </si>
+  <si>
+    <t>ec_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Boreham Wood</t>
+  </si>
+  <si>
+    <t>Dag and Red</t>
+  </si>
+  <si>
+    <t>Dover Athletic</t>
+  </si>
+  <si>
+    <t>Kings Lynn</t>
+  </si>
+  <si>
+    <t>Notts County</t>
+  </si>
+  <si>
+    <t>0.2632</t>
+  </si>
+  <si>
+    <t>0.0526</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.5789</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Paris.SG</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>St.Etienne</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>f1_hrtotals</t>
+  </si>
+  <si>
+    <t>f1_artotals</t>
+  </si>
+  <si>
+    <t>f1_totalreds</t>
+  </si>
+  <si>
+    <t>f1_games_played</t>
+  </si>
+  <si>
+    <t>f1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Paris SG</t>
+  </si>
+  <si>
+    <t>St Etienne</t>
+  </si>
+  <si>
+    <t>0.3158</t>
+  </si>
+  <si>
+    <t>0.3684</t>
+  </si>
+  <si>
+    <t>0.3889</t>
+  </si>
+  <si>
+    <t>0.4211</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Amiens</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Dijon</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
+    <t>Le.Havre</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Nimes</t>
+  </si>
+  <si>
+    <t>Niort</t>
+  </si>
+  <si>
+    <t>Paris.FC</t>
+  </si>
+  <si>
+    <t>Pau.FC</t>
+  </si>
+  <si>
+    <t>Quevilly.Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Sochaux</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>f2_hrtotals</t>
+  </si>
+  <si>
+    <t>f2_artotals</t>
+  </si>
+  <si>
+    <t>f2_totalreds</t>
+  </si>
+  <si>
+    <t>f2_games_played</t>
+  </si>
+  <si>
+    <t>f2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Paris FC</t>
+  </si>
+  <si>
+    <t>Pau FC</t>
+  </si>
+  <si>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>0.5263</t>
+  </si>
+  <si>
+    <t>AEK</t>
+  </si>
+  <si>
+    <t>Apollon</t>
+  </si>
+  <si>
+    <t>Aris</t>
+  </si>
+  <si>
+    <t>Asteras.Tripolis</t>
+  </si>
+  <si>
+    <t>Atromitos</t>
+  </si>
+  <si>
+    <t>Giannina</t>
+  </si>
+  <si>
+    <t>Ionikos</t>
+  </si>
+  <si>
+    <t>Lamia</t>
+  </si>
+  <si>
+    <t>OFI.Crete</t>
+  </si>
+  <si>
+    <t>Olympiakos</t>
+  </si>
+  <si>
+    <t>Panathinaikos</t>
+  </si>
+  <si>
+    <t>Panetolikos</t>
+  </si>
+  <si>
+    <t>PAOK</t>
+  </si>
+  <si>
+    <t>Volos.NFC</t>
+  </si>
+  <si>
+    <t>g1_hrtotals</t>
+  </si>
+  <si>
+    <t>g1_artotals</t>
+  </si>
+  <si>
+    <t>g1_totalreds</t>
+  </si>
+  <si>
+    <t>g1_games_played</t>
+  </si>
+  <si>
+    <t>g1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Asteras Tripolis</t>
+  </si>
+  <si>
+    <t>OFI Crete</t>
+  </si>
+  <si>
+    <t>Volos NFC</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>0.1579</t>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0.1333</t>
+  </si>
+  <si>
+    <t>0.0667</t>
+  </si>
+  <si>
+    <t>0.0714</t>
+  </si>
+  <si>
+    <t>0.2143</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Sampdoria</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
+  </si>
+  <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>i1_hrtotals</t>
+  </si>
+  <si>
+    <t>i1_artotals</t>
+  </si>
+  <si>
+    <t>i1_totalreds</t>
+  </si>
+  <si>
+    <t>i1_games_played</t>
+  </si>
+  <si>
+    <t>i1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>0.4444</t>
+  </si>
+  <si>
+    <t>Alessandria</t>
+  </si>
+  <si>
+    <t>Ascoli</t>
+  </si>
+  <si>
+    <t>Benevento</t>
+  </si>
+  <si>
+    <t>Brescia</t>
+  </si>
+  <si>
+    <t>Cittadella</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cosenza</t>
+  </si>
+  <si>
+    <t>Cremonese</t>
+  </si>
+  <si>
+    <t>Crotone</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>Pisa</t>
+  </si>
+  <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
+    <t>Reggina</t>
+  </si>
+  <si>
+    <t>Spal</t>
+  </si>
+  <si>
+    <t>Ternana</t>
+  </si>
+  <si>
+    <t>Vicenza</t>
+  </si>
+  <si>
+    <t>i2_hrtotals</t>
+  </si>
+  <si>
+    <t>i2_artotals</t>
+  </si>
+  <si>
+    <t>i2_totalreds</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalreds</t>
+  </si>
+  <si>
+    <t>0.2353</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>AZ.Alkmaar</t>
+  </si>
+  <si>
+    <t>Cambuur</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>For.Sittard</t>
+  </si>
+  <si>
+    <t>Go.Ahead.Eagles</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Heracles</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>PSV.Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta.Rotterdam</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Willem.II</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>n1_hrtotals</t>
+  </si>
+  <si>
+    <t>n1_artotals</t>
+  </si>
+  <si>
+    <t>n1_totalreds</t>
+  </si>
+  <si>
+    <t>n1_games_played</t>
+  </si>
+  <si>
+    <t>n1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>For Sittard</t>
+  </si>
+  <si>
+    <t>Go Ahead Eagles</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Willem II</t>
+  </si>
+  <si>
+    <t>Arouca</t>
+  </si>
+  <si>
+    <t>Belenenses</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Estoril</t>
+  </si>
+  <si>
+    <t>Famalicao</t>
+  </si>
+  <si>
+    <t>Gil.Vicente</t>
+  </si>
+  <si>
+    <t>Guimaraes</t>
+  </si>
+  <si>
+    <t>Maritimo</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>Pacos.Ferreira</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Santa.Clara</t>
+  </si>
+  <si>
+    <t>Sp.Braga</t>
+  </si>
+  <si>
+    <t>Sp.Lisbon</t>
+  </si>
+  <si>
+    <t>Tondela</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>p1_hrtotals</t>
+  </si>
+  <si>
+    <t>p1_artotals</t>
+  </si>
+  <si>
+    <t>p1_totalreds</t>
+  </si>
+  <si>
+    <t>p1_games_played</t>
+  </si>
+  <si>
+    <t>p1_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Gil Vicente</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>Sp Braga</t>
+  </si>
+  <si>
+    <t>Sp Lisbon</t>
   </si>
   <si>
     <t>0.3125</t>
   </si>
   <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t>Barnsley</t>
-  </si>
-  <si>
-    <t>Birmingham</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Bristol.City</t>
-  </si>
-  <si>
-    <t>Cardiff</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>Derby</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Huddersfield</t>
-  </si>
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>Middlesbrough</t>
-  </si>
-  <si>
-    <t>Millwall</t>
-  </si>
-  <si>
-    <t>Nottm.Forest</t>
-  </si>
-  <si>
-    <t>Peterboro</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>QPR</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Sheffield.United</t>
-  </si>
-  <si>
-    <t>Stoke</t>
-  </si>
-  <si>
-    <t>Swansea</t>
-  </si>
-  <si>
-    <t>West.Brom</t>
-  </si>
-  <si>
-    <t>e1_hrtotals</t>
-  </si>
-  <si>
-    <t>e1_artotals</t>
-  </si>
-  <si>
-    <t>e1_totalreds</t>
-  </si>
-  <si>
-    <t>e1_games_played</t>
-  </si>
-  <si>
-    <t>e1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>West Brom</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>0.0435</t>
-  </si>
-  <si>
-    <t>0.1304</t>
-  </si>
-  <si>
-    <t>0.1739</t>
-  </si>
-  <si>
-    <t>0.087</t>
-  </si>
-  <si>
-    <t>0.0909</t>
-  </si>
-  <si>
-    <t>0.1818</t>
-  </si>
-  <si>
-    <t>0.1364</t>
-  </si>
-  <si>
-    <t>0.0455</t>
-  </si>
-  <si>
-    <t>Accrington</t>
-  </si>
-  <si>
-    <t>AFC.Wimbledon</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Cambridge</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Crewe</t>
-  </si>
-  <si>
-    <t>Doncaster</t>
-  </si>
-  <si>
-    <t>Fleetwood.Town</t>
-  </si>
-  <si>
-    <t>Gillingham</t>
-  </si>
-  <si>
-    <t>Ipswich</t>
-  </si>
-  <si>
-    <t>Lincoln</t>
-  </si>
-  <si>
-    <t>Milton.Keynes.Dons</t>
-  </si>
-  <si>
-    <t>Morecambe</t>
-  </si>
-  <si>
-    <t>Oxford</t>
-  </si>
-  <si>
-    <t>Plymouth</t>
-  </si>
-  <si>
-    <t>Portsmouth</t>
-  </si>
-  <si>
-    <t>Rotherham</t>
-  </si>
-  <si>
-    <t>Sheffield.Weds</t>
-  </si>
-  <si>
-    <t>Shrewsbury</t>
-  </si>
-  <si>
-    <t>Sunderland</t>
-  </si>
-  <si>
-    <t>Wigan</t>
-  </si>
-  <si>
-    <t>Wycombe</t>
-  </si>
-  <si>
-    <t>e2_hrtotals</t>
-  </si>
-  <si>
-    <t>e2_artotals</t>
-  </si>
-  <si>
-    <t>e2_totalreds</t>
-  </si>
-  <si>
-    <t>e2_games_played</t>
-  </si>
-  <si>
-    <t>e2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon</t>
-  </si>
-  <si>
-    <t>Fleetwood Town</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons</t>
-  </si>
-  <si>
-    <t>Sheffield Weds</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.2273</t>
-  </si>
-  <si>
-    <t>0.2727</t>
-  </si>
-  <si>
-    <t>0.2609</t>
-  </si>
-  <si>
-    <t>0.0476</t>
-  </si>
-  <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Bristol.Rvs</t>
-  </si>
-  <si>
-    <t>Carlisle</t>
-  </si>
-  <si>
-    <t>Colchester</t>
-  </si>
-  <si>
-    <t>Crawley.Town</t>
-  </si>
-  <si>
-    <t>Exeter</t>
-  </si>
-  <si>
-    <t>Forest.Green</t>
-  </si>
-  <si>
-    <t>Harrogate</t>
-  </si>
-  <si>
-    <t>Hartlepool</t>
-  </si>
-  <si>
-    <t>Leyton.Orient</t>
-  </si>
-  <si>
-    <t>Mansfield</t>
-  </si>
-  <si>
-    <t>Newport.County</t>
-  </si>
-  <si>
-    <t>Northampton</t>
-  </si>
-  <si>
-    <t>Oldham</t>
-  </si>
-  <si>
-    <t>Port.Vale</t>
-  </si>
-  <si>
-    <t>Rochdale</t>
-  </si>
-  <si>
-    <t>Salford</t>
-  </si>
-  <si>
-    <t>Scunthorpe</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Swindon</t>
-  </si>
-  <si>
-    <t>Tranmere</t>
-  </si>
-  <si>
-    <t>Walsall</t>
-  </si>
-  <si>
-    <t>e3_hrtotals</t>
-  </si>
-  <si>
-    <t>e3_artotals</t>
-  </si>
-  <si>
-    <t>e3_totalreds</t>
-  </si>
-  <si>
-    <t>e3_games_played</t>
-  </si>
-  <si>
-    <t>e3_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Bristol Rvs</t>
-  </si>
-  <si>
-    <t>Crawley Town</t>
-  </si>
-  <si>
-    <t>Forest Green</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Newport County</t>
-  </si>
-  <si>
-    <t>Port Vale</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>0.5714</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>Aldershot</t>
-  </si>
-  <si>
-    <t>Altrincham</t>
-  </si>
-  <si>
-    <t>Barnet</t>
-  </si>
-  <si>
-    <t>Boreham.Wood</t>
-  </si>
-  <si>
-    <t>Bromley</t>
-  </si>
-  <si>
-    <t>Chesterfield</t>
-  </si>
-  <si>
-    <t>Dag.and.Red</t>
-  </si>
-  <si>
-    <t>Dover.Athletic</t>
-  </si>
-  <si>
-    <t>Eastleigh</t>
-  </si>
-  <si>
-    <t>Grimsby</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>Kings.Lynn</t>
-  </si>
-  <si>
-    <t>Maidenhead</t>
-  </si>
-  <si>
-    <t>Notts.County</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t>Southend</t>
-  </si>
-  <si>
-    <t>Stockport</t>
-  </si>
-  <si>
-    <t>Torquay</t>
-  </si>
-  <si>
-    <t>Wealdstone</t>
-  </si>
-  <si>
-    <t>Weymouth</t>
-  </si>
-  <si>
-    <t>Woking</t>
-  </si>
-  <si>
-    <t>Wrexham</t>
-  </si>
-  <si>
-    <t>Yeovil</t>
-  </si>
-  <si>
-    <t>ec_hrtotals</t>
-  </si>
-  <si>
-    <t>ec_artotals</t>
-  </si>
-  <si>
-    <t>ec_totalreds</t>
-  </si>
-  <si>
-    <t>ec_games_played</t>
-  </si>
-  <si>
-    <t>ec_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Boreham Wood</t>
-  </si>
-  <si>
-    <t>Dag and Red</t>
-  </si>
-  <si>
-    <t>Dover Athletic</t>
-  </si>
-  <si>
-    <t>Kings Lynn</t>
-  </si>
-  <si>
-    <t>Notts County</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.2632</t>
-  </si>
-  <si>
-    <t>0.2105</t>
-  </si>
-  <si>
-    <t>0.0526</t>
-  </si>
-  <si>
-    <t>0.1053</t>
+    <t>0.1875</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.2667</t>
+  </si>
+  <si>
+    <t>0.0625</t>
+  </si>
+  <si>
+    <t>0.4375</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Dundee.United</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Ross.County</t>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+  </si>
+  <si>
+    <t>sc0_hrtotals</t>
+  </si>
+  <si>
+    <t>sc0_artotals</t>
+  </si>
+  <si>
+    <t>sc0_totalreds</t>
+  </si>
+  <si>
+    <t>sc0_games_played</t>
+  </si>
+  <si>
+    <t>sc0_avg_totalreds</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.45</t>
   </si>
   <si>
     <t>0.35</t>
   </si>
   <si>
-    <t>0.5789</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Paris.SG</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>St.Etienne</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>f1_hrtotals</t>
-  </si>
-  <si>
-    <t>f1_artotals</t>
-  </si>
-  <si>
-    <t>f1_totalreds</t>
-  </si>
-  <si>
-    <t>f1_games_played</t>
-  </si>
-  <si>
-    <t>f1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Paris SG</t>
-  </si>
-  <si>
-    <t>St Etienne</t>
-  </si>
-  <si>
-    <t>0.3158</t>
-  </si>
-  <si>
-    <t>0.3684</t>
-  </si>
-  <si>
-    <t>0.3889</t>
-  </si>
-  <si>
-    <t>0.4211</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Amiens</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bastia</t>
-  </si>
-  <si>
-    <t>Caen</t>
-  </si>
-  <si>
-    <t>Dijon</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Grenoble</t>
-  </si>
-  <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
-    <t>Le.Havre</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Nimes</t>
-  </si>
-  <si>
-    <t>Niort</t>
-  </si>
-  <si>
-    <t>Paris.FC</t>
-  </si>
-  <si>
-    <t>Pau.FC</t>
-  </si>
-  <si>
-    <t>Quevilly.Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Sochaux</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
-    <t>f2_hrtotals</t>
-  </si>
-  <si>
-    <t>f2_artotals</t>
-  </si>
-  <si>
-    <t>f2_totalreds</t>
-  </si>
-  <si>
-    <t>f2_games_played</t>
-  </si>
-  <si>
-    <t>f2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Paris FC</t>
-  </si>
-  <si>
-    <t>Pau FC</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>0.5263</t>
-  </si>
-  <si>
-    <t>AEK</t>
-  </si>
-  <si>
-    <t>Apollon</t>
-  </si>
-  <si>
-    <t>Aris</t>
-  </si>
-  <si>
-    <t>Asteras.Tripolis</t>
-  </si>
-  <si>
-    <t>Atromitos</t>
-  </si>
-  <si>
-    <t>Giannina</t>
-  </si>
-  <si>
-    <t>Ionikos</t>
-  </si>
-  <si>
-    <t>Lamia</t>
-  </si>
-  <si>
-    <t>OFI.Crete</t>
-  </si>
-  <si>
-    <t>Olympiakos</t>
-  </si>
-  <si>
-    <t>Panathinaikos</t>
-  </si>
-  <si>
-    <t>Panetolikos</t>
-  </si>
-  <si>
-    <t>PAOK</t>
-  </si>
-  <si>
-    <t>Volos.NFC</t>
-  </si>
-  <si>
-    <t>g1_hrtotals</t>
-  </si>
-  <si>
-    <t>g1_artotals</t>
-  </si>
-  <si>
-    <t>g1_totalreds</t>
-  </si>
-  <si>
-    <t>g1_games_played</t>
-  </si>
-  <si>
-    <t>g1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Asteras Tripolis</t>
-  </si>
-  <si>
-    <t>OFI Crete</t>
-  </si>
-  <si>
-    <t>Volos NFC</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>0.1333</t>
-  </si>
-  <si>
-    <t>0.0667</t>
-  </si>
-  <si>
-    <t>0.0714</t>
-  </si>
-  <si>
-    <t>0.2143</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
-  </si>
-  <si>
-    <t>Salernitana</t>
-  </si>
-  <si>
-    <t>Sampdoria</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Venezia</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>i1_hrtotals</t>
-  </si>
-  <si>
-    <t>i1_artotals</t>
-  </si>
-  <si>
-    <t>i1_totalreds</t>
-  </si>
-  <si>
-    <t>i1_games_played</t>
-  </si>
-  <si>
-    <t>i1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>0.4444</t>
-  </si>
-  <si>
-    <t>Alessandria</t>
-  </si>
-  <si>
-    <t>Ascoli</t>
-  </si>
-  <si>
-    <t>Benevento</t>
-  </si>
-  <si>
-    <t>Brescia</t>
-  </si>
-  <si>
-    <t>Cittadella</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Cosenza</t>
-  </si>
-  <si>
-    <t>Cremonese</t>
-  </si>
-  <si>
-    <t>Crotone</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Perugia</t>
-  </si>
-  <si>
-    <t>Pisa</t>
-  </si>
-  <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
-    <t>Reggina</t>
-  </si>
-  <si>
-    <t>Spal</t>
-  </si>
-  <si>
-    <t>Ternana</t>
-  </si>
-  <si>
-    <t>Vicenza</t>
-  </si>
-  <si>
-    <t>i2_hrtotals</t>
-  </si>
-  <si>
-    <t>i2_artotals</t>
-  </si>
-  <si>
-    <t>i2_totalreds</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalreds</t>
-  </si>
-  <si>
-    <t>0.2353</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>AZ.Alkmaar</t>
-  </si>
-  <si>
-    <t>Cambuur</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>For.Sittard</t>
-  </si>
-  <si>
-    <t>Go.Ahead.Eagles</t>
-  </si>
-  <si>
-    <t>Groningen</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Heracles</t>
-  </si>
-  <si>
-    <t>Nijmegen</t>
-  </si>
-  <si>
-    <t>PSV.Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta.Rotterdam</t>
-  </si>
-  <si>
-    <t>Twente</t>
-  </si>
-  <si>
-    <t>Utrecht</t>
-  </si>
-  <si>
-    <t>Vitesse</t>
-  </si>
-  <si>
-    <t>Waalwijk</t>
-  </si>
-  <si>
-    <t>Willem.II</t>
-  </si>
-  <si>
-    <t>Zwolle</t>
-  </si>
-  <si>
-    <t>n1_hrtotals</t>
-  </si>
-  <si>
-    <t>n1_artotals</t>
-  </si>
-  <si>
-    <t>n1_totalreds</t>
-  </si>
-  <si>
-    <t>n1_games_played</t>
-  </si>
-  <si>
-    <t>n1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>AZ Alkmaar</t>
-  </si>
-  <si>
-    <t>For Sittard</t>
-  </si>
-  <si>
-    <t>Go Ahead Eagles</t>
-  </si>
-  <si>
-    <t>PSV Eindhoven</t>
-  </si>
-  <si>
-    <t>Sparta Rotterdam</t>
-  </si>
-  <si>
-    <t>Willem II</t>
-  </si>
-  <si>
-    <t>Arouca</t>
-  </si>
-  <si>
-    <t>Belenenses</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Boavista</t>
-  </si>
-  <si>
-    <t>Estoril</t>
-  </si>
-  <si>
-    <t>Famalicao</t>
-  </si>
-  <si>
-    <t>Gil.Vicente</t>
-  </si>
-  <si>
-    <t>Guimaraes</t>
-  </si>
-  <si>
-    <t>Maritimo</t>
-  </si>
-  <si>
-    <t>Moreirense</t>
-  </si>
-  <si>
-    <t>Pacos.Ferreira</t>
-  </si>
-  <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Santa.Clara</t>
-  </si>
-  <si>
-    <t>Sp.Braga</t>
-  </si>
-  <si>
-    <t>Sp.Lisbon</t>
-  </si>
-  <si>
-    <t>Tondela</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>p1_hrtotals</t>
-  </si>
-  <si>
-    <t>p1_artotals</t>
-  </si>
-  <si>
-    <t>p1_totalreds</t>
-  </si>
-  <si>
-    <t>p1_games_played</t>
-  </si>
-  <si>
-    <t>p1_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Gil Vicente</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>Sp Braga</t>
-  </si>
-  <si>
-    <t>Sp Lisbon</t>
-  </si>
-  <si>
-    <t>0.4667</t>
-  </si>
-  <si>
-    <t>0.3571</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Dundee.United</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Motherwell</t>
-  </si>
-  <si>
-    <t>Rangers</t>
-  </si>
-  <si>
-    <t>Ross.County</t>
-  </si>
-  <si>
-    <t>St.Johnstone</t>
-  </si>
-  <si>
-    <t>St.Mirren</t>
-  </si>
-  <si>
-    <t>sc0_hrtotals</t>
-  </si>
-  <si>
-    <t>sc0_artotals</t>
-  </si>
-  <si>
-    <t>sc0_totalreds</t>
-  </si>
-  <si>
-    <t>sc0_games_played</t>
-  </si>
-  <si>
-    <t>sc0_avg_totalreds</t>
-  </si>
-  <si>
-    <t>Dundee United</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
     <t>Arbroath</t>
   </si>
   <si>
@@ -1721,13 +1745,16 @@
     <t>3.5</t>
   </si>
   <si>
+    <t>2.5</t>
+  </si>
+  <si>
     <t>4.5</t>
   </si>
   <si>
     <t>0.2368</t>
   </si>
   <si>
-    <t>0.0278</t>
+    <t>0.1316</t>
   </si>
   <si>
     <t>Airdrie.Utd</t>
@@ -1790,16 +1817,7 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>0.4118</t>
-  </si>
-  <si>
     <t>0.1842</t>
-  </si>
-  <si>
-    <t>0.1316</t>
   </si>
   <si>
     <t>Albion.Rvs</t>
@@ -3591,84 +3609,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C1" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E1" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J1" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L1" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="P1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="R1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="S1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="T1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="U1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="V1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="W1" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="X1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Y1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Z1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -3743,12 +3761,12 @@
         <v>154</v>
       </c>
       <c r="Z2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -3823,12 +3841,12 @@
         <v>154</v>
       </c>
       <c r="Z3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -3903,12 +3921,12 @@
         <v>154</v>
       </c>
       <c r="Z4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -3983,12 +4001,12 @@
         <v>154</v>
       </c>
       <c r="Z5" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -4063,12 +4081,12 @@
         <v>154</v>
       </c>
       <c r="Z6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -4143,12 +4161,12 @@
         <v>154</v>
       </c>
       <c r="Z7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -4223,12 +4241,12 @@
         <v>154</v>
       </c>
       <c r="Z8" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -4303,12 +4321,12 @@
         <v>154</v>
       </c>
       <c r="Z9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -4383,12 +4401,12 @@
         <v>154</v>
       </c>
       <c r="Z10" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -4463,12 +4481,12 @@
         <v>154</v>
       </c>
       <c r="Z11" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -4543,12 +4561,12 @@
         <v>154</v>
       </c>
       <c r="Z12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -4623,12 +4641,12 @@
         <v>154</v>
       </c>
       <c r="Z13" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -4703,12 +4721,12 @@
         <v>154</v>
       </c>
       <c r="Z14" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -4783,12 +4801,12 @@
         <v>154</v>
       </c>
       <c r="Z15" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -4863,12 +4881,12 @@
         <v>154</v>
       </c>
       <c r="Z16" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -4943,12 +4961,12 @@
         <v>154</v>
       </c>
       <c r="Z17" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -5023,12 +5041,12 @@
         <v>154</v>
       </c>
       <c r="Z18" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -5103,12 +5121,12 @@
         <v>154</v>
       </c>
       <c r="Z19" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -5183,12 +5201,12 @@
         <v>154</v>
       </c>
       <c r="Z20" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -5263,7 +5281,7 @@
         <v>154</v>
       </c>
       <c r="Z21" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5282,66 +5300,66 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="I1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="O1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="P1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="R1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="S1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="T1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -5395,15 +5413,15 @@
         <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="T2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -5457,7 +5475,7 @@
         <v>34</v>
       </c>
       <c r="S3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="T3" t="s">
         <v>48</v>
@@ -5465,7 +5483,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -5519,7 +5537,7 @@
         <v>36</v>
       </c>
       <c r="S4" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="T4" t="s">
         <v>48</v>
@@ -5527,7 +5545,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -5581,15 +5599,15 @@
         <v>32</v>
       </c>
       <c r="S5" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="T5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -5643,15 +5661,15 @@
         <v>33</v>
       </c>
       <c r="S6" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="T6" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -5705,15 +5723,15 @@
         <v>31</v>
       </c>
       <c r="S7" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="T7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -5767,7 +5785,7 @@
         <v>36</v>
       </c>
       <c r="S8" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="T8" t="s">
         <v>48</v>
@@ -5775,7 +5793,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -5829,15 +5847,15 @@
         <v>32</v>
       </c>
       <c r="S9" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="T9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -5891,15 +5909,15 @@
         <v>31</v>
       </c>
       <c r="S10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="T10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -5953,7 +5971,7 @@
         <v>30</v>
       </c>
       <c r="S11" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="T11" t="s">
         <v>30</v>
@@ -5961,7 +5979,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -6015,7 +6033,7 @@
         <v>32</v>
       </c>
       <c r="S12" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="T12" t="s">
         <v>47</v>
@@ -6023,7 +6041,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -6077,15 +6095,15 @@
         <v>33</v>
       </c>
       <c r="S13" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="T13" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -6139,7 +6157,7 @@
         <v>30</v>
       </c>
       <c r="S14" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="T14" t="s">
         <v>30</v>
@@ -6147,7 +6165,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -6201,10 +6219,10 @@
         <v>33</v>
       </c>
       <c r="S15" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="T15" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -6223,84 +6241,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="H1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="I1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="J1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="O1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="R1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="S1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="T1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="U1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="V1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="W1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="X1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Y1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="Z1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -6380,7 +6398,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -6455,12 +6473,12 @@
         <v>154</v>
       </c>
       <c r="Z3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -6535,12 +6553,12 @@
         <v>154</v>
       </c>
       <c r="Z4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -6615,12 +6633,12 @@
         <v>154</v>
       </c>
       <c r="Z5" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -6695,12 +6713,12 @@
         <v>154</v>
       </c>
       <c r="Z6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -6780,7 +6798,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -6855,12 +6873,12 @@
         <v>154</v>
       </c>
       <c r="Z8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -6935,12 +6953,12 @@
         <v>154</v>
       </c>
       <c r="Z9" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -7015,12 +7033,12 @@
         <v>154</v>
       </c>
       <c r="Z10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -7095,12 +7113,12 @@
         <v>154</v>
       </c>
       <c r="Z11" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -7175,12 +7193,12 @@
         <v>154</v>
       </c>
       <c r="Z12" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -7255,12 +7273,12 @@
         <v>154</v>
       </c>
       <c r="Z13" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -7340,7 +7358,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -7415,12 +7433,12 @@
         <v>154</v>
       </c>
       <c r="Z15" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -7495,12 +7513,12 @@
         <v>154</v>
       </c>
       <c r="Z16" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -7575,12 +7593,12 @@
         <v>154</v>
       </c>
       <c r="Z17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -7655,12 +7673,12 @@
         <v>154</v>
       </c>
       <c r="Z18" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -7735,12 +7753,12 @@
         <v>118</v>
       </c>
       <c r="Z19" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -7815,12 +7833,12 @@
         <v>154</v>
       </c>
       <c r="Z20" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -7895,7 +7913,7 @@
         <v>154</v>
       </c>
       <c r="Z21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -7914,84 +7932,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="I1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="J1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="N1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="O1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="R1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="S1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="T1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="U1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="V1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="W1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="X1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Y1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Z1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -8071,7 +8089,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -8151,7 +8169,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -8231,7 +8249,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -8311,7 +8329,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -8391,7 +8409,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -8471,7 +8489,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -8551,7 +8569,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -8631,7 +8649,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -8711,7 +8729,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -8791,7 +8809,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -8871,7 +8889,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -8946,12 +8964,12 @@
         <v>84</v>
       </c>
       <c r="Z13" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -9031,7 +9049,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -9111,7 +9129,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -9191,7 +9209,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -9271,7 +9289,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -9346,12 +9364,12 @@
         <v>118</v>
       </c>
       <c r="Z18" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
@@ -9431,7 +9449,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -9511,7 +9529,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -9586,7 +9604,7 @@
         <v>84</v>
       </c>
       <c r="Z21" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -9605,78 +9623,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="H1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="I1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="J1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="L1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="N1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="O1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="Q1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="R1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="S1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="T1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="U1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="V1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="W1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="X1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -9750,7 +9768,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -9824,7 +9842,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -9898,7 +9916,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -9972,7 +9990,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -10046,7 +10064,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -10120,7 +10138,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -10189,12 +10207,12 @@
         <v>118</v>
       </c>
       <c r="X8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -10268,7 +10286,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -10342,7 +10360,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -10416,7 +10434,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -10490,7 +10508,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -10564,7 +10582,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -10638,7 +10656,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -10712,7 +10730,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -10786,7 +10804,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -10860,7 +10878,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -10929,12 +10947,12 @@
         <v>118</v>
       </c>
       <c r="X18" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -11022,78 +11040,78 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="H1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="J1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="L1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="M1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="N1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="O1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="P1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="Q1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="R1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="S1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="T1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="U1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="V1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="W1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="X1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11138,7 +11156,7 @@
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
         <v>30</v>
@@ -11162,12 +11180,12 @@
         <v>155</v>
       </c>
       <c r="X2" t="s">
-        <v>48</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -11233,7 +11251,7 @@
         <v>32</v>
       </c>
       <c r="W3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="X3" t="s">
         <v>47</v>
@@ -11241,7 +11259,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -11301,21 +11319,21 @@
         <v>31</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W4" t="s">
         <v>155</v>
       </c>
       <c r="X4" t="s">
-        <v>405</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -11384,12 +11402,12 @@
         <v>155</v>
       </c>
       <c r="X5" t="s">
-        <v>48</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -11458,12 +11476,12 @@
         <v>155</v>
       </c>
       <c r="X6" t="s">
-        <v>279</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -11529,7 +11547,7 @@
         <v>37</v>
       </c>
       <c r="W7" t="s">
-        <v>155</v>
+        <v>406</v>
       </c>
       <c r="X7" t="s">
         <v>45</v>
@@ -11537,7 +11555,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -11606,12 +11624,12 @@
         <v>155</v>
       </c>
       <c r="X8" t="s">
-        <v>48</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -11623,7 +11641,7 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -11680,12 +11698,12 @@
         <v>155</v>
       </c>
       <c r="X9" t="s">
-        <v>279</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -11739,27 +11757,27 @@
         <v>29</v>
       </c>
       <c r="S10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="T10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U10" t="s">
         <v>34</v>
       </c>
       <c r="V10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s">
         <v>155</v>
       </c>
       <c r="X10" t="s">
-        <v>48</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -11774,7 +11792,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -11825,15 +11843,15 @@
         <v>34</v>
       </c>
       <c r="W11" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="X11" t="s">
-        <v>54</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -11875,7 +11893,7 @@
         <v>29</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P12" t="s">
         <v>30</v>
@@ -11890,24 +11908,24 @@
         <v>29</v>
       </c>
       <c r="T12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U12" t="s">
         <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W12" t="s">
         <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>279</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -11967,21 +11985,21 @@
         <v>30</v>
       </c>
       <c r="U13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W13" t="s">
         <v>155</v>
       </c>
       <c r="X13" t="s">
-        <v>30</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -11990,7 +12008,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>30</v>
@@ -12038,24 +12056,24 @@
         <v>29</v>
       </c>
       <c r="T14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U14" t="s">
         <v>34</v>
       </c>
       <c r="V14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W14" t="s">
         <v>155</v>
       </c>
       <c r="X14" t="s">
-        <v>45</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -12115,21 +12133,21 @@
         <v>40</v>
       </c>
       <c r="U15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W15" t="s">
         <v>155</v>
       </c>
       <c r="X15" t="s">
-        <v>518</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -12198,12 +12216,12 @@
         <v>155</v>
       </c>
       <c r="X16" t="s">
-        <v>405</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -12239,7 +12257,7 @@
         <v>29</v>
       </c>
       <c r="M17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N17" t="s">
         <v>31</v>
@@ -12260,24 +12278,24 @@
         <v>30</v>
       </c>
       <c r="T17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U17" t="s">
         <v>33</v>
       </c>
       <c r="V17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W17" t="s">
         <v>155</v>
       </c>
       <c r="X17" t="s">
-        <v>45</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -12298,7 +12316,7 @@
         <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s">
         <v>29</v>
@@ -12343,15 +12361,15 @@
         <v>36</v>
       </c>
       <c r="W18" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="X18" t="s">
-        <v>519</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12411,16 +12429,16 @@
         <v>33</v>
       </c>
       <c r="U19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W19" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="X19" t="s">
-        <v>408</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -12439,60 +12457,60 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C1" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="D1" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="E1" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F1" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="G1" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="H1" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="I1" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="J1" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="K1" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="L1" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="M1" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="N1" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="O1" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="P1" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="Q1" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="R1" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -12543,12 +12561,12 @@
         <v>43</v>
       </c>
       <c r="R2" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -12599,12 +12617,12 @@
         <v>43</v>
       </c>
       <c r="R3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -12655,12 +12673,12 @@
         <v>43</v>
       </c>
       <c r="R4" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
@@ -12711,12 +12729,12 @@
         <v>43</v>
       </c>
       <c r="R5" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -12772,7 +12790,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -12823,12 +12841,12 @@
         <v>43</v>
       </c>
       <c r="R7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -12884,7 +12902,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -12935,12 +12953,12 @@
         <v>43</v>
       </c>
       <c r="R9" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -12991,12 +13009,12 @@
         <v>43</v>
       </c>
       <c r="R10" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -13047,12 +13065,12 @@
         <v>43</v>
       </c>
       <c r="R11" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -13108,7 +13126,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -13159,7 +13177,7 @@
         <v>43</v>
       </c>
       <c r="R13" t="s">
-        <v>319</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -13178,54 +13196,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="C1" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D1" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="E1" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="F1" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="G1" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="H1" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="I1" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="J1" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="K1" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="L1" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M1" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="N1" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="O1" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="P1" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13270,12 +13288,12 @@
         <v>154</v>
       </c>
       <c r="P2" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13320,12 +13338,12 @@
         <v>154</v>
       </c>
       <c r="P3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -13375,7 +13393,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13408,24 +13426,24 @@
         <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="M5" t="s">
         <v>31</v>
       </c>
       <c r="N5" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="O5" t="s">
         <v>154</v>
       </c>
       <c r="P5" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -13475,7 +13493,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -13496,7 +13514,7 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
         <v>30</v>
@@ -13508,24 +13526,24 @@
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
         <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="O7" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="P7" t="s">
-        <v>564</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -13561,21 +13579,21 @@
         <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>32</v>
+        <v>570</v>
       </c>
       <c r="N8" t="s">
-        <v>32</v>
+        <v>570</v>
       </c>
       <c r="O8" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="P8" t="s">
-        <v>119</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -13625,7 +13643,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -13675,7 +13693,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -13720,7 +13738,7 @@
         <v>154</v>
       </c>
       <c r="P11" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -13739,54 +13757,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="C1" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="D1" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="E1" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="F1" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="G1" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="H1" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="I1" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="J1" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="K1" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="L1" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="M1" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="N1" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="O1" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="P1" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -13816,27 +13834,27 @@
         <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
         <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="P2" t="s">
-        <v>586</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -13881,12 +13899,12 @@
         <v>154</v>
       </c>
       <c r="P3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -13936,7 +13954,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -13981,12 +13999,12 @@
         <v>154</v>
       </c>
       <c r="P5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -14036,7 +14054,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -14086,7 +14104,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14136,7 +14154,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -14169,24 +14187,24 @@
         <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="O9" t="s">
         <v>154</v>
       </c>
       <c r="P9" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14222,21 +14240,21 @@
         <v>31</v>
       </c>
       <c r="M10" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="N10" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="O10" t="s">
         <v>154</v>
       </c>
       <c r="P10" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -14272,16 +14290,16 @@
         <v>31</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="P11" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -14300,54 +14318,54 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C1" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D1" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E1" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="G1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="H1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="I1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="J1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="K1" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="L1" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="M1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="N1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="O1" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="P1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -14397,7 +14415,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -14447,7 +14465,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -14497,7 +14515,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -14547,7 +14565,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -14597,7 +14615,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -14647,7 +14665,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -14697,7 +14715,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -14747,7 +14765,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -14797,7 +14815,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -16278,84 +16296,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="C1" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="D1" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="E1" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="F1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="G1" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="H1" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="I1" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="J1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="K1" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="L1" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="M1" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="N1" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="O1" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="P1" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="Q1" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="R1" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="S1" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="T1" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="U1" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="V1" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="W1" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="X1" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="Y1" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="Z1" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -16435,7 +16453,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -16510,12 +16528,12 @@
         <v>154</v>
       </c>
       <c r="Z3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -16595,7 +16613,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -16675,7 +16693,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -16755,7 +16773,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -16835,7 +16853,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -16915,7 +16933,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -16995,7 +17013,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -17075,7 +17093,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -17155,7 +17173,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -17235,7 +17253,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -17315,7 +17333,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -17390,12 +17408,12 @@
         <v>118</v>
       </c>
       <c r="Z14" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -17475,7 +17493,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -17550,12 +17568,12 @@
         <v>154</v>
       </c>
       <c r="Z16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -17635,7 +17653,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -17715,7 +17733,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -17795,7 +17813,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -17875,7 +17893,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -17969,90 +17987,90 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="C1" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="D1" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="E1" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="F1" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="G1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="H1" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="I1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="J1" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="K1" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="L1" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="M1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="N1" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="O1" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="P1" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="Q1" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="R1" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="S1" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="T1" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="U1" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="V1" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="W1" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="X1" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="Y1" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="Z1" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AA1" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="AB1" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -18138,7 +18156,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -18219,12 +18237,12 @@
         <v>43</v>
       </c>
       <c r="AB3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -18310,7 +18328,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -18396,7 +18414,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -18482,7 +18500,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -18568,7 +18586,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -18654,7 +18672,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -18735,12 +18753,12 @@
         <v>42</v>
       </c>
       <c r="AB9" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -18826,7 +18844,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -18912,7 +18930,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -18998,7 +19016,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -19084,7 +19102,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -19165,12 +19183,12 @@
         <v>43</v>
       </c>
       <c r="AB14" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -19256,7 +19274,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -19342,7 +19360,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -19428,7 +19446,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -19509,12 +19527,12 @@
         <v>42</v>
       </c>
       <c r="AB18" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -19600,7 +19618,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -19686,7 +19704,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -19772,7 +19790,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -19858,7 +19876,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -19958,84 +19976,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C1" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="D1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="E1" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="F1" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="G1" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="H1" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="I1" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="J1" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="K1" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="L1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="M1" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="N1" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="O1" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="P1" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="Q1" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="R1" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="S1" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="T1" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="U1" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="V1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="W1" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="X1" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="Y1" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="Z1" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -20110,12 +20128,12 @@
         <v>154</v>
       </c>
       <c r="Z2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -20190,12 +20208,12 @@
         <v>154</v>
       </c>
       <c r="Z3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -20270,12 +20288,12 @@
         <v>154</v>
       </c>
       <c r="Z4" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -20350,12 +20368,12 @@
         <v>154</v>
       </c>
       <c r="Z5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -20430,12 +20448,12 @@
         <v>154</v>
       </c>
       <c r="Z6" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -20510,12 +20528,12 @@
         <v>154</v>
       </c>
       <c r="Z7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -20590,12 +20608,12 @@
         <v>154</v>
       </c>
       <c r="Z8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -20670,12 +20688,12 @@
         <v>154</v>
       </c>
       <c r="Z9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -20750,12 +20768,12 @@
         <v>154</v>
       </c>
       <c r="Z10" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -20830,12 +20848,12 @@
         <v>154</v>
       </c>
       <c r="Z11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -20910,12 +20928,12 @@
         <v>154</v>
       </c>
       <c r="Z12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -20990,12 +21008,12 @@
         <v>154</v>
       </c>
       <c r="Z13" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -21070,12 +21088,12 @@
         <v>154</v>
       </c>
       <c r="Z14" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -21150,12 +21168,12 @@
         <v>154</v>
       </c>
       <c r="Z15" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -21230,12 +21248,12 @@
         <v>154</v>
       </c>
       <c r="Z16" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -21310,12 +21328,12 @@
         <v>154</v>
       </c>
       <c r="Z17" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -21390,12 +21408,12 @@
         <v>154</v>
       </c>
       <c r="Z18" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -21470,12 +21488,12 @@
         <v>154</v>
       </c>
       <c r="Z19" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -21550,12 +21568,12 @@
         <v>154</v>
       </c>
       <c r="Z20" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -21630,7 +21648,7 @@
         <v>154</v>
       </c>
       <c r="Z21" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -23218,7 +23236,7 @@
         <v>154</v>
       </c>
       <c r="Z2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3">
@@ -23339,7 +23357,7 @@
         <v>30</v>
       </c>
       <c r="M4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N4" t="s">
         <v>29</v>
@@ -23375,10 +23393,10 @@
         <v>31</v>
       </c>
       <c r="Y4" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="Z4" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -23455,10 +23473,10 @@
         <v>31</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="Z5" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6">
@@ -23555,7 +23573,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>30</v>
@@ -23615,7 +23633,7 @@
         <v>33</v>
       </c>
       <c r="Y7" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="Z7" t="s">
         <v>157</v>
@@ -23668,7 +23686,7 @@
         <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s">
         <v>30</v>
@@ -23695,10 +23713,10 @@
         <v>33</v>
       </c>
       <c r="Y8" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="Z8" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
@@ -23896,7 +23914,7 @@
         <v>29</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M11" t="s">
         <v>30</v>
@@ -23935,10 +23953,10 @@
         <v>31</v>
       </c>
       <c r="Y11" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="Z11" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12">
@@ -24015,10 +24033,10 @@
         <v>34</v>
       </c>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="Z12" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
@@ -24095,7 +24113,7 @@
         <v>33</v>
       </c>
       <c r="Y13" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="Z13" t="s">
         <v>157</v>
@@ -24118,7 +24136,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -24175,10 +24193,10 @@
         <v>32</v>
       </c>
       <c r="Y14" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="Z14" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
@@ -24258,7 +24276,7 @@
         <v>154</v>
       </c>
       <c r="Z15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -24335,10 +24353,10 @@
         <v>32</v>
       </c>
       <c r="Y16" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="Z16" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -24394,7 +24412,7 @@
         <v>29</v>
       </c>
       <c r="R17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S17" t="s">
         <v>29</v>
@@ -24406,19 +24424,19 @@
         <v>30</v>
       </c>
       <c r="V17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W17" t="s">
         <v>31</v>
       </c>
       <c r="X17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y17" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="Z17" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -24489,16 +24507,16 @@
         <v>32</v>
       </c>
       <c r="W18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="Z18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
@@ -24560,7 +24578,7 @@
         <v>29</v>
       </c>
       <c r="T19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U19" t="s">
         <v>30</v>
@@ -24575,10 +24593,10 @@
         <v>32</v>
       </c>
       <c r="Y19" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="Z19" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -24655,10 +24673,10 @@
         <v>34</v>
       </c>
       <c r="Y20" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="Z20" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
@@ -24757,96 +24775,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="R1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="T1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="W1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="X1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AC1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AD1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -24930,15 +24948,15 @@
         <v>31</v>
       </c>
       <c r="AC2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -25022,18 +25040,18 @@
         <v>33</v>
       </c>
       <c r="AC3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -25114,15 +25132,15 @@
         <v>34</v>
       </c>
       <c r="AC4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD4" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -25164,7 +25182,7 @@
         <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
@@ -25206,15 +25224,15 @@
         <v>34</v>
       </c>
       <c r="AC5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD5" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -25235,7 +25253,7 @@
         <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
@@ -25289,24 +25307,24 @@
         <v>30</v>
       </c>
       <c r="Z6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="s">
         <v>32</v>
       </c>
       <c r="AB6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD6" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -25363,7 +25381,7 @@
         <v>30</v>
       </c>
       <c r="T7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="U7" t="s">
         <v>29</v>
@@ -25381,24 +25399,24 @@
         <v>29</v>
       </c>
       <c r="Z7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="s">
         <v>31</v>
       </c>
       <c r="AB7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -25476,21 +25494,21 @@
         <v>31</v>
       </c>
       <c r="AA8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC8" t="s">
         <v>195</v>
       </c>
       <c r="AD8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -25535,7 +25553,7 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
         <v>30</v>
@@ -25577,12 +25595,12 @@
         <v>195</v>
       </c>
       <c r="AD9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -25666,15 +25684,15 @@
         <v>32</v>
       </c>
       <c r="AC10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -25758,15 +25776,15 @@
         <v>34</v>
       </c>
       <c r="AC11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD11" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -25850,15 +25868,15 @@
         <v>33</v>
       </c>
       <c r="AC12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD12" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -25942,15 +25960,15 @@
         <v>33</v>
       </c>
       <c r="AC13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -26034,7 +26052,7 @@
         <v>30</v>
       </c>
       <c r="AC14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD14" t="s">
         <v>30</v>
@@ -26042,7 +26060,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -26126,15 +26144,15 @@
         <v>34</v>
       </c>
       <c r="AC15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD15" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -26221,12 +26239,12 @@
         <v>195</v>
       </c>
       <c r="AD16" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
@@ -26259,7 +26277,7 @@
         <v>30</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M17" t="s">
         <v>30</v>
@@ -26310,15 +26328,15 @@
         <v>33</v>
       </c>
       <c r="AC17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AD17" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -26402,15 +26420,15 @@
         <v>32</v>
       </c>
       <c r="AC18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD18" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -26494,15 +26512,15 @@
         <v>31</v>
       </c>
       <c r="AC19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -26580,10 +26598,10 @@
         <v>31</v>
       </c>
       <c r="AA20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AB20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="s">
         <v>195</v>
@@ -26594,7 +26612,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -26678,15 +26696,15 @@
         <v>31</v>
       </c>
       <c r="AC21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD21" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -26770,15 +26788,15 @@
         <v>33</v>
       </c>
       <c r="AC22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD22" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -26805,7 +26823,7 @@
         <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K23" t="s">
         <v>29</v>
@@ -26865,12 +26883,12 @@
         <v>195</v>
       </c>
       <c r="AD23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -26954,7 +26972,7 @@
         <v>30</v>
       </c>
       <c r="AC24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD24" t="s">
         <v>30</v>
@@ -26962,7 +26980,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -27068,96 +27086,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="R1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="S1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="T1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="U1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="V1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="W1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="X1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Y1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Z1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AA1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AB1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AC1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AD1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -27241,15 +27259,15 @@
         <v>33</v>
       </c>
       <c r="AC2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -27333,15 +27351,15 @@
         <v>32</v>
       </c>
       <c r="AC3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="s">
-        <v>237</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -27425,15 +27443,15 @@
         <v>33</v>
       </c>
       <c r="AC4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -27517,15 +27535,15 @@
         <v>36</v>
       </c>
       <c r="AC5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -27609,15 +27627,15 @@
         <v>31</v>
       </c>
       <c r="AC6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD6" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -27701,15 +27719,15 @@
         <v>32</v>
       </c>
       <c r="AC7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
@@ -27793,15 +27811,15 @@
         <v>32</v>
       </c>
       <c r="AC8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -27888,12 +27906,12 @@
         <v>195</v>
       </c>
       <c r="AD9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -27977,15 +27995,15 @@
         <v>32</v>
       </c>
       <c r="AC10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD10" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -28069,15 +28087,15 @@
         <v>33</v>
       </c>
       <c r="AC11" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
@@ -28161,15 +28179,15 @@
         <v>37</v>
       </c>
       <c r="AC12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD12" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B13" t="s">
         <v>29</v>
@@ -28241,7 +28259,7 @@
         <v>29</v>
       </c>
       <c r="Y13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z13" t="s">
         <v>30</v>
@@ -28253,7 +28271,7 @@
         <v>30</v>
       </c>
       <c r="AC13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD13" t="s">
         <v>30</v>
@@ -28261,7 +28279,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
@@ -28345,15 +28363,15 @@
         <v>31</v>
       </c>
       <c r="AC14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD14" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -28437,15 +28455,15 @@
         <v>33</v>
       </c>
       <c r="AC15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD15" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
         <v>31</v>
@@ -28469,7 +28487,7 @@
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J16" t="s">
         <v>29</v>
@@ -28532,18 +28550,18 @@
         <v>195</v>
       </c>
       <c r="AD16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>29</v>
@@ -28624,12 +28642,12 @@
         <v>195</v>
       </c>
       <c r="AD17" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -28721,7 +28739,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -28805,15 +28823,15 @@
         <v>31</v>
       </c>
       <c r="AC19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD19" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -28897,15 +28915,15 @@
         <v>34</v>
       </c>
       <c r="AC20" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD20" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -28992,15 +29010,15 @@
         <v>195</v>
       </c>
       <c r="AD21" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -29081,15 +29099,15 @@
         <v>37</v>
       </c>
       <c r="AC22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD22" t="s">
-        <v>240</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s">
         <v>30</v>
@@ -29149,7 +29167,7 @@
         <v>29</v>
       </c>
       <c r="U23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V23" t="s">
         <v>29</v>
@@ -29173,15 +29191,15 @@
         <v>33</v>
       </c>
       <c r="AC23" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD23" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -29268,12 +29286,12 @@
         <v>42</v>
       </c>
       <c r="AD24" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -29360,7 +29378,7 @@
         <v>195</v>
       </c>
       <c r="AD25" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -29379,96 +29397,96 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="I1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="N1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="O1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="R1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="S1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="T1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="U1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="V1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="W1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="X1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Y1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Z1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AA1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AB1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AC1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AD1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -29513,7 +29531,7 @@
         <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="s">
         <v>29</v>
@@ -29552,15 +29570,15 @@
         <v>36</v>
       </c>
       <c r="AC2" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="AD2" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -29652,7 +29670,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -29733,18 +29751,18 @@
         <v>35</v>
       </c>
       <c r="AB4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AC4" t="s">
         <v>42</v>
       </c>
       <c r="AD4" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -29836,7 +29854,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -29928,7 +29946,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -30015,12 +30033,12 @@
         <v>43</v>
       </c>
       <c r="AD7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -30112,7 +30130,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -30199,12 +30217,12 @@
         <v>43</v>
       </c>
       <c r="AD9" t="s">
-        <v>280</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -30288,15 +30306,15 @@
         <v>37</v>
       </c>
       <c r="AC10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD10" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -30380,15 +30398,15 @@
         <v>31</v>
       </c>
       <c r="AC11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD11" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -30472,15 +30490,15 @@
         <v>33</v>
       </c>
       <c r="AC12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD12" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -30564,15 +30582,15 @@
         <v>36</v>
       </c>
       <c r="AC13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -30656,15 +30674,15 @@
         <v>34</v>
       </c>
       <c r="AC14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD14" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -30756,7 +30774,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -30848,7 +30866,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -30940,7 +30958,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -31024,15 +31042,15 @@
         <v>31</v>
       </c>
       <c r="AC18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -31124,7 +31142,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -31208,15 +31226,15 @@
         <v>32</v>
       </c>
       <c r="AC20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD20" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -31300,15 +31318,15 @@
         <v>31</v>
       </c>
       <c r="AC21" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="AD21" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
@@ -31392,15 +31410,15 @@
         <v>37</v>
       </c>
       <c r="AC22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD22" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -31460,7 +31478,7 @@
         <v>29</v>
       </c>
       <c r="U23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V23" t="s">
         <v>29</v>
@@ -31484,15 +31502,15 @@
         <v>33</v>
       </c>
       <c r="AC23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AD23" t="s">
-        <v>280</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
@@ -31576,15 +31594,15 @@
         <v>36</v>
       </c>
       <c r="AC24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AD24" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s">
         <v>30</v>
@@ -31690,93 +31708,93 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H1" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="I1" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="J1" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="L1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="N1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="O1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="R1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="S1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="T1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="U1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="V1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="W1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="X1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Y1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Z1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AA1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AB1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AC1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -31857,15 +31875,15 @@
         <v>31</v>
       </c>
       <c r="AB2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC2" t="s">
-        <v>314</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
@@ -31931,7 +31949,7 @@
         <v>29</v>
       </c>
       <c r="W3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X3" t="s">
         <v>29</v>
@@ -31946,15 +31964,15 @@
         <v>34</v>
       </c>
       <c r="AB3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC3" t="s">
-        <v>279</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -32038,12 +32056,12 @@
         <v>154</v>
       </c>
       <c r="AC4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -32132,7 +32150,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
@@ -32213,15 +32231,15 @@
         <v>34</v>
       </c>
       <c r="AB6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC6" t="s">
-        <v>279</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -32254,7 +32272,7 @@
         <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
         <v>29</v>
@@ -32302,18 +32320,18 @@
         <v>34</v>
       </c>
       <c r="AB7" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="AC7" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -32391,15 +32409,15 @@
         <v>33</v>
       </c>
       <c r="AB8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC8" t="s">
-        <v>280</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -32480,7 +32498,7 @@
         <v>30</v>
       </c>
       <c r="AB9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC9" t="s">
         <v>30</v>
@@ -32488,7 +32506,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -32542,7 +32560,7 @@
         <v>29</v>
       </c>
       <c r="S10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T10" t="s">
         <v>29</v>
@@ -32569,15 +32587,15 @@
         <v>31</v>
       </c>
       <c r="AB10" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="AC10" t="s">
-        <v>123</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -32661,12 +32679,12 @@
         <v>154</v>
       </c>
       <c r="AC11" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -32747,15 +32765,15 @@
         <v>31</v>
       </c>
       <c r="AB12" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="AC12" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -32839,12 +32857,12 @@
         <v>154</v>
       </c>
       <c r="AC13" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -32859,7 +32877,7 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>29</v>
@@ -32925,15 +32943,15 @@
         <v>36</v>
       </c>
       <c r="AB14" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="AC14" t="s">
-        <v>122</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
@@ -33017,12 +33035,12 @@
         <v>154</v>
       </c>
       <c r="AC15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -33073,7 +33091,7 @@
         <v>30</v>
       </c>
       <c r="R16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S16" t="s">
         <v>30</v>
@@ -33103,15 +33121,15 @@
         <v>34</v>
       </c>
       <c r="AB16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC16" t="s">
-        <v>279</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -33195,12 +33213,12 @@
         <v>154</v>
       </c>
       <c r="AC17" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
@@ -33281,15 +33299,15 @@
         <v>36</v>
       </c>
       <c r="AB18" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="AC18" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -33370,15 +33388,15 @@
         <v>34</v>
       </c>
       <c r="AB19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC19" t="s">
-        <v>279</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -33462,12 +33480,12 @@
         <v>154</v>
       </c>
       <c r="AC20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -33551,12 +33569,12 @@
         <v>154</v>
       </c>
       <c r="AC21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -33580,7 +33598,7 @@
         <v>30</v>
       </c>
       <c r="I22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
         <v>29</v>
@@ -33637,15 +33655,15 @@
         <v>40</v>
       </c>
       <c r="AB22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC22" t="s">
-        <v>319</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -33726,15 +33744,15 @@
         <v>34</v>
       </c>
       <c r="AB23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC23" t="s">
-        <v>279</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B24" t="s">
         <v>29</v>
@@ -33818,7 +33836,7 @@
         <v>154</v>
       </c>
       <c r="AC24" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -33837,84 +33855,84 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="O1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="R1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="S1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="T1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="U1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="V1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="W1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Y1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Z1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -33989,12 +34007,12 @@
         <v>154</v>
       </c>
       <c r="Z2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -34069,12 +34087,12 @@
         <v>154</v>
       </c>
       <c r="Z3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -34149,12 +34167,12 @@
         <v>154</v>
       </c>
       <c r="Z4" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -34234,7 +34252,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>30</v>
@@ -34309,12 +34327,12 @@
         <v>154</v>
       </c>
       <c r="Z6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -34389,12 +34407,12 @@
         <v>154</v>
       </c>
       <c r="Z7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
@@ -34469,12 +34487,12 @@
         <v>154</v>
       </c>
       <c r="Z8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -34554,7 +34572,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -34629,12 +34647,12 @@
         <v>118</v>
       </c>
       <c r="Z10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -34709,12 +34727,12 @@
         <v>154</v>
       </c>
       <c r="Z11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -34789,12 +34807,12 @@
         <v>154</v>
       </c>
       <c r="Z12" t="s">
-        <v>316</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -34869,12 +34887,12 @@
         <v>154</v>
       </c>
       <c r="Z13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
@@ -34949,12 +34967,12 @@
         <v>154</v>
       </c>
       <c r="Z14" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
@@ -35029,12 +35047,12 @@
         <v>154</v>
       </c>
       <c r="Z15" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
         <v>30</v>
@@ -35109,12 +35127,12 @@
         <v>154</v>
       </c>
       <c r="Z16" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -35189,12 +35207,12 @@
         <v>154</v>
       </c>
       <c r="Z17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -35269,12 +35287,12 @@
         <v>154</v>
       </c>
       <c r="Z18" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
@@ -35349,12 +35367,12 @@
         <v>154</v>
       </c>
       <c r="Z19" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>30</v>
@@ -35434,7 +35452,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -35509,7 +35527,7 @@
         <v>154</v>
       </c>
       <c r="Z21" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
